--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CD209-449E-C243-99CA-8BD4E1239B7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE443B7-530E-A640-B0C9-9D7231705F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17920" windowHeight="21940" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26280" windowHeight="21940" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datasheet" sheetId="20" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="67">
   <si>
     <t>I</t>
   </si>
@@ -206,6 +206,60 @@
   </si>
   <si>
     <t>GENDER</t>
+  </si>
+  <si>
+    <t>12 KM/H  SF</t>
+  </si>
+  <si>
+    <t>12 KM/H Fmax</t>
+  </si>
+  <si>
+    <t>12 KM/H ∆L</t>
+  </si>
+  <si>
+    <t>12 KM/H Kleg</t>
+  </si>
+  <si>
+    <t>15 KM/H SF</t>
+  </si>
+  <si>
+    <t>15 KM/H Fmax</t>
+  </si>
+  <si>
+    <t>15 KM/H ∆L</t>
+  </si>
+  <si>
+    <t>15 KM/H Kleg</t>
+  </si>
+  <si>
+    <t>18 KM/H SF</t>
+  </si>
+  <si>
+    <t>18 KM/H Fmax</t>
+  </si>
+  <si>
+    <t>18 KM/H ∆L</t>
+  </si>
+  <si>
+    <t>18 KM/H Kleg</t>
+  </si>
+  <si>
+    <t>12 KM/H ∆z</t>
+  </si>
+  <si>
+    <t>12 KM/H Kvert</t>
+  </si>
+  <si>
+    <t>15 KM/H ∆z</t>
+  </si>
+  <si>
+    <t>15 KM/H Kvert</t>
+  </si>
+  <si>
+    <t>18 KM/H Kvert</t>
+  </si>
+  <si>
+    <t>18 KM/H ∆z</t>
   </si>
 </sst>
 </file>
@@ -1260,21 +1314,21 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:BE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="BD2" sqref="BD2:BE81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="20" customWidth="1"/>
     <col min="2" max="27" width="15.6640625" style="1" customWidth="1"/>
-    <col min="28" max="39" width="14.33203125" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="10.83203125" style="1"/>
+    <col min="28" max="57" width="14.33203125" style="1" customWidth="1"/>
+    <col min="58" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="8" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" s="8" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
@@ -1368,32 +1422,86 @@
       <c r="AE1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AF1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AP1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AW1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AX1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AY1" s="21" t="s">
         <v>9</v>
       </c>
+      <c r="AZ1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE1" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1484,32 +1592,104 @@
       <c r="AE2" s="5">
         <v>0.35995862884160756</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="5">
+        <f xml:space="preserve"> 1 / (AC2+AD2)</f>
+        <v>2.6891252955082741</v>
+      </c>
+      <c r="AG2" s="5">
+        <f>$F2 * 9.81 * PI() / 2 * (AC2/AD2 + 1)</f>
+        <v>1926.4103785903021</v>
+      </c>
+      <c r="AH2" s="5">
+        <f>AG2*AD2*AD2/$F2/PI()/PI()-9.81*AD2*AD2/8</f>
+        <v>6.7548808414824288E-2</v>
+      </c>
+      <c r="AI2" s="5">
+        <f>0.53*$G2/100 - SQRT((0.53*$G2/100) * (0.53*$G2/100) - (12/3.6*AD2/2)*(12/3.6*AD2/2)) + AH2</f>
+        <v>0.17694870378613797</v>
+      </c>
+      <c r="AJ2" s="5">
+        <f>AG2/AH2</f>
+        <v>28518.791430931167</v>
+      </c>
+      <c r="AK2" s="5">
+        <f>AG2/AI2</f>
+        <v>10886.829557782925</v>
+      </c>
+      <c r="AL2" s="4">
         <v>15.11</v>
       </c>
-      <c r="AG2" s="5">
+      <c r="AM2" s="5">
         <v>0.12220096153846155</v>
       </c>
-      <c r="AH2" s="5">
+      <c r="AN2" s="5">
         <v>0.22720634920634925</v>
       </c>
-      <c r="AI2" s="5">
+      <c r="AO2" s="5">
         <v>0.32513107513696116</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AP2" s="5">
+        <f xml:space="preserve"> 1 / (AM2+AN2)</f>
+        <v>2.8619893438072586</v>
+      </c>
+      <c r="AQ2" s="5">
+        <f>$F2 * 9.81 * PI() / 2 * (AM2/AN2 + 1)</f>
+        <v>2132.764572477427</v>
+      </c>
+      <c r="AR2" s="5">
+        <f>AQ2*AN2*AN2/$F2/PI()/PI()-9.81*AN2*AN2/8</f>
+        <v>6.0646223126597426E-2</v>
+      </c>
+      <c r="AS2" s="5">
+        <f>0.53*$G2/100 - SQRT((0.53*$G2/100) * (0.53*$G2/100) - (15/3.6*AN2/2)*(15/3.6*AN2/2)) + AR2</f>
+        <v>0.18477243214038655</v>
+      </c>
+      <c r="AT2" s="5">
+        <f>AQ2/AR2</f>
+        <v>35167.310716536063</v>
+      </c>
+      <c r="AU2" s="5">
+        <f>AQ2/AS2</f>
+        <v>11542.65572938388</v>
+      </c>
+      <c r="AV2" s="4">
         <v>18.760000000000002</v>
       </c>
-      <c r="AK2" s="5">
+      <c r="AW2" s="5">
         <v>0.12925</v>
       </c>
-      <c r="AL2" s="5">
+      <c r="AX2" s="5">
         <v>0.20111111111111113</v>
       </c>
-      <c r="AM2" s="5">
+      <c r="AY2" s="5">
         <v>0.30438072815942152</v>
       </c>
+      <c r="AZ2" s="5">
+        <f xml:space="preserve"> 1 / (AW2+AX2)</f>
+        <v>3.0269906667787776</v>
+      </c>
+      <c r="BA2" s="5">
+        <f>$F2 * 9.81 * PI() / 2 * (AW2/AX2 + 1)</f>
+        <v>2278.1601274717345</v>
+      </c>
+      <c r="BB2" s="5">
+        <f>BA2*AX2*AX2/$F2/PI()/PI()-9.81*AX2*AX2/8</f>
+        <v>5.4135813624411708E-2</v>
+      </c>
+      <c r="BC2" s="5">
+        <f>0.53*$G2/100 - SQRT((0.53*$G2/100) * (0.53*$G2/100) - (18/3.6*AX2/2)*(18/3.6*AX2/2)) + BB2</f>
+        <v>0.19553008832068203</v>
+      </c>
+      <c r="BD2" s="5">
+        <f>BA2/BB2</f>
+        <v>42082.310672882057</v>
+      </c>
+      <c r="BE2" s="5">
+        <f>BA2/BC2</f>
+        <v>11651.199807854657</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1604,32 +1784,104 @@
       <c r="AE3" s="5">
         <v>0.32677386708647249</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF3" s="5">
+        <f t="shared" ref="AF3:AF66" si="1" xml:space="preserve"> 1 / (AC3+AD3)</f>
+        <v>2.9236478128865402</v>
+      </c>
+      <c r="AG3" s="5">
+        <f t="shared" ref="AG3:AG66" si="2">$F3 * 9.81 * PI() / 2 * (AC3/AD3 + 1)</f>
+        <v>1650.477510988683</v>
+      </c>
+      <c r="AH3" s="5">
+        <f t="shared" ref="AH3:AH66" si="3">AG3*AD3*AD3/$F3/PI()/PI()-9.81*AD3*AD3/8</f>
+        <v>5.8100782196143515E-2</v>
+      </c>
+      <c r="AI3" s="5">
+        <f t="shared" ref="AI3:AI66" si="4">0.53*$G3/100 - SQRT((0.53*$G3/100) * (0.53*$G3/100) - (12/3.6*AD3/2)*(12/3.6*AD3/2)) + AH3</f>
+        <v>0.13873684498254019</v>
+      </c>
+      <c r="AJ3" s="5">
+        <f t="shared" ref="AJ3:AJ66" si="5">AG3/AH3</f>
+        <v>28407.147866216415</v>
+      </c>
+      <c r="AK3" s="5">
+        <f t="shared" ref="AK3:AK66" si="6">AG3/AI3</f>
+        <v>11896.461327172266</v>
+      </c>
+      <c r="AL3" s="4">
         <v>14.73</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AM3" s="5">
         <v>0.13279375000000002</v>
       </c>
-      <c r="AH3" s="5">
+      <c r="AN3" s="5">
         <v>0.21203108003108001</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AO3" s="5">
         <v>0.30744752344541004</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AP3" s="5">
+        <f t="shared" ref="AP3:AP66" si="7" xml:space="preserve"> 1 / (AM3+AN3)</f>
+        <v>2.90002317962389</v>
+      </c>
+      <c r="AQ3" s="5">
+        <f t="shared" ref="AQ3:AQ66" si="8">$F3 * 9.81 * PI() / 2 * (AM3/AN3 + 1)</f>
+        <v>1754.2275597506678</v>
+      </c>
+      <c r="AR3" s="5">
+        <f t="shared" ref="AR3:AR66" si="9">AQ3*AN3*AN3/$F3/PI()/PI()-9.81*AN3*AN3/8</f>
+        <v>5.9024224129182692E-2</v>
+      </c>
+      <c r="AS3" s="5">
+        <f t="shared" ref="AS3:AS66" si="10">0.53*$G3/100 - SQRT((0.53*$G3/100) * (0.53*$G3/100) - (15/3.6*AN3/2)*(15/3.6*AN3/2)) + AR3</f>
+        <v>0.17473806261068542</v>
+      </c>
+      <c r="AT3" s="5">
+        <f t="shared" ref="AT3:AT66" si="11">AQ3/AR3</f>
+        <v>29720.467920277912</v>
+      </c>
+      <c r="AU3" s="5">
+        <f t="shared" ref="AU3:AU66" si="12">AQ3/AS3</f>
+        <v>10039.183985111868</v>
+      </c>
+      <c r="AV3" s="4">
         <v>17.72</v>
       </c>
-      <c r="AK3" s="5">
+      <c r="AW3" s="5">
         <v>0.15187500000000001</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AX3" s="5">
         <v>0.18622222222222221</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AY3" s="5">
         <v>0.27539744485067574</v>
       </c>
+      <c r="AZ3" s="5">
+        <f t="shared" ref="AZ3:AZ66" si="13" xml:space="preserve"> 1 / (AW3+AX3)</f>
+        <v>2.9577291213079735</v>
+      </c>
+      <c r="BA3" s="5">
+        <f t="shared" ref="BA3:BA66" si="14">$F3 * 9.81 * PI() / 2 * (AW3/AX3 + 1)</f>
+        <v>1958.3802569318009</v>
+      </c>
+      <c r="BB3" s="5">
+        <f t="shared" ref="BB3:BB66" si="15">BA3*AX3*AX3/$F3/PI()/PI()-9.81*AX3*AX3/8</f>
+        <v>5.5777200153910932E-2</v>
+      </c>
+      <c r="BC3" s="5">
+        <f t="shared" ref="BC3:BC66" si="16">0.53*$G3/100 - SQRT((0.53*$G3/100) * (0.53*$G3/100) - (18/3.6*AX3/2)*(18/3.6*AX3/2)) + BB3</f>
+        <v>0.18537651005092812</v>
+      </c>
+      <c r="BD3" s="5">
+        <f t="shared" ref="BD3:BD66" si="17">BA3/BB3</f>
+        <v>35110.766613022344</v>
+      </c>
+      <c r="BE3" s="5">
+        <f t="shared" ref="BE3:BE66" si="18">BA3/BC3</f>
+        <v>10564.338795642334</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1724,32 +1976,104 @@
       <c r="AE4" s="5">
         <v>0.37172250289294684</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AF4" s="5">
+        <f t="shared" si="1"/>
+        <v>2.96350653382631</v>
+      </c>
+      <c r="AG4" s="5">
+        <f t="shared" si="2"/>
+        <v>1409.4476464613056</v>
+      </c>
+      <c r="AH4" s="5">
+        <f t="shared" si="3"/>
+        <v>5.4995045778581608E-2</v>
+      </c>
+      <c r="AI4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.15587500388902609</v>
+      </c>
+      <c r="AJ4" s="5">
+        <f t="shared" si="5"/>
+        <v>25628.629388471745</v>
+      </c>
+      <c r="AK4" s="5">
+        <f t="shared" si="6"/>
+        <v>9042.1659104801056</v>
+      </c>
+      <c r="AL4" s="4">
         <v>15.48</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AM4" s="5">
         <v>0.12527410714285714</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AN4" s="5">
         <v>0.20806515151515154</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AO4" s="5">
         <v>0.31209217953025026</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AP4" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9999466730258608</v>
+      </c>
+      <c r="AQ4" s="5">
+        <f t="shared" si="8"/>
+        <v>1678.7457078474706</v>
+      </c>
+      <c r="AR4" s="5">
+        <f t="shared" si="9"/>
+        <v>5.5200937901187908E-2</v>
+      </c>
+      <c r="AS4" s="5">
+        <f t="shared" si="10"/>
+        <v>0.16413424358834444</v>
+      </c>
+      <c r="AT4" s="5">
+        <f t="shared" si="11"/>
+        <v>30411.543203350979</v>
+      </c>
+      <c r="AU4" s="5">
+        <f t="shared" si="12"/>
+        <v>10227.882196586808</v>
+      </c>
+      <c r="AV4" s="4">
         <v>18.64</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AW4" s="5">
         <v>0.15512499999999999</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AX4" s="5">
         <v>0.17466666666666664</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AY4" s="5">
         <v>0.26481364497789012</v>
       </c>
+      <c r="AZ4" s="5">
+        <f t="shared" si="13"/>
+        <v>3.0322173089071391</v>
+      </c>
+      <c r="BA4" s="5">
+        <f t="shared" si="14"/>
+        <v>1978.4607658072659</v>
+      </c>
+      <c r="BB4" s="5">
+        <f t="shared" si="15"/>
+        <v>5.252611358759305E-2</v>
+      </c>
+      <c r="BC4" s="5">
+        <f t="shared" si="16"/>
+        <v>0.16318307813102415</v>
+      </c>
+      <c r="BD4" s="5">
+        <f t="shared" si="17"/>
+        <v>37666.231721255484</v>
+      </c>
+      <c r="BE4" s="5">
+        <f t="shared" si="18"/>
+        <v>12124.178489994569</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1844,32 +2168,104 @@
       <c r="AE5" s="5">
         <v>0.33532536520584327</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AF5" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6560424966799467</v>
+      </c>
+      <c r="AG5" s="5">
+        <f t="shared" si="2"/>
+        <v>1608.3868826145979</v>
+      </c>
+      <c r="AH5" s="5">
+        <f t="shared" si="3"/>
+        <v>7.0246784438944124E-2</v>
+      </c>
+      <c r="AI5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.16347887892217056</v>
+      </c>
+      <c r="AJ5" s="5">
+        <f t="shared" si="5"/>
+        <v>22896.234973040617</v>
+      </c>
+      <c r="AK5" s="5">
+        <f t="shared" si="6"/>
+        <v>9838.4995861167044</v>
+      </c>
+      <c r="AL5" s="4">
         <v>14.96</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AM5" s="5">
         <v>0.14591319444444445</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AN5" s="5">
         <v>0.22903055555555557</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AO5" s="5">
         <v>0.30541988705713263</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AP5" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6670667266756678</v>
+      </c>
+      <c r="AQ5" s="5">
+        <f t="shared" si="8"/>
+        <v>1765.873610922195</v>
+      </c>
+      <c r="AR5" s="5">
+        <f t="shared" si="9"/>
+        <v>6.9752333160052915E-2</v>
+      </c>
+      <c r="AS5" s="5">
+        <f t="shared" si="10"/>
+        <v>0.1914273996940774</v>
+      </c>
+      <c r="AT5" s="5">
+        <f t="shared" si="11"/>
+        <v>25316.3375463046</v>
+      </c>
+      <c r="AU5" s="5">
+        <f t="shared" si="12"/>
+        <v>9224.7693577004138</v>
+      </c>
+      <c r="AV5" s="4">
         <v>17.559999999999999</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AW5" s="5">
         <v>0.15987499999999999</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AX5" s="5">
         <v>0.19522222222222221</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AY5" s="5">
         <v>0.27488559471193336</v>
       </c>
+      <c r="AZ5" s="5">
+        <f t="shared" si="13"/>
+        <v>2.816130167794423</v>
+      </c>
+      <c r="BA5" s="5">
+        <f t="shared" si="14"/>
+        <v>1962.0268547365033</v>
+      </c>
+      <c r="BB5" s="5">
+        <f t="shared" si="15"/>
+        <v>6.1499995949781783E-2</v>
+      </c>
+      <c r="BC5" s="5">
+        <f t="shared" si="16"/>
+        <v>0.18921435966277728</v>
+      </c>
+      <c r="BD5" s="5">
+        <f t="shared" si="17"/>
+        <v>31902.877787806832</v>
+      </c>
+      <c r="BE5" s="5">
+        <f t="shared" si="18"/>
+        <v>10369.333798096923</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1964,32 +2360,104 @@
       <c r="AE6" s="5">
         <v>0.33248700728187874</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AF6" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7102288803180801</v>
+      </c>
+      <c r="AG6" s="5">
+        <f t="shared" si="2"/>
+        <v>1575.7710688375669</v>
+      </c>
+      <c r="AH6" s="5">
+        <f t="shared" si="3"/>
+        <v>6.7525057609300998E-2</v>
+      </c>
+      <c r="AI6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.16193775840362495</v>
+      </c>
+      <c r="AJ6" s="5">
+        <f t="shared" si="5"/>
+        <v>23336.093661036994</v>
+      </c>
+      <c r="AK6" s="5">
+        <f t="shared" si="6"/>
+        <v>9730.7205210906104</v>
+      </c>
+      <c r="AL6" s="4">
         <v>14.96</v>
       </c>
-      <c r="AG6" s="5">
+      <c r="AM6" s="5">
         <v>0.14300940170940171</v>
       </c>
-      <c r="AH6" s="5">
+      <c r="AN6" s="5">
         <v>0.21026655844155845</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AO6" s="5">
         <v>0.29759533928052784</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AP6" s="5">
+        <f t="shared" si="7"/>
+        <v>2.830648311231494</v>
+      </c>
+      <c r="AQ6" s="5">
+        <f t="shared" si="8"/>
+        <v>1760.5228902637289</v>
+      </c>
+      <c r="AR6" s="5">
+        <f t="shared" si="9"/>
+        <v>6.1762420273703732E-2</v>
+      </c>
+      <c r="AS6" s="5">
+        <f t="shared" si="10"/>
+        <v>0.17101924120976578</v>
+      </c>
+      <c r="AT6" s="5">
+        <f t="shared" si="11"/>
+        <v>28504.758758835389</v>
+      </c>
+      <c r="AU6" s="5">
+        <f t="shared" si="12"/>
+        <v>10294.297166857019</v>
+      </c>
+      <c r="AV6" s="4">
         <v>18.34</v>
       </c>
-      <c r="AK6" s="5">
+      <c r="AW6" s="5">
         <v>0.14722222222222223</v>
       </c>
-      <c r="AL6" s="5">
+      <c r="AX6" s="5">
         <v>0.17880000000000001</v>
       </c>
-      <c r="AM6" s="5">
+      <c r="AY6" s="5">
         <v>0.27421443664371892</v>
       </c>
+      <c r="AZ6" s="5">
+        <f t="shared" si="13"/>
+        <v>3.0672755776702338</v>
+      </c>
+      <c r="BA6" s="5">
+        <f t="shared" si="14"/>
+        <v>1910.6339303349394</v>
+      </c>
+      <c r="BB6" s="5">
+        <f t="shared" si="15"/>
+        <v>5.1810563651072485E-2</v>
+      </c>
+      <c r="BC6" s="5">
+        <f t="shared" si="16"/>
+        <v>0.16588787555699022</v>
+      </c>
+      <c r="BD6" s="5">
+        <f t="shared" si="17"/>
+        <v>36877.304466371868</v>
+      </c>
+      <c r="BE6" s="5">
+        <f t="shared" si="18"/>
+        <v>11517.622514121278</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -2084,32 +2552,104 @@
       <c r="AE7" s="5">
         <v>0.37194935799586964</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AF7" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8014725689144293</v>
+      </c>
+      <c r="AG7" s="5">
+        <f t="shared" si="2"/>
+        <v>1077.1555387837377</v>
+      </c>
+      <c r="AH7" s="5">
+        <f t="shared" si="3"/>
+        <v>6.1525545612815327E-2</v>
+      </c>
+      <c r="AI7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17930068507464281</v>
+      </c>
+      <c r="AJ7" s="5">
+        <f t="shared" si="5"/>
+        <v>17507.452035652877</v>
+      </c>
+      <c r="AK7" s="5">
+        <f t="shared" si="6"/>
+        <v>6007.5372179159176</v>
+      </c>
+      <c r="AL7" s="4">
         <v>15.4</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AM7" s="5">
         <v>0.11107638888888889</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AN7" s="5">
         <v>0.23869572649572651</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AO7" s="5">
         <v>0.34121606039585606</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AP7" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8590043517345083</v>
+      </c>
+      <c r="AQ7" s="5">
+        <f t="shared" si="8"/>
+        <v>1174.1748341139105</v>
+      </c>
+      <c r="AR7" s="5">
+        <f t="shared" si="9"/>
+        <v>6.0485989753326225E-2</v>
+      </c>
+      <c r="AS7" s="5">
+        <f t="shared" si="10"/>
+        <v>0.21229136948235686</v>
+      </c>
+      <c r="AT7" s="5">
+        <f t="shared" si="11"/>
+        <v>19412.343898189094</v>
+      </c>
+      <c r="AU7" s="5">
+        <f t="shared" si="12"/>
+        <v>5530.9588749508448</v>
+      </c>
+      <c r="AV7" s="4">
         <v>17.77</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AW7" s="5">
         <v>0.13</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="AX7" s="5">
         <v>0.21344444444444446</v>
       </c>
-      <c r="AM7" s="5">
+      <c r="AY7" s="5">
         <v>0.31074086056292466</v>
       </c>
+      <c r="AZ7" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9116790682626981</v>
+      </c>
+      <c r="BA7" s="5">
+        <f t="shared" si="14"/>
+        <v>1289.3293478897854</v>
+      </c>
+      <c r="BB7" s="5">
+        <f t="shared" si="15"/>
+        <v>5.8587723667446551E-2</v>
+      </c>
+      <c r="BC7" s="5">
+        <f t="shared" si="16"/>
+        <v>0.23619649048709565</v>
+      </c>
+      <c r="BD7" s="5">
+        <f t="shared" si="17"/>
+        <v>22006.817592167063</v>
+      </c>
+      <c r="BE7" s="5">
+        <f t="shared" si="18"/>
+        <v>5458.7150944997911</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -2204,32 +2744,104 @@
       <c r="AE8" s="5">
         <v>0.37008182081072349</v>
       </c>
-      <c r="AF8" s="4">
+      <c r="AF8" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6536479153554358</v>
+      </c>
+      <c r="AG8" s="5">
+        <f t="shared" si="2"/>
+        <v>1707.1629976747799</v>
+      </c>
+      <c r="AH8" s="5">
+        <f t="shared" si="3"/>
+        <v>6.8708302462865592E-2</v>
+      </c>
+      <c r="AI8" s="5">
+        <f t="shared" si="4"/>
+        <v>0.18591549910315036</v>
+      </c>
+      <c r="AJ8" s="5">
+        <f t="shared" si="5"/>
+        <v>24846.531444979901</v>
+      </c>
+      <c r="AK8" s="5">
+        <f t="shared" si="6"/>
+        <v>9182.4673354834449</v>
+      </c>
+      <c r="AL8" s="4">
         <v>14.92</v>
       </c>
-      <c r="AG8" s="5">
+      <c r="AM8" s="5">
         <v>0.1228625</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AN8" s="5">
         <v>0.23311258741258742</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AO8" s="5">
         <v>0.32742823255831083</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AP8" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8091853485268352</v>
+      </c>
+      <c r="AQ8" s="5">
+        <f t="shared" si="8"/>
+        <v>1929.5525790912411</v>
+      </c>
+      <c r="AR8" s="5">
+        <f t="shared" si="9"/>
+        <v>6.2924815134511453E-2</v>
+      </c>
+      <c r="AS8" s="5">
+        <f t="shared" si="10"/>
+        <v>0.19164835452723675</v>
+      </c>
+      <c r="AT8" s="5">
+        <f t="shared" si="11"/>
+        <v>30664.41395126114</v>
+      </c>
+      <c r="AU8" s="5">
+        <f t="shared" si="12"/>
+        <v>10068.192778649796</v>
+      </c>
+      <c r="AV8" s="4">
         <v>17.04</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="AW8" s="5">
         <v>0.13633333333333336</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="AX8" s="5">
         <v>0.20080000000000001</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="AY8" s="5">
         <v>0.29780502274075532</v>
       </c>
+      <c r="AZ8" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9661854854656906</v>
+      </c>
+      <c r="BA8" s="5">
+        <f t="shared" si="14"/>
+        <v>2121.4887001760208</v>
+      </c>
+      <c r="BB8" s="5">
+        <f t="shared" si="15"/>
+        <v>5.6251839289318782E-2</v>
+      </c>
+      <c r="BC8" s="5">
+        <f t="shared" si="16"/>
+        <v>0.19450707082827337</v>
+      </c>
+      <c r="BD8" s="5">
+        <f t="shared" si="17"/>
+        <v>37714.121475470645</v>
+      </c>
+      <c r="BE8" s="5">
+        <f t="shared" si="18"/>
+        <v>10907.000404365985</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2324,32 +2936,104 @@
       <c r="AE9" s="5">
         <v>0.32992938068383887</v>
       </c>
-      <c r="AF9" s="4">
+      <c r="AF9" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6418736981151247</v>
+      </c>
+      <c r="AG9" s="5">
+        <f t="shared" si="2"/>
+        <v>1587.9865132145642</v>
+      </c>
+      <c r="AH9" s="5">
+        <f t="shared" si="3"/>
+        <v>7.1110882995360877E-2</v>
+      </c>
+      <c r="AI9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17304251684612598</v>
+      </c>
+      <c r="AJ9" s="5">
+        <f t="shared" si="5"/>
+        <v>22331.131977620938</v>
+      </c>
+      <c r="AK9" s="5">
+        <f t="shared" si="6"/>
+        <v>9176.8574692348247</v>
+      </c>
+      <c r="AL9" s="4">
         <v>14.73</v>
       </c>
-      <c r="AG9" s="5">
+      <c r="AM9" s="5">
         <v>0.14684305555555555</v>
       </c>
-      <c r="AH9" s="5">
+      <c r="AN9" s="5">
         <v>0.20999003496503499</v>
       </c>
-      <c r="AI9" s="5">
+      <c r="AO9" s="5">
         <v>0.29424125808886803</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AP9" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8024306785592139</v>
+      </c>
+      <c r="AQ9" s="5">
+        <f t="shared" si="8"/>
+        <v>1780.5912408141355</v>
+      </c>
+      <c r="AR9" s="5">
+        <f t="shared" si="9"/>
+        <v>6.2918639947782795E-2</v>
+      </c>
+      <c r="AS9" s="5">
+        <f t="shared" si="10"/>
+        <v>0.17625569490255366</v>
+      </c>
+      <c r="AT9" s="5">
+        <f t="shared" si="11"/>
+        <v>28299.900352135348</v>
+      </c>
+      <c r="AU9" s="5">
+        <f t="shared" si="12"/>
+        <v>10102.31891683596</v>
+      </c>
+      <c r="AV9" s="4">
         <v>17.5</v>
       </c>
-      <c r="AK9" s="5">
+      <c r="AW9" s="5">
         <v>0.15622222222222223</v>
       </c>
-      <c r="AL9" s="5">
+      <c r="AX9" s="5">
         <v>0.18709999999999999</v>
       </c>
-      <c r="AM9" s="5">
+      <c r="AY9" s="5">
         <v>0.27248454642545067</v>
       </c>
+      <c r="AZ9" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9127156218647854</v>
+      </c>
+      <c r="BA9" s="5">
+        <f t="shared" si="14"/>
+        <v>1922.7637446313331</v>
+      </c>
+      <c r="BB9" s="5">
+        <f t="shared" si="15"/>
+        <v>5.7365054759689837E-2</v>
+      </c>
+      <c r="BC9" s="5">
+        <f t="shared" si="16"/>
+        <v>0.18829302079143823</v>
+      </c>
+      <c r="BD9" s="5">
+        <f t="shared" si="17"/>
+        <v>33518.032061261983</v>
+      </c>
+      <c r="BE9" s="5">
+        <f t="shared" si="18"/>
+        <v>10211.550786903952</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -2444,32 +3128,104 @@
       <c r="AE10" s="5">
         <v>0.33780507515758851</v>
       </c>
-      <c r="AF10" s="4">
+      <c r="AF10" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6668821722967508</v>
+      </c>
+      <c r="AG10" s="5">
+        <f t="shared" si="2"/>
+        <v>1779.0465888888798</v>
+      </c>
+      <c r="AH10" s="5">
+        <f t="shared" si="3"/>
+        <v>6.961446340041394E-2</v>
+      </c>
+      <c r="AI10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17129084720762883</v>
+      </c>
+      <c r="AJ10" s="5">
+        <f t="shared" si="5"/>
+        <v>25555.703541892148</v>
+      </c>
+      <c r="AK10" s="5">
+        <f t="shared" si="6"/>
+        <v>10386.115883544102</v>
+      </c>
+      <c r="AL10" s="4">
         <v>13.12</v>
       </c>
-      <c r="AG10" s="5">
+      <c r="AM10" s="5">
         <v>0.12815909090909092</v>
       </c>
-      <c r="AH10" s="5">
+      <c r="AN10" s="5">
         <v>0.24260606060606063</v>
       </c>
-      <c r="AI10" s="5">
+      <c r="AO10" s="5">
         <v>0.32716944892830141</v>
       </c>
-      <c r="AJ10" s="4">
+      <c r="AP10" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6971251098261169</v>
+      </c>
+      <c r="AQ10" s="5">
+        <f t="shared" si="8"/>
+        <v>1836.8798450987433</v>
+      </c>
+      <c r="AR10" s="5">
+        <f t="shared" si="9"/>
+        <v>6.8265379774214943E-2</v>
+      </c>
+      <c r="AS10" s="5">
+        <f t="shared" si="10"/>
+        <v>0.21807811624922008</v>
+      </c>
+      <c r="AT10" s="5">
+        <f t="shared" si="11"/>
+        <v>26907.926846289454</v>
+      </c>
+      <c r="AU10" s="5">
+        <f t="shared" si="12"/>
+        <v>8423.0360968431778</v>
+      </c>
+      <c r="AV10" s="4">
         <v>17.29</v>
       </c>
-      <c r="AK10" s="5">
+      <c r="AW10" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AL10" s="5">
+      <c r="AX10" s="5">
         <v>0.21200000000000002</v>
       </c>
-      <c r="AM10" s="5">
+      <c r="AY10" s="5">
         <v>0.3054755043227666</v>
       </c>
+      <c r="AZ10" s="5">
+        <f t="shared" si="13"/>
+        <v>2.8818443804034581</v>
+      </c>
+      <c r="BA10" s="5">
+        <f t="shared" si="14"/>
+        <v>1967.3294852259949</v>
+      </c>
+      <c r="BB10" s="5">
+        <f t="shared" si="15"/>
+        <v>5.9743628231735617E-2</v>
+      </c>
+      <c r="BC10" s="5">
+        <f t="shared" si="16"/>
+        <v>0.22608907756544683</v>
+      </c>
+      <c r="BD10" s="5">
+        <f t="shared" si="17"/>
+        <v>32929.528109592713</v>
+      </c>
+      <c r="BE10" s="5">
+        <f t="shared" si="18"/>
+        <v>8701.5680120880879</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -2564,32 +3320,104 @@
       <c r="AE11" s="5">
         <v>0.35677411953653781</v>
       </c>
-      <c r="AF11" s="4">
+      <c r="AF11" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5238040610301709</v>
+      </c>
+      <c r="AG11" s="5">
+        <f t="shared" si="2"/>
+        <v>1554.8841701060485</v>
+      </c>
+      <c r="AH11" s="5">
+        <f t="shared" si="3"/>
+        <v>7.6884651469181262E-2</v>
+      </c>
+      <c r="AI11" s="5">
+        <f t="shared" si="4"/>
+        <v>0.19324356700950912</v>
+      </c>
+      <c r="AJ11" s="5">
+        <f t="shared" si="5"/>
+        <v>20223.596522763899</v>
+      </c>
+      <c r="AK11" s="5">
+        <f t="shared" si="6"/>
+        <v>8046.2402664588353</v>
+      </c>
+      <c r="AL11" s="4">
         <v>15.23</v>
       </c>
-      <c r="AG11" s="5">
+      <c r="AM11" s="5">
         <v>0.12332986111111111</v>
       </c>
-      <c r="AH11" s="5">
+      <c r="AN11" s="5">
         <v>0.25549848484848481</v>
       </c>
-      <c r="AI11" s="5">
+      <c r="AO11" s="5">
         <v>0.33722197345250282</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AP11" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6397179901280552</v>
+      </c>
+      <c r="AQ11" s="5">
+        <f t="shared" si="8"/>
+        <v>1645.036428354276</v>
+      </c>
+      <c r="AR11" s="5">
+        <f t="shared" si="9"/>
+        <v>7.1070343758887516E-2</v>
+      </c>
+      <c r="AS11" s="5">
+        <f t="shared" si="10"/>
+        <v>0.22231271966254004</v>
+      </c>
+      <c r="AT11" s="5">
+        <f t="shared" si="11"/>
+        <v>23146.594505511453</v>
+      </c>
+      <c r="AU11" s="5">
+        <f t="shared" si="12"/>
+        <v>7399.6505051594067</v>
+      </c>
+      <c r="AV11" s="4">
         <v>17.239999999999998</v>
       </c>
-      <c r="AK11" s="5">
+      <c r="AW11" s="5">
         <v>0.13137499999999999</v>
       </c>
-      <c r="AL11" s="5">
+      <c r="AX11" s="5">
         <v>0.23266666666666669</v>
       </c>
-      <c r="AM11" s="5">
+      <c r="AY11" s="5">
         <v>0.31956048987066499</v>
       </c>
+      <c r="AZ11" s="5">
+        <f t="shared" si="13"/>
+        <v>2.7469383083438248</v>
+      </c>
+      <c r="BA11" s="5">
+        <f t="shared" si="14"/>
+        <v>1735.9543759474311</v>
+      </c>
+      <c r="BB11" s="5">
+        <f t="shared" si="15"/>
+        <v>6.5861975106043386E-2</v>
+      </c>
+      <c r="BC11" s="5">
+        <f t="shared" si="16"/>
+        <v>0.24966020752260074</v>
+      </c>
+      <c r="BD11" s="5">
+        <f t="shared" si="17"/>
+        <v>26357.460023820979</v>
+      </c>
+      <c r="BE11" s="5">
+        <f t="shared" si="18"/>
+        <v>6953.2681766688111</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -2684,32 +3512,104 @@
       <c r="AE12" s="5">
         <v>0.34832179009057007</v>
       </c>
-      <c r="AF12" s="4">
+      <c r="AF12" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7703782631859348</v>
+      </c>
+      <c r="AG12" s="5">
+        <f t="shared" si="2"/>
+        <v>1526.2558299435289</v>
+      </c>
+      <c r="AH12" s="5">
+        <f t="shared" si="3"/>
+        <v>6.4177547408212438E-2</v>
+      </c>
+      <c r="AI12" s="5">
+        <f t="shared" si="4"/>
+        <v>0.16176960433479934</v>
+      </c>
+      <c r="AJ12" s="5">
+        <f t="shared" si="5"/>
+        <v>23781.772466864673</v>
+      </c>
+      <c r="AK12" s="5">
+        <f t="shared" si="6"/>
+        <v>9434.7503427453576</v>
+      </c>
+      <c r="AL12" s="4">
         <v>15.03</v>
       </c>
-      <c r="AG12" s="5">
+      <c r="AM12" s="5">
         <v>0.12086250000000001</v>
       </c>
-      <c r="AH12" s="5">
+      <c r="AN12" s="5">
         <v>0.23135528360528362</v>
       </c>
-      <c r="AI12" s="5">
+      <c r="AO12" s="5">
         <v>0.32842646563319783</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AP12" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8391524975373188</v>
+      </c>
+      <c r="AQ12" s="5">
+        <f t="shared" si="8"/>
+        <v>1618.7129188786084</v>
+      </c>
+      <c r="AR12" s="5">
+        <f t="shared" si="9"/>
+        <v>6.1591803449836641E-2</v>
+      </c>
+      <c r="AS12" s="5">
+        <f t="shared" si="10"/>
+        <v>0.1931521813556836</v>
+      </c>
+      <c r="AT12" s="5">
+        <f t="shared" si="11"/>
+        <v>26281.30413808985</v>
+      </c>
+      <c r="AU12" s="5">
+        <f t="shared" si="12"/>
+        <v>8380.5055035738897</v>
+      </c>
+      <c r="AV12" s="4">
         <v>17.940000000000001</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AW12" s="5">
         <v>0.13275000000000001</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AX12" s="5">
         <v>0.20777777777777776</v>
       </c>
-      <c r="AM12" s="5">
+      <c r="AY12" s="5">
         <v>0.30508198058569214</v>
       </c>
+      <c r="AZ12" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9366179949424915</v>
+      </c>
+      <c r="BA12" s="5">
+        <f t="shared" si="14"/>
+        <v>1742.5747722021681</v>
+      </c>
+      <c r="BB12" s="5">
+        <f t="shared" si="15"/>
+        <v>5.7529910440586474E-2</v>
+      </c>
+      <c r="BC12" s="5">
+        <f t="shared" si="16"/>
+        <v>0.21237277018435458</v>
+      </c>
+      <c r="BD12" s="5">
+        <f t="shared" si="17"/>
+        <v>30289.891968488242</v>
+      </c>
+      <c r="BE12" s="5">
+        <f t="shared" si="18"/>
+        <v>8205.2645953127139</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2802,32 +3702,104 @@
       <c r="AE13" s="5">
         <v>0.33900711339589934</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AF13" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7198278438639489</v>
+      </c>
+      <c r="AG13" s="5">
+        <f t="shared" si="2"/>
+        <v>1409.0998450045336</v>
+      </c>
+      <c r="AH13" s="5">
+        <f t="shared" si="3"/>
+        <v>6.6898501807064012E-2</v>
+      </c>
+      <c r="AI13" s="5">
+        <f t="shared" si="4"/>
+        <v>0.1657927413830329</v>
+      </c>
+      <c r="AJ13" s="5">
+        <f t="shared" si="5"/>
+        <v>21063.249653458493</v>
+      </c>
+      <c r="AK13" s="5">
+        <f t="shared" si="6"/>
+        <v>8499.1648805002496</v>
+      </c>
+      <c r="AL13" s="4">
         <v>14.84</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AM13" s="5">
         <v>0.13476490384615386</v>
       </c>
-      <c r="AH13" s="5">
+      <c r="AN13" s="5">
         <v>0.22261183261183265</v>
       </c>
-      <c r="AI13" s="5">
+      <c r="AO13" s="5">
         <v>0.31145260715368789</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AP13" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7981675861477369</v>
+      </c>
+      <c r="AQ13" s="5">
+        <f t="shared" si="8"/>
+        <v>1533.764238826471</v>
+      </c>
+      <c r="AR13" s="5">
+        <f t="shared" si="9"/>
+        <v>6.3443951492112738E-2</v>
+      </c>
+      <c r="AS13" s="5">
+        <f t="shared" si="10"/>
+        <v>0.1885455178999525</v>
+      </c>
+      <c r="AT13" s="5">
+        <f t="shared" si="11"/>
+        <v>24175.105786359261</v>
+      </c>
+      <c r="AU13" s="5">
+        <f t="shared" si="12"/>
+        <v>8134.7159874695562</v>
+      </c>
+      <c r="AV13" s="4">
         <v>17.77</v>
       </c>
-      <c r="AK13" s="5">
+      <c r="AW13" s="5">
         <v>0.144875</v>
       </c>
-      <c r="AL13" s="5">
+      <c r="AX13" s="5">
         <v>0.19588888888888892</v>
       </c>
-      <c r="AM13" s="5">
+      <c r="AY13" s="5">
         <v>0.28742612594253109</v>
       </c>
+      <c r="AZ13" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9345832484206231</v>
+      </c>
+      <c r="BA13" s="5">
+        <f t="shared" si="14"/>
+        <v>1661.974426907552</v>
+      </c>
+      <c r="BB13" s="5">
+        <f t="shared" si="15"/>
+        <v>5.7166120171132789E-2</v>
+      </c>
+      <c r="BC13" s="5">
+        <f t="shared" si="16"/>
+        <v>0.19794114932509668</v>
+      </c>
+      <c r="BD13" s="5">
+        <f t="shared" si="17"/>
+        <v>29072.716880772332</v>
+      </c>
+      <c r="BE13" s="5">
+        <f t="shared" si="18"/>
+        <v>8396.305834204999</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -2922,32 +3894,104 @@
       <c r="AE14" s="5">
         <v>0.37261562581656649</v>
       </c>
-      <c r="AF14" s="4">
+      <c r="AF14" s="5">
+        <f t="shared" si="1"/>
+        <v>2.717533315913248</v>
+      </c>
+      <c r="AG14" s="5">
+        <f t="shared" si="2"/>
+        <v>1426.7468296775398</v>
+      </c>
+      <c r="AH14" s="5">
+        <f t="shared" si="3"/>
+        <v>6.5337282738466382E-2</v>
+      </c>
+      <c r="AI14" s="5">
+        <f t="shared" si="4"/>
+        <v>0.18498295201441528</v>
+      </c>
+      <c r="AJ14" s="5">
+        <f t="shared" si="5"/>
+        <v>21836.641652034348</v>
+      </c>
+      <c r="AK14" s="5">
+        <f t="shared" si="6"/>
+        <v>7712.8557747654331</v>
+      </c>
+      <c r="AL14" s="4">
         <v>15.19</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AM14" s="5">
         <v>0.12022638888888888</v>
       </c>
-      <c r="AH14" s="5">
+      <c r="AN14" s="5">
         <v>0.22856905594405597</v>
       </c>
-      <c r="AI14" s="5">
+      <c r="AO14" s="5">
         <v>0.32765487527156334</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AP14" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8670099188908527</v>
+      </c>
+      <c r="AQ14" s="5">
+        <f t="shared" si="8"/>
+        <v>1622.5248056555868</v>
+      </c>
+      <c r="AR14" s="5">
+        <f t="shared" si="9"/>
+        <v>6.0409660523391084E-2</v>
+      </c>
+      <c r="AS14" s="5">
+        <f t="shared" si="10"/>
+        <v>0.19111042853582222</v>
+      </c>
+      <c r="AT14" s="5">
+        <f t="shared" si="11"/>
+        <v>26858.697625478839</v>
+      </c>
+      <c r="AU14" s="5">
+        <f t="shared" si="12"/>
+        <v>8489.985701389689</v>
+      </c>
+      <c r="AV14" s="4">
         <v>18.22</v>
       </c>
-      <c r="AK14" s="5">
+      <c r="AW14" s="5">
         <v>0.13455555555555557</v>
       </c>
-      <c r="AL14" s="5">
+      <c r="AX14" s="5">
         <v>0.19749999999999998</v>
       </c>
-      <c r="AM14" s="5">
+      <c r="AY14" s="5">
         <v>0.29738999498075958</v>
       </c>
+      <c r="AZ14" s="5">
+        <f t="shared" si="13"/>
+        <v>3.0115442529697174</v>
+      </c>
+      <c r="BA14" s="5">
+        <f t="shared" si="14"/>
+        <v>1787.646429922748</v>
+      </c>
+      <c r="BB14" s="5">
+        <f t="shared" si="15"/>
+        <v>5.456081313552108E-2</v>
+      </c>
+      <c r="BC14" s="5">
+        <f t="shared" si="16"/>
+        <v>0.19595271518604973</v>
+      </c>
+      <c r="BD14" s="5">
+        <f t="shared" si="17"/>
+        <v>32764.292304121194</v>
+      </c>
+      <c r="BE14" s="5">
+        <f t="shared" si="18"/>
+        <v>9122.845928546818</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3042,32 +4086,104 @@
       <c r="AE15" s="5">
         <v>0.36941257693494134</v>
       </c>
-      <c r="AF15" s="4">
+      <c r="AF15" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6734433068437209</v>
+      </c>
+      <c r="AG15" s="5">
+        <f t="shared" si="2"/>
+        <v>1501.6879917128092</v>
+      </c>
+      <c r="AH15" s="5">
+        <f t="shared" si="3"/>
+        <v>6.7741823036475177E-2</v>
+      </c>
+      <c r="AI15" s="5">
+        <f t="shared" si="4"/>
+        <v>0.19019010007453346</v>
+      </c>
+      <c r="AJ15" s="5">
+        <f t="shared" si="5"/>
+        <v>22167.811912948287</v>
+      </c>
+      <c r="AK15" s="5">
+        <f t="shared" si="6"/>
+        <v>7895.721129145596</v>
+      </c>
+      <c r="AL15" s="4">
         <v>14.5</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AM15" s="5">
         <v>0.12274529914529915</v>
       </c>
-      <c r="AH15" s="5">
+      <c r="AN15" s="5">
         <v>0.24097564935064936</v>
       </c>
-      <c r="AI15" s="5">
+      <c r="AO15" s="5">
         <v>0.33126446297240641</v>
       </c>
-      <c r="AJ15" s="4">
+      <c r="AP15" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7493604757580772</v>
+      </c>
+      <c r="AQ15" s="5">
+        <f t="shared" si="8"/>
+        <v>1674.6210136554685</v>
+      </c>
+      <c r="AR15" s="5">
+        <f t="shared" si="9"/>
+        <v>6.5638094672678379E-2</v>
+      </c>
+      <c r="AS15" s="5">
+        <f t="shared" si="10"/>
+        <v>0.21325379831074481</v>
+      </c>
+      <c r="AT15" s="5">
+        <f t="shared" si="11"/>
+        <v>25512.943695370905</v>
+      </c>
+      <c r="AU15" s="5">
+        <f t="shared" si="12"/>
+        <v>7852.7136534997535</v>
+      </c>
+      <c r="AV15" s="4">
         <v>17.14</v>
       </c>
-      <c r="AK15" s="5">
+      <c r="AW15" s="5">
         <v>0.13488888888888889</v>
       </c>
-      <c r="AL15" s="5">
+      <c r="AX15" s="5">
         <v>0.21100000000000002</v>
       </c>
-      <c r="AM15" s="5">
+      <c r="AY15" s="5">
         <v>0.30501124317378736</v>
       </c>
+      <c r="AZ15" s="5">
+        <f t="shared" si="13"/>
+        <v>2.8911018310311594</v>
+      </c>
+      <c r="BA15" s="5">
+        <f t="shared" si="14"/>
+        <v>1818.760597145621</v>
+      </c>
+      <c r="BB15" s="5">
+        <f t="shared" si="15"/>
+        <v>5.9354516960987716E-2</v>
+      </c>
+      <c r="BC15" s="5">
+        <f t="shared" si="16"/>
+        <v>0.22396527205056171</v>
+      </c>
+      <c r="BD15" s="5">
+        <f t="shared" si="17"/>
+        <v>30642.32833940925</v>
+      </c>
+      <c r="BE15" s="5">
+        <f t="shared" si="18"/>
+        <v>8120.7259522584518</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -3162,32 +4278,104 @@
       <c r="AE16" s="5">
         <v>0.36368775911889112</v>
       </c>
-      <c r="AF16" s="4">
+      <c r="AF16" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7639348381423003</v>
+      </c>
+      <c r="AG16" s="5">
+        <f t="shared" si="2"/>
+        <v>1737.176945770233</v>
+      </c>
+      <c r="AH16" s="5">
+        <f t="shared" si="3"/>
+        <v>6.3733324702516303E-2</v>
+      </c>
+      <c r="AI16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.16857476991568771</v>
+      </c>
+      <c r="AJ16" s="5">
+        <f t="shared" si="5"/>
+        <v>27256.964137344716</v>
+      </c>
+      <c r="AK16" s="5">
+        <f t="shared" si="6"/>
+        <v>10305.082703889071</v>
+      </c>
+      <c r="AL16" s="4">
         <v>14.54</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AM16" s="5">
         <v>0.11160909090909091</v>
       </c>
-      <c r="AH16" s="5">
+      <c r="AN16" s="5">
         <v>0.24358207070707072</v>
       </c>
-      <c r="AI16" s="5">
+      <c r="AO16" s="5">
         <v>0.34288869914265829</v>
       </c>
-      <c r="AJ16" s="4">
+      <c r="AP16" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8153853700916494</v>
+      </c>
+      <c r="AQ16" s="5">
+        <f t="shared" si="8"/>
+        <v>1842.5512190395061</v>
+      </c>
+      <c r="AR16" s="5">
+        <f t="shared" si="9"/>
+        <v>6.2325586893772697E-2</v>
+      </c>
+      <c r="AS16" s="5">
+        <f t="shared" si="10"/>
+        <v>0.20567391180697997</v>
+      </c>
+      <c r="AT16" s="5">
+        <f t="shared" si="11"/>
+        <v>29563.31918991694</v>
+      </c>
+      <c r="AU16" s="5">
+        <f t="shared" si="12"/>
+        <v>8958.6044377310045</v>
+      </c>
+      <c r="AV16" s="4">
         <v>18.11</v>
       </c>
-      <c r="AK16" s="5">
+      <c r="AW16" s="5">
         <v>0.122</v>
       </c>
-      <c r="AL16" s="5">
+      <c r="AX16" s="5">
         <v>0.21388888888888888</v>
       </c>
-      <c r="AM16" s="5">
+      <c r="AY16" s="5">
         <v>0.31839232550446572</v>
       </c>
+      <c r="AZ16" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9771749917300694</v>
+      </c>
+      <c r="BA16" s="5">
+        <f t="shared" si="14"/>
+        <v>1984.3128743733303</v>
+      </c>
+      <c r="BB16" s="5">
+        <f t="shared" si="15"/>
+        <v>5.6069994393620808E-2</v>
+      </c>
+      <c r="BC16" s="5">
+        <f t="shared" si="16"/>
+        <v>0.21678635944928482</v>
+      </c>
+      <c r="BD16" s="5">
+        <f t="shared" si="17"/>
+        <v>35389.92460821593</v>
+      </c>
+      <c r="BE16" s="5">
+        <f t="shared" si="18"/>
+        <v>9153.3105653612038</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -3282,32 +4470,104 @@
       <c r="AE17" s="5">
         <v>0.34964527731960809</v>
       </c>
-      <c r="AF17" s="4">
+      <c r="AF17" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6231593171836805</v>
+      </c>
+      <c r="AG17" s="5">
+        <f t="shared" si="2"/>
+        <v>1542.5145248337722</v>
+      </c>
+      <c r="AH17" s="5">
+        <f t="shared" si="3"/>
+        <v>7.1525457153852057E-2</v>
+      </c>
+      <c r="AI17" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17994455728369663</v>
+      </c>
+      <c r="AJ17" s="5">
+        <f t="shared" si="5"/>
+        <v>21565.95128802611</v>
+      </c>
+      <c r="AK17" s="5">
+        <f t="shared" si="6"/>
+        <v>8572.1654942965451</v>
+      </c>
+      <c r="AL17" s="4">
         <v>15.19</v>
       </c>
-      <c r="AG17" s="5">
+      <c r="AM17" s="5">
         <v>0.13952020202020204</v>
       </c>
-      <c r="AH17" s="5">
+      <c r="AN17" s="5">
         <v>0.23246250000000002</v>
       </c>
-      <c r="AI17" s="5">
+      <c r="AO17" s="5">
         <v>0.31246412633909948</v>
       </c>
-      <c r="AJ17" s="4">
+      <c r="AP17" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6882970486775237</v>
+      </c>
+      <c r="AQ17" s="5">
+        <f t="shared" si="8"/>
+        <v>1726.0634848677657</v>
+      </c>
+      <c r="AR17" s="5">
+        <f t="shared" si="9"/>
+        <v>6.8744547124943087E-2</v>
+      </c>
+      <c r="AS17" s="5">
+        <f t="shared" si="10"/>
+        <v>0.19913252559490408</v>
+      </c>
+      <c r="AT17" s="5">
+        <f t="shared" si="11"/>
+        <v>25108.369420641444</v>
+      </c>
+      <c r="AU17" s="5">
+        <f t="shared" si="12"/>
+        <v>8667.9133893932631</v>
+      </c>
+      <c r="AV17" s="4">
         <v>17.989999999999998</v>
       </c>
-      <c r="AK17" s="5">
+      <c r="AW17" s="5">
         <v>0.157</v>
       </c>
-      <c r="AL17" s="5">
+      <c r="AX17" s="5">
         <v>0.19966666666666666</v>
       </c>
-      <c r="AM17" s="5">
+      <c r="AY17" s="5">
         <v>0.27990654205607474</v>
       </c>
+      <c r="AZ17" s="5">
+        <f t="shared" si="13"/>
+        <v>2.8037383177570092</v>
+      </c>
+      <c r="BA17" s="5">
+        <f t="shared" si="14"/>
+        <v>1926.8321306223031</v>
+      </c>
+      <c r="BB17" s="5">
+        <f t="shared" si="15"/>
+        <v>6.2301187416718466E-2</v>
+      </c>
+      <c r="BC17" s="5">
+        <f t="shared" si="16"/>
+        <v>0.20150080039906687</v>
+      </c>
+      <c r="BD17" s="5">
+        <f t="shared" si="17"/>
+        <v>30927.695129374686</v>
+      </c>
+      <c r="BE17" s="5">
+        <f t="shared" si="18"/>
+        <v>9562.4043517755981</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -3402,32 +4662,104 @@
       <c r="AE18" s="5">
         <v>0.38794747537908397</v>
       </c>
-      <c r="AF18" s="4">
+      <c r="AF18" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8450836329529472</v>
+      </c>
+      <c r="AG18" s="5">
+        <f t="shared" si="2"/>
+        <v>1668.2657927690352</v>
+      </c>
+      <c r="AH18" s="5">
+        <f t="shared" si="3"/>
+        <v>5.845871612563612E-2</v>
+      </c>
+      <c r="AI18" s="5">
+        <f t="shared" si="4"/>
+        <v>0.18585875187991097</v>
+      </c>
+      <c r="AJ18" s="5">
+        <f t="shared" si="5"/>
+        <v>28537.503101910312</v>
+      </c>
+      <c r="AK18" s="5">
+        <f t="shared" si="6"/>
+        <v>8975.9872800983449</v>
+      </c>
+      <c r="AL18" s="4">
         <v>15.19</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AM18" s="5">
         <v>9.740897435897436E-2</v>
       </c>
-      <c r="AH18" s="5">
+      <c r="AN18" s="5">
         <v>0.24309675324675323</v>
       </c>
-      <c r="AI18" s="5">
+      <c r="AO18" s="5">
         <v>0.35696426453101476</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AP18" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9368081618817947</v>
+      </c>
+      <c r="AQ18" s="5">
+        <f t="shared" si="8"/>
+        <v>1813.0652473471932</v>
+      </c>
+      <c r="AR18" s="5">
+        <f t="shared" si="9"/>
+        <v>5.677223258450563E-2</v>
+      </c>
+      <c r="AS18" s="5">
+        <f t="shared" si="10"/>
+        <v>0.21835073761471474</v>
+      </c>
+      <c r="AT18" s="5">
+        <f t="shared" si="11"/>
+        <v>31935.775022559497</v>
+      </c>
+      <c r="AU18" s="5">
+        <f t="shared" si="12"/>
+        <v>8303.4537329861996</v>
+      </c>
+      <c r="AV18" s="4">
         <v>17.29</v>
       </c>
-      <c r="AK18" s="5">
+      <c r="AW18" s="5">
         <v>0.11166666666666668</v>
       </c>
-      <c r="AL18" s="5">
+      <c r="AX18" s="5">
         <v>0.21640000000000001</v>
       </c>
-      <c r="AM18" s="5">
+      <c r="AY18" s="5">
         <v>0.32981101402154034</v>
       </c>
+      <c r="AZ18" s="5">
+        <f t="shared" si="13"/>
+        <v>3.0481609428977849</v>
+      </c>
+      <c r="BA18" s="5">
+        <f t="shared" si="14"/>
+        <v>1962.3344128943006</v>
+      </c>
+      <c r="BB18" s="5">
+        <f t="shared" si="15"/>
+        <v>5.3419046463922079E-2</v>
+      </c>
+      <c r="BC18" s="5">
+        <f t="shared" si="16"/>
+        <v>0.24084608818365333</v>
+      </c>
+      <c r="BD18" s="5">
+        <f t="shared" si="17"/>
+        <v>36734.733073523006</v>
+      </c>
+      <c r="BE18" s="5">
+        <f t="shared" si="18"/>
+        <v>8147.6698570995841</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -3522,32 +4854,104 @@
       <c r="AE19" s="5">
         <v>0.36818632309217053</v>
       </c>
-      <c r="AF19" s="4">
+      <c r="AF19" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7750247770069372</v>
+      </c>
+      <c r="AG19" s="5">
+        <f t="shared" si="2"/>
+        <v>1402.0581930388882</v>
+      </c>
+      <c r="AH19" s="5">
+        <f t="shared" si="3"/>
+        <v>6.2952004785868376E-2</v>
+      </c>
+      <c r="AI19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17518477399809063</v>
+      </c>
+      <c r="AJ19" s="5">
+        <f t="shared" si="5"/>
+        <v>22271.859296745159</v>
+      </c>
+      <c r="AK19" s="5">
+        <f t="shared" si="6"/>
+        <v>8003.3107960293946</v>
+      </c>
+      <c r="AL19" s="4">
         <v>14.84</v>
       </c>
-      <c r="AG19" s="5">
+      <c r="AM19" s="5">
         <v>0.11809444444444445</v>
       </c>
-      <c r="AH19" s="5">
+      <c r="AN19" s="5">
         <v>0.23667337662337667</v>
       </c>
-      <c r="AI19" s="5">
+      <c r="AO19" s="5">
         <v>0.33356094122489721</v>
       </c>
-      <c r="AJ19" s="4">
+      <c r="AP19" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8187449385631553</v>
+      </c>
+      <c r="AQ19" s="5">
+        <f t="shared" si="8"/>
+        <v>1547.5992151856597</v>
+      </c>
+      <c r="AR19" s="5">
+        <f t="shared" si="9"/>
+        <v>6.2406465674383405E-2</v>
+      </c>
+      <c r="AS19" s="5">
+        <f t="shared" si="10"/>
+        <v>0.20432471689342507</v>
+      </c>
+      <c r="AT19" s="5">
+        <f t="shared" si="11"/>
+        <v>24798.699917738137</v>
+      </c>
+      <c r="AU19" s="5">
+        <f t="shared" si="12"/>
+        <v>7574.2144108433095</v>
+      </c>
+      <c r="AV19" s="4">
         <v>17.190000000000001</v>
       </c>
-      <c r="AK19" s="5">
+      <c r="AW19" s="5">
         <v>0.1297777777777778</v>
       </c>
-      <c r="AL19" s="5">
+      <c r="AX19" s="5">
         <v>0.2117</v>
       </c>
-      <c r="AM19" s="5">
+      <c r="AY19" s="5">
         <v>0.30997624703087889</v>
       </c>
+      <c r="AZ19" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9284482478117986</v>
+      </c>
+      <c r="BA19" s="5">
+        <f t="shared" si="14"/>
+        <v>1665.3490575515511</v>
+      </c>
+      <c r="BB19" s="5">
+        <f t="shared" si="15"/>
+        <v>5.7911708114107105E-2</v>
+      </c>
+      <c r="BC19" s="5">
+        <f t="shared" si="16"/>
+        <v>0.22373547276210398</v>
+      </c>
+      <c r="BD19" s="5">
+        <f t="shared" si="17"/>
+        <v>28756.690344380939</v>
+      </c>
+      <c r="BE19" s="5">
+        <f t="shared" si="18"/>
+        <v>7443.3840865382244</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -3642,32 +5046,104 @@
       <c r="AE20" s="5">
         <v>0.33242711165276084</v>
       </c>
-      <c r="AF20" s="4">
+      <c r="AF20" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9249085966063557</v>
+      </c>
+      <c r="AG20" s="5">
+        <f t="shared" si="2"/>
+        <v>1506.523148489485</v>
+      </c>
+      <c r="AH20" s="5">
+        <f t="shared" si="3"/>
+        <v>5.7977512955420432E-2</v>
+      </c>
+      <c r="AI20" s="5">
+        <f t="shared" si="4"/>
+        <v>0.14042725412655388</v>
+      </c>
+      <c r="AJ20" s="5">
+        <f t="shared" si="5"/>
+        <v>25984.611475967722</v>
+      </c>
+      <c r="AK20" s="5">
+        <f t="shared" si="6"/>
+        <v>10728.139333492894</v>
+      </c>
+      <c r="AL20" s="4">
         <v>15.27</v>
       </c>
-      <c r="AG20" s="5">
+      <c r="AM20" s="5">
         <v>0.11138789682539682</v>
       </c>
-      <c r="AH20" s="5">
+      <c r="AN20" s="5">
         <v>0.23023525641025644</v>
       </c>
-      <c r="AI20" s="5">
+      <c r="AO20" s="5">
         <v>0.33697255913365898</v>
       </c>
-      <c r="AJ20" s="4">
+      <c r="AP20" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9272020661614677</v>
+      </c>
+      <c r="AQ20" s="5">
+        <f t="shared" si="8"/>
+        <v>1486.2015476213858</v>
+      </c>
+      <c r="AR20" s="5">
+        <f t="shared" si="9"/>
+        <v>5.7801403640218171E-2</v>
+      </c>
+      <c r="AS20" s="5">
+        <f t="shared" si="10"/>
+        <v>0.1941956700556467</v>
+      </c>
+      <c r="AT20" s="5">
+        <f t="shared" si="11"/>
+        <v>25712.205137303758</v>
+      </c>
+      <c r="AU20" s="5">
+        <f t="shared" si="12"/>
+        <v>7653.1137238822848</v>
+      </c>
+      <c r="AV20" s="4">
         <v>17.29</v>
       </c>
-      <c r="AK20" s="5">
+      <c r="AW20" s="5">
         <v>0.1361111111111111</v>
       </c>
-      <c r="AL20" s="5">
+      <c r="AX20" s="5">
         <v>0.19030000000000002</v>
       </c>
-      <c r="AM20" s="5">
+      <c r="AY20" s="5">
         <v>0.2915035572046159</v>
       </c>
+      <c r="AZ20" s="5">
+        <f t="shared" si="13"/>
+        <v>3.063621200258706</v>
+      </c>
+      <c r="BA20" s="5">
+        <f t="shared" si="14"/>
+        <v>1718.0206776648304</v>
+      </c>
+      <c r="BB20" s="5">
+        <f t="shared" si="15"/>
+        <v>5.2574857362348702E-2</v>
+      </c>
+      <c r="BC20" s="5">
+        <f t="shared" si="16"/>
+        <v>0.18656538114694146</v>
+      </c>
+      <c r="BD20" s="5">
+        <f t="shared" si="17"/>
+        <v>32677.609866330989</v>
+      </c>
+      <c r="BE20" s="5">
+        <f t="shared" si="18"/>
+        <v>9208.6788401096437</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -3762,32 +5238,104 @@
       <c r="AE21" s="5">
         <v>0.37584477046852816</v>
       </c>
-      <c r="AF21" s="4">
+      <c r="AF21" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9531471840984387</v>
+      </c>
+      <c r="AG21" s="5">
+        <f t="shared" si="2"/>
+        <v>1414.4886522150382</v>
+      </c>
+      <c r="AH21" s="5">
+        <f t="shared" si="3"/>
+        <v>5.5124326391238723E-2</v>
+      </c>
+      <c r="AI21" s="5">
+        <f t="shared" si="4"/>
+        <v>0.15717520996807338</v>
+      </c>
+      <c r="AJ21" s="5">
+        <f t="shared" si="5"/>
+        <v>25659.971646199603</v>
+      </c>
+      <c r="AK21" s="5">
+        <f t="shared" si="6"/>
+        <v>8999.4386042325623</v>
+      </c>
+      <c r="AL21" s="4">
         <v>14.69</v>
       </c>
-      <c r="AG21" s="5">
+      <c r="AM21" s="5">
         <v>0.10560037878787878</v>
       </c>
-      <c r="AH21" s="5">
+      <c r="AN21" s="5">
         <v>0.2308126456876457</v>
       </c>
-      <c r="AI21" s="5">
+      <c r="AO21" s="5">
         <v>0.3430495089295188</v>
       </c>
-      <c r="AJ21" s="4">
+      <c r="AP21" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9725365168575824</v>
+      </c>
+      <c r="AQ21" s="5">
+        <f t="shared" si="8"/>
+        <v>1549.7126478362759</v>
+      </c>
+      <c r="AR21" s="5">
+        <f t="shared" si="9"/>
+        <v>5.5905363960710663E-2</v>
+      </c>
+      <c r="AS21" s="5">
+        <f t="shared" si="10"/>
+        <v>0.18939953414488986</v>
+      </c>
+      <c r="AT21" s="5">
+        <f t="shared" si="11"/>
+        <v>27720.285461791958</v>
+      </c>
+      <c r="AU21" s="5">
+        <f t="shared" si="12"/>
+        <v>8182.2410748420962</v>
+      </c>
+      <c r="AV21" s="4">
         <v>17.04</v>
       </c>
-      <c r="AK21" s="5">
+      <c r="AW21" s="5">
         <v>0.12249999999999998</v>
       </c>
-      <c r="AL21" s="5">
+      <c r="AX21" s="5">
         <v>0.20554545454545459</v>
       </c>
-      <c r="AM21" s="5">
+      <c r="AY21" s="5">
         <v>0.31328806983511159</v>
       </c>
+      <c r="AZ21" s="5">
+        <f t="shared" si="13"/>
+        <v>3.0483580435083826</v>
+      </c>
+      <c r="BA21" s="5">
+        <f t="shared" si="14"/>
+        <v>1696.9307612061416</v>
+      </c>
+      <c r="BB21" s="5">
+        <f t="shared" si="15"/>
+        <v>5.3468648500196329E-2</v>
+      </c>
+      <c r="BC21" s="5">
+        <f t="shared" si="16"/>
+        <v>0.20777009151814224</v>
+      </c>
+      <c r="BD21" s="5">
+        <f t="shared" si="17"/>
+        <v>31736.930122703787</v>
+      </c>
+      <c r="BE21" s="5">
+        <f t="shared" si="18"/>
+        <v>8167.3485765296855</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -3882,32 +5430,104 @@
       <c r="AE22" s="5">
         <v>0.34394370623875958</v>
       </c>
-      <c r="AF22" s="4">
+      <c r="AF22" s="5">
+        <f t="shared" si="1"/>
+        <v>2.723891672923469</v>
+      </c>
+      <c r="AG22" s="5">
+        <f t="shared" si="2"/>
+        <v>1523.2824364446185</v>
+      </c>
+      <c r="AH22" s="5">
+        <f t="shared" si="3"/>
+        <v>6.6547833825532365E-2</v>
+      </c>
+      <c r="AI22" s="5">
+        <f t="shared" si="4"/>
+        <v>0.16627025871097584</v>
+      </c>
+      <c r="AJ22" s="5">
+        <f t="shared" si="5"/>
+        <v>22890.037870176049</v>
+      </c>
+      <c r="AK22" s="5">
+        <f t="shared" si="6"/>
+        <v>9161.4847312681995</v>
+      </c>
+      <c r="AL22" s="4">
         <v>14.96</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AM22" s="5">
         <v>0.13634583333333333</v>
       </c>
-      <c r="AH22" s="5">
+      <c r="AN22" s="5">
         <v>0.21487703962703963</v>
       </c>
-      <c r="AI22" s="5">
+      <c r="AO22" s="5">
         <v>0.30589841404105156</v>
       </c>
-      <c r="AJ22" s="4">
+      <c r="AP22" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8471949778533525</v>
+      </c>
+      <c r="AQ22" s="5">
+        <f t="shared" si="8"/>
+        <v>1712.7365909417867</v>
+      </c>
+      <c r="AR22" s="5">
+        <f t="shared" si="9"/>
+        <v>6.1213056059516123E-2</v>
+      </c>
+      <c r="AS22" s="5">
+        <f t="shared" si="10"/>
+        <v>0.17491528347918275</v>
+      </c>
+      <c r="AT22" s="5">
+        <f t="shared" si="11"/>
+        <v>27979.922931417281</v>
+      </c>
+      <c r="AU22" s="5">
+        <f t="shared" si="12"/>
+        <v>9791.8063926393552</v>
+      </c>
+      <c r="AV22" s="4">
         <v>18.46</v>
       </c>
-      <c r="AK22" s="5">
+      <c r="AW22" s="5">
         <v>0.14899999999999999</v>
       </c>
-      <c r="AL22" s="5">
+      <c r="AX22" s="5">
         <v>0.18733333333333335</v>
       </c>
-      <c r="AM22" s="5">
+      <c r="AY22" s="5">
         <v>0.27849355797819625</v>
       </c>
+      <c r="AZ22" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9732408325074329</v>
+      </c>
+      <c r="BA22" s="5">
+        <f t="shared" si="14"/>
+        <v>1881.2765747356666</v>
+      </c>
+      <c r="BB22" s="5">
+        <f t="shared" si="15"/>
+        <v>5.5338846254586349E-2</v>
+      </c>
+      <c r="BC22" s="5">
+        <f t="shared" si="16"/>
+        <v>0.18060706852386249</v>
+      </c>
+      <c r="BD22" s="5">
+        <f t="shared" si="17"/>
+        <v>33995.587224223185</v>
+      </c>
+      <c r="BE22" s="5">
+        <f t="shared" si="18"/>
+        <v>10416.406124697745</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
@@ -4002,32 +5622,104 @@
       <c r="AE23" s="5">
         <v>0.35626479614204293</v>
       </c>
-      <c r="AF23" s="4">
+      <c r="AF23" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7356422621657166</v>
+      </c>
+      <c r="AG23" s="5">
+        <f t="shared" si="2"/>
+        <v>1319.2157071036618</v>
+      </c>
+      <c r="AH23" s="5">
+        <f t="shared" si="3"/>
+        <v>6.5463855904813531E-2</v>
+      </c>
+      <c r="AI23" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17845333125288987</v>
+      </c>
+      <c r="AJ23" s="5">
+        <f t="shared" si="5"/>
+        <v>20151.817959239099</v>
+      </c>
+      <c r="AK23" s="5">
+        <f t="shared" si="6"/>
+        <v>7392.4969505566369</v>
+      </c>
+      <c r="AL23" s="4">
         <v>15.91</v>
       </c>
-      <c r="AG23" s="5">
+      <c r="AM23" s="5">
         <v>0.13727430555555556</v>
       </c>
-      <c r="AH23" s="5">
+      <c r="AN23" s="5">
         <v>0.22094871794871795</v>
       </c>
-      <c r="AI23" s="5">
+      <c r="AO23" s="5">
         <v>0.30839547356185232</v>
       </c>
-      <c r="AJ23" s="4">
+      <c r="AP23" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7915570311969922</v>
+      </c>
+      <c r="AQ23" s="5">
+        <f t="shared" si="8"/>
+        <v>1523.9851270527975</v>
+      </c>
+      <c r="AR23" s="5">
+        <f t="shared" si="9"/>
+        <v>6.3712511694453272E-2</v>
+      </c>
+      <c r="AS23" s="5">
+        <f t="shared" si="10"/>
+        <v>0.19192682482352355</v>
+      </c>
+      <c r="AT23" s="5">
+        <f t="shared" si="11"/>
+        <v>23919.715084556516</v>
+      </c>
+      <c r="AU23" s="5">
+        <f t="shared" si="12"/>
+        <v>7940.4488062265382</v>
+      </c>
+      <c r="AV23" s="4">
         <v>18.28</v>
       </c>
-      <c r="AK23" s="5">
+      <c r="AW23" s="5">
         <v>0.15512499999999999</v>
       </c>
-      <c r="AL23" s="5">
+      <c r="AX23" s="5">
         <v>0.18933333333333333</v>
       </c>
-      <c r="AM23" s="5">
+      <c r="AY23" s="5">
         <v>0.27482762791822912</v>
       </c>
+      <c r="AZ23" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9031087456150964</v>
+      </c>
+      <c r="BA23" s="5">
+        <f t="shared" si="14"/>
+        <v>1710.1268839627205</v>
+      </c>
+      <c r="BB23" s="5">
+        <f t="shared" si="15"/>
+        <v>5.7867127646304695E-2</v>
+      </c>
+      <c r="BC23" s="5">
+        <f t="shared" si="16"/>
+        <v>0.19410022598888271</v>
+      </c>
+      <c r="BD23" s="5">
+        <f t="shared" si="17"/>
+        <v>29552.648516016787</v>
+      </c>
+      <c r="BE23" s="5">
+        <f t="shared" si="18"/>
+        <v>8810.5352544034122</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -4122,32 +5814,104 @@
       <c r="AE24" s="5">
         <v>0.32524730083187481</v>
       </c>
-      <c r="AF24" s="4">
+      <c r="AF24" s="5">
+        <f t="shared" si="1"/>
+        <v>2.595921257055203</v>
+      </c>
+      <c r="AG24" s="5">
+        <f t="shared" si="2"/>
+        <v>1539.7795388600587</v>
+      </c>
+      <c r="AH24" s="5">
+        <f t="shared" si="3"/>
+        <v>7.3713986251452604E-2</v>
+      </c>
+      <c r="AI24" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17058686265908046</v>
+      </c>
+      <c r="AJ24" s="5">
+        <f t="shared" si="5"/>
+        <v>20888.566975710335</v>
+      </c>
+      <c r="AK24" s="5">
+        <f t="shared" si="6"/>
+        <v>9026.3664789786508</v>
+      </c>
+      <c r="AL24" s="4">
         <v>15.31</v>
       </c>
-      <c r="AG24" s="5">
+      <c r="AM24" s="5">
         <v>0.14536742424242424</v>
       </c>
-      <c r="AH24" s="5">
+      <c r="AN24" s="5">
         <v>0.22090138888888888</v>
       </c>
-      <c r="AI24" s="5">
+      <c r="AO24" s="5">
         <v>0.30155637194490303</v>
       </c>
-      <c r="AJ24" s="4">
+      <c r="AP24" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7302351828723248</v>
+      </c>
+      <c r="AQ24" s="5">
+        <f t="shared" si="8"/>
+        <v>1660.7479910319557</v>
+      </c>
+      <c r="AR24" s="5">
+        <f t="shared" si="9"/>
+        <v>6.6486641457522921E-2</v>
+      </c>
+      <c r="AS24" s="5">
+        <f t="shared" si="10"/>
+        <v>0.18558594432696163</v>
+      </c>
+      <c r="AT24" s="5">
+        <f t="shared" si="11"/>
+        <v>24978.671724499374</v>
+      </c>
+      <c r="AU24" s="5">
+        <f t="shared" si="12"/>
+        <v>8948.6733332890926</v>
+      </c>
+      <c r="AV24" s="4">
         <v>18.05</v>
       </c>
-      <c r="AK24" s="5">
+      <c r="AW24" s="5">
         <v>0.1595</v>
       </c>
-      <c r="AL24" s="5">
+      <c r="AX24" s="5">
         <v>0.19422222222222221</v>
       </c>
-      <c r="AM24" s="5">
+      <c r="AY24" s="5">
         <v>0.27454059996858804</v>
       </c>
+      <c r="AZ24" s="5">
+        <f t="shared" si="13"/>
+        <v>2.8270771163813415</v>
+      </c>
+      <c r="BA24" s="5">
+        <f t="shared" si="14"/>
+        <v>1824.1715030406567</v>
+      </c>
+      <c r="BB24" s="5">
+        <f t="shared" si="15"/>
+        <v>6.1006178851453839E-2</v>
+      </c>
+      <c r="BC24" s="5">
+        <f t="shared" si="16"/>
+        <v>0.19468011026889873</v>
+      </c>
+      <c r="BD24" s="5">
+        <f t="shared" si="17"/>
+        <v>29901.42207533434</v>
+      </c>
+      <c r="BE24" s="5">
+        <f t="shared" si="18"/>
+        <v>9370.0969273186129</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -4242,32 +6006,104 @@
       <c r="AE25" s="5">
         <v>0.34276504297994265</v>
       </c>
-      <c r="AF25" s="4">
+      <c r="AF25" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6265520534861513</v>
+      </c>
+      <c r="AG25" s="5">
+        <f t="shared" si="2"/>
+        <v>1573.4770212159224</v>
+      </c>
+      <c r="AH25" s="5">
+        <f t="shared" si="3"/>
+        <v>7.1613713753814548E-2</v>
+      </c>
+      <c r="AI25" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17656071187466205</v>
+      </c>
+      <c r="AJ25" s="5">
+        <f t="shared" si="5"/>
+        <v>21971.727742329382</v>
+      </c>
+      <c r="AK25" s="5">
+        <f t="shared" si="6"/>
+        <v>8911.8185156214786</v>
+      </c>
+      <c r="AL25" s="4">
         <v>15.27</v>
       </c>
-      <c r="AG25" s="5">
+      <c r="AM25" s="5">
         <v>0.13259154040404039</v>
       </c>
-      <c r="AH25" s="5">
+      <c r="AN25" s="5">
         <v>0.23862222222222224</v>
       </c>
-      <c r="AI25" s="5">
+      <c r="AO25" s="5">
         <v>0.32140810261723335</v>
       </c>
-      <c r="AJ25" s="4">
+      <c r="AP25" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6938656393696219</v>
+      </c>
+      <c r="AQ25" s="5">
+        <f t="shared" si="8"/>
+        <v>1678.0314945803414</v>
+      </c>
+      <c r="AR25" s="5">
+        <f t="shared" si="9"/>
+        <v>6.8477241732863472E-2</v>
+      </c>
+      <c r="AS25" s="5">
+        <f t="shared" si="10"/>
+        <v>0.20824255115261853</v>
+      </c>
+      <c r="AT25" s="5">
+        <f t="shared" si="11"/>
+        <v>24504.951603140049</v>
+      </c>
+      <c r="AU25" s="5">
+        <f t="shared" si="12"/>
+        <v>8058.0625107235255</v>
+      </c>
+      <c r="AV25" s="4">
         <v>17.5</v>
       </c>
-      <c r="AK25" s="5">
+      <c r="AW25" s="5">
         <v>0.13975000000000001</v>
       </c>
-      <c r="AL25" s="5">
+      <c r="AX25" s="5">
         <v>0.21788888888888891</v>
       </c>
-      <c r="AM25" s="5">
+      <c r="AY25" s="5">
         <v>0.30462135922330097</v>
       </c>
+      <c r="AZ25" s="5">
+        <f t="shared" si="13"/>
+        <v>2.7961165048543686</v>
+      </c>
+      <c r="BA25" s="5">
+        <f t="shared" si="14"/>
+        <v>1770.5026337620429</v>
+      </c>
+      <c r="BB25" s="5">
+        <f t="shared" si="15"/>
+        <v>6.3449009266937612E-2</v>
+      </c>
+      <c r="BC25" s="5">
+        <f t="shared" si="16"/>
+        <v>0.23425446088366139</v>
+      </c>
+      <c r="BD25" s="5">
+        <f t="shared" si="17"/>
+        <v>27904.338526600557</v>
+      </c>
+      <c r="BE25" s="5">
+        <f t="shared" si="18"/>
+        <v>7558.0316681411405</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
@@ -4362,32 +6198,104 @@
       <c r="AE26" s="5">
         <v>0.30808811258830726</v>
       </c>
-      <c r="AF26" s="4">
+      <c r="AF26" s="5">
+        <f t="shared" si="1"/>
+        <v>2.4475718974244871</v>
+      </c>
+      <c r="AG26" s="5">
+        <f t="shared" si="2"/>
+        <v>2150.7126937329258</v>
+      </c>
+      <c r="AH26" s="5">
+        <f t="shared" si="3"/>
+        <v>8.2874374776457718E-2</v>
+      </c>
+      <c r="AI26" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17552508078564694</v>
+      </c>
+      <c r="AJ26" s="5">
+        <f t="shared" si="5"/>
+        <v>25951.480171454434</v>
+      </c>
+      <c r="AK26" s="5">
+        <f t="shared" si="6"/>
+        <v>12253.022098644688</v>
+      </c>
+      <c r="AL26" s="4">
         <v>14.99</v>
       </c>
-      <c r="AG26" s="5">
+      <c r="AM26" s="5">
         <v>0.17278440656565655</v>
       </c>
-      <c r="AH26" s="5">
+      <c r="AN26" s="5">
         <v>0.21382638888888889</v>
       </c>
-      <c r="AI26" s="5">
+      <c r="AO26" s="5">
         <v>0.27653959925962396</v>
       </c>
-      <c r="AJ26" s="4">
+      <c r="AP26" s="5">
+        <f t="shared" si="7"/>
+        <v>2.5865806432649703</v>
+      </c>
+      <c r="AQ26" s="5">
+        <f t="shared" si="8"/>
+        <v>2396.0728094851015</v>
+      </c>
+      <c r="AR26" s="5">
+        <f t="shared" si="9"/>
+        <v>7.3003469951184119E-2</v>
+      </c>
+      <c r="AS26" s="5">
+        <f t="shared" si="10"/>
+        <v>0.17813023753538337</v>
+      </c>
+      <c r="AT26" s="5">
+        <f t="shared" si="11"/>
+        <v>32821.355081988637</v>
+      </c>
+      <c r="AU26" s="5">
+        <f t="shared" si="12"/>
+        <v>13451.241308815699</v>
+      </c>
+      <c r="AV26" s="4">
         <v>18.46</v>
       </c>
-      <c r="AK26" s="5">
+      <c r="AW26" s="5">
         <v>0.18787499999999999</v>
       </c>
-      <c r="AL26" s="5">
+      <c r="AX26" s="5">
         <v>0.18055555555555555</v>
       </c>
-      <c r="AM26" s="5">
+      <c r="AY26" s="5">
         <v>0.24503336223470426</v>
       </c>
+      <c r="AZ26" s="5">
+        <f t="shared" si="13"/>
+        <v>2.7142157047536473</v>
+      </c>
+      <c r="BA26" s="5">
+        <f t="shared" si="14"/>
+        <v>2704.1583582288426</v>
+      </c>
+      <c r="BB26" s="5">
+        <f t="shared" si="15"/>
+        <v>6.3885621519791116E-2</v>
+      </c>
+      <c r="BC26" s="5">
+        <f t="shared" si="16"/>
+        <v>0.17199454817296617</v>
+      </c>
+      <c r="BD26" s="5">
+        <f t="shared" si="17"/>
+        <v>42328.121632050206</v>
+      </c>
+      <c r="BE26" s="5">
+        <f t="shared" si="18"/>
+        <v>15722.349266032596</v>
+      </c>
     </row>
-    <row r="27" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -4482,32 +6390,104 @@
       <c r="AE27" s="5">
         <v>0.3235898686548444</v>
       </c>
-      <c r="AF27" s="4">
+      <c r="AF27" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7174859770755666</v>
+      </c>
+      <c r="AG27" s="5">
+        <f t="shared" si="2"/>
+        <v>1666.7175676637291</v>
+      </c>
+      <c r="AH27" s="5">
+        <f t="shared" si="3"/>
+        <v>6.7279868150397881E-2</v>
+      </c>
+      <c r="AI27" s="5">
+        <f t="shared" si="4"/>
+        <v>0.15221767629928984</v>
+      </c>
+      <c r="AJ27" s="5">
+        <f t="shared" si="5"/>
+        <v>24772.901812737462</v>
+      </c>
+      <c r="AK27" s="5">
+        <f t="shared" si="6"/>
+        <v>10949.566490468789</v>
+      </c>
+      <c r="AL27" s="4">
         <v>15.31</v>
       </c>
-      <c r="AG27" s="5">
+      <c r="AM27" s="5">
         <v>0.14232083333333334</v>
       </c>
-      <c r="AH27" s="5">
+      <c r="AN27" s="5">
         <v>0.21310664335664337</v>
       </c>
-      <c r="AI27" s="5">
+      <c r="AO27" s="5">
         <v>0.29978920783117541</v>
       </c>
-      <c r="AJ27" s="4">
+      <c r="AP27" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8135134889198641</v>
+      </c>
+      <c r="AQ27" s="5">
+        <f t="shared" si="8"/>
+        <v>1799.0404748284002</v>
+      </c>
+      <c r="AR27" s="5">
+        <f t="shared" si="9"/>
+        <v>6.2570337299620749E-2</v>
+      </c>
+      <c r="AS27" s="5">
+        <f t="shared" si="10"/>
+        <v>0.1701509538830675</v>
+      </c>
+      <c r="AT27" s="5">
+        <f t="shared" si="11"/>
+        <v>28752.289862425027</v>
+      </c>
+      <c r="AU27" s="5">
+        <f t="shared" si="12"/>
+        <v>10573.202405111118</v>
+      </c>
+      <c r="AV27" s="4">
         <v>18.16</v>
       </c>
-      <c r="AK27" s="5">
+      <c r="AW27" s="5">
         <v>0.14625000000000002</v>
       </c>
-      <c r="AL27" s="5">
+      <c r="AX27" s="5">
         <v>0.191</v>
       </c>
-      <c r="AM27" s="5">
+      <c r="AY27" s="5">
         <v>0.28317272053372866</v>
       </c>
+      <c r="AZ27" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9651593773165303</v>
+      </c>
+      <c r="BA27" s="5">
+        <f t="shared" si="14"/>
+        <v>1904.6076111727291</v>
+      </c>
+      <c r="BB27" s="5">
+        <f t="shared" si="15"/>
+        <v>5.5836566539886216E-2</v>
+      </c>
+      <c r="BC27" s="5">
+        <f t="shared" si="16"/>
+        <v>0.18152109641392355</v>
+      </c>
+      <c r="BD27" s="5">
+        <f t="shared" si="17"/>
+        <v>34110.399854407136</v>
+      </c>
+      <c r="BE27" s="5">
+        <f t="shared" si="18"/>
+        <v>10492.486266332602</v>
+      </c>
     </row>
-    <row r="28" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -4602,32 +6582,104 @@
       <c r="AE28" s="5">
         <v>0.36696428571428574</v>
       </c>
-      <c r="AF28" s="4">
+      <c r="AF28" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6785714285714279</v>
+      </c>
+      <c r="AG28" s="5">
+        <f t="shared" si="2"/>
+        <v>1679.674297008359</v>
+      </c>
+      <c r="AH28" s="5">
+        <f t="shared" si="3"/>
+        <v>6.7649658420853576E-2</v>
+      </c>
+      <c r="AI28" s="5">
+        <f t="shared" si="4"/>
+        <v>0.18405097435099693</v>
+      </c>
+      <c r="AJ28" s="5">
+        <f t="shared" si="5"/>
+        <v>24829.013718871716</v>
+      </c>
+      <c r="AK28" s="5">
+        <f t="shared" si="6"/>
+        <v>9126.136402870181</v>
+      </c>
+      <c r="AL28" s="4">
         <v>15.11</v>
       </c>
-      <c r="AG28" s="5">
+      <c r="AM28" s="5">
         <v>0.12252708333333334</v>
       </c>
-      <c r="AH28" s="5">
+      <c r="AN28" s="5">
         <v>0.2318257575757576</v>
       </c>
-      <c r="AI28" s="5">
+      <c r="AO28" s="5">
         <v>0.32711147028059584</v>
       </c>
-      <c r="AJ28" s="4">
+      <c r="AP28" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8220459512459493</v>
+      </c>
+      <c r="AQ28" s="5">
+        <f t="shared" si="8"/>
+        <v>1884.3132529274717</v>
+      </c>
+      <c r="AR28" s="5">
+        <f t="shared" si="9"/>
+        <v>6.2356097214404077E-2</v>
+      </c>
+      <c r="AS28" s="5">
+        <f t="shared" si="10"/>
+        <v>0.1936437161246474</v>
+      </c>
+      <c r="AT28" s="5">
+        <f t="shared" si="11"/>
+        <v>30218.588672226921</v>
+      </c>
+      <c r="AU28" s="5">
+        <f t="shared" si="12"/>
+        <v>9730.8257176522566</v>
+      </c>
+      <c r="AV28" s="4">
         <v>18.46</v>
       </c>
-      <c r="AK28" s="5">
+      <c r="AW28" s="5">
         <v>0.13137499999999999</v>
       </c>
-      <c r="AL28" s="5">
+      <c r="AX28" s="5">
         <v>0.20166666666666669</v>
       </c>
-      <c r="AM28" s="5">
+      <c r="AY28" s="5">
         <v>0.30276491930439137</v>
       </c>
+      <c r="AZ28" s="5">
+        <f t="shared" si="13"/>
+        <v>3.0026272988865257</v>
+      </c>
+      <c r="BA28" s="5">
+        <f t="shared" si="14"/>
+        <v>2035.8384982330988</v>
+      </c>
+      <c r="BB28" s="5">
+        <f t="shared" si="15"/>
+        <v>5.4991985585631203E-2</v>
+      </c>
+      <c r="BC28" s="5">
+        <f t="shared" si="16"/>
+        <v>0.19909571307771165</v>
+      </c>
+      <c r="BD28" s="5">
+        <f t="shared" si="17"/>
+        <v>37020.639945123949</v>
+      </c>
+      <c r="BE28" s="5">
+        <f t="shared" si="18"/>
+        <v>10225.426086590141</v>
+      </c>
     </row>
-    <row r="29" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
@@ -4722,32 +6774,104 @@
       <c r="AE29" s="5">
         <v>0.3310169670887862</v>
       </c>
-      <c r="AF29" s="4">
+      <c r="AF29" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7514198031676607</v>
+      </c>
+      <c r="AG29" s="5">
+        <f t="shared" si="2"/>
+        <v>1396.5609166243819</v>
+      </c>
+      <c r="AH29" s="5">
+        <f t="shared" si="3"/>
+        <v>6.5543991555329986E-2</v>
+      </c>
+      <c r="AI29" s="5">
+        <f t="shared" si="4"/>
+        <v>0.16033393091183068</v>
+      </c>
+      <c r="AJ29" s="5">
+        <f t="shared" si="5"/>
+        <v>21307.230205005948</v>
+      </c>
+      <c r="AK29" s="5">
+        <f t="shared" si="6"/>
+        <v>8710.3266830797365</v>
+      </c>
+      <c r="AL29" s="4">
         <v>14.58</v>
       </c>
-      <c r="AG29" s="5">
+      <c r="AM29" s="5">
         <v>0.13909583333333334</v>
       </c>
-      <c r="AH29" s="5">
+      <c r="AN29" s="5">
         <v>0.21639627039627041</v>
       </c>
-      <c r="AI29" s="5">
+      <c r="AO29" s="5">
         <v>0.30436157108129031</v>
       </c>
-      <c r="AJ29" s="4">
+      <c r="AP29" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8130020034442884</v>
+      </c>
+      <c r="AQ29" s="5">
+        <f t="shared" si="8"/>
+        <v>1518.8690127120838</v>
+      </c>
+      <c r="AR29" s="5">
+        <f t="shared" si="9"/>
+        <v>6.2685119140328399E-2</v>
+      </c>
+      <c r="AS29" s="5">
+        <f t="shared" si="10"/>
+        <v>0.18441173364688115</v>
+      </c>
+      <c r="AT29" s="5">
+        <f t="shared" si="11"/>
+        <v>24230.136809852869</v>
+      </c>
+      <c r="AU29" s="5">
+        <f t="shared" si="12"/>
+        <v>8236.2926841763438</v>
+      </c>
+      <c r="AV29" s="4">
         <v>17.66</v>
       </c>
-      <c r="AK29" s="5">
+      <c r="AW29" s="5">
         <v>0.15175</v>
       </c>
-      <c r="AL29" s="5">
+      <c r="AX29" s="5">
         <v>0.19533333333333336</v>
       </c>
-      <c r="AM29" s="5">
+      <c r="AY29" s="5">
         <v>0.28139255702280913</v>
       </c>
+      <c r="AZ29" s="5">
+        <f t="shared" si="13"/>
+        <v>2.8811524609843935</v>
+      </c>
+      <c r="BA29" s="5">
+        <f t="shared" si="14"/>
+        <v>1642.848566667192</v>
+      </c>
+      <c r="BB29" s="5">
+        <f t="shared" si="15"/>
+        <v>5.9064341769976089E-2</v>
+      </c>
+      <c r="BC29" s="5">
+        <f t="shared" si="16"/>
+        <v>0.20389215187641274</v>
+      </c>
+      <c r="BD29" s="5">
+        <f t="shared" si="17"/>
+        <v>27814.558114694741</v>
+      </c>
+      <c r="BE29" s="5">
+        <f t="shared" si="18"/>
+        <v>8057.4389526429086</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
@@ -4842,32 +6966,104 @@
       <c r="AE30" s="5">
         <v>0.35156811108451042</v>
       </c>
-      <c r="AF30" s="4">
+      <c r="AF30" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6334689968877179</v>
+      </c>
+      <c r="AG30" s="5">
+        <f t="shared" si="2"/>
+        <v>1577.9088412189237</v>
+      </c>
+      <c r="AH30" s="5">
+        <f t="shared" si="3"/>
+        <v>7.08786837562249E-2</v>
+      </c>
+      <c r="AI30" s="5">
+        <f t="shared" si="4"/>
+        <v>0.18102383841847375</v>
+      </c>
+      <c r="AJ30" s="5">
+        <f t="shared" si="5"/>
+        <v>22262.106991798424</v>
+      </c>
+      <c r="AK30" s="5">
+        <f t="shared" si="6"/>
+        <v>8716.5803962860609</v>
+      </c>
+      <c r="AL30" s="4">
         <v>15.44</v>
       </c>
-      <c r="AG30" s="5">
+      <c r="AM30" s="5">
         <v>0.12684501262626263</v>
       </c>
-      <c r="AH30" s="5">
+      <c r="AN30" s="5">
         <v>0.23893888888888887</v>
       </c>
-      <c r="AI30" s="5">
+      <c r="AO30" s="5">
         <v>0.32661208967802474</v>
       </c>
-      <c r="AJ30" s="4">
+      <c r="AP30" s="5">
+        <f t="shared" si="7"/>
+        <v>2.733854595179821</v>
+      </c>
+      <c r="AQ30" s="5">
+        <f t="shared" si="8"/>
+        <v>1698.4748829039136</v>
+      </c>
+      <c r="AR30" s="5">
+        <f t="shared" si="9"/>
+        <v>6.6449681013808534E-2</v>
+      </c>
+      <c r="AS30" s="5">
+        <f t="shared" si="10"/>
+        <v>0.20661814980915361</v>
+      </c>
+      <c r="AT30" s="5">
+        <f t="shared" si="11"/>
+        <v>25560.316573242286</v>
+      </c>
+      <c r="AU30" s="5">
+        <f t="shared" si="12"/>
+        <v>8220.3566553700093</v>
+      </c>
+      <c r="AV30" s="4">
         <v>18.11</v>
       </c>
-      <c r="AK30" s="5">
+      <c r="AW30" s="5">
         <v>0.140875</v>
       </c>
-      <c r="AL30" s="5">
+      <c r="AX30" s="5">
         <v>0.20655555555555555</v>
       </c>
-      <c r="AM30" s="5">
+      <c r="AY30" s="5">
         <v>0.29726164301419145</v>
       </c>
+      <c r="AZ30" s="5">
+        <f t="shared" si="13"/>
+        <v>2.8782730361782929</v>
+      </c>
+      <c r="BA30" s="5">
+        <f t="shared" si="14"/>
+        <v>1866.1756193832312</v>
+      </c>
+      <c r="BB30" s="5">
+        <f t="shared" si="15"/>
+        <v>5.9727201211173732E-2</v>
+      </c>
+      <c r="BC30" s="5">
+        <f t="shared" si="16"/>
+        <v>0.21156854144859363</v>
+      </c>
+      <c r="BD30" s="5">
+        <f t="shared" si="17"/>
+        <v>31244.986899438176</v>
+      </c>
+      <c r="BE30" s="5">
+        <f t="shared" si="18"/>
+        <v>8820.666846808459</v>
+      </c>
     </row>
-    <row r="31" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
@@ -4962,32 +7158,104 @@
       <c r="AE31" s="5">
         <v>0.33785351704133432</v>
       </c>
-      <c r="AF31" s="4">
+      <c r="AF31" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8281363306744023</v>
+      </c>
+      <c r="AG31" s="5">
+        <f t="shared" si="2"/>
+        <v>1459.5212363798648</v>
+      </c>
+      <c r="AH31" s="5">
+        <f t="shared" si="3"/>
+        <v>6.1901093077407238E-2</v>
+      </c>
+      <c r="AI31" s="5">
+        <f t="shared" si="4"/>
+        <v>0.15230453389292889</v>
+      </c>
+      <c r="AJ31" s="5">
+        <f t="shared" si="5"/>
+        <v>23578.27889331026</v>
+      </c>
+      <c r="AK31" s="5">
+        <f t="shared" si="6"/>
+        <v>9582.9139098768919</v>
+      </c>
+      <c r="AL31" s="4">
         <v>14.96</v>
       </c>
-      <c r="AG31" s="5">
+      <c r="AM31" s="5">
         <v>0.13461041666666668</v>
       </c>
-      <c r="AH31" s="5">
+      <c r="AN31" s="5">
         <v>0.21174339549339549</v>
       </c>
-      <c r="AI31" s="5">
+      <c r="AO31" s="5">
         <v>0.30567498907091789</v>
       </c>
-      <c r="AJ31" s="4">
+      <c r="AP31" s="5">
+        <f t="shared" si="7"/>
+        <v>2.887221000292802</v>
+      </c>
+      <c r="AQ31" s="5">
+        <f t="shared" si="8"/>
+        <v>1613.1656188365864</v>
+      </c>
+      <c r="AR31" s="5">
+        <f t="shared" si="9"/>
+        <v>5.9524314261451418E-2</v>
+      </c>
+      <c r="AS31" s="5">
+        <f t="shared" si="10"/>
+        <v>0.17187535714823829</v>
+      </c>
+      <c r="AT31" s="5">
+        <f t="shared" si="11"/>
+        <v>27100.952591423462</v>
+      </c>
+      <c r="AU31" s="5">
+        <f t="shared" si="12"/>
+        <v>9385.6713702434408</v>
+      </c>
+      <c r="AV31" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="AK31" s="5">
+      <c r="AW31" s="5">
         <v>0.14837500000000001</v>
       </c>
-      <c r="AL31" s="5">
+      <c r="AX31" s="5">
         <v>0.18477777777777779</v>
       </c>
-      <c r="AM31" s="5">
+      <c r="AY31" s="5">
         <v>0.27731687997665405</v>
       </c>
+      <c r="AZ31" s="5">
+        <f t="shared" si="13"/>
+        <v>3.0016258806853711</v>
+      </c>
+      <c r="BA31" s="5">
+        <f t="shared" si="14"/>
+        <v>1778.1261023453244</v>
+      </c>
+      <c r="BB31" s="5">
+        <f t="shared" si="15"/>
+        <v>5.4245398980364387E-2</v>
+      </c>
+      <c r="BC31" s="5">
+        <f t="shared" si="16"/>
+        <v>0.17828490744566461</v>
+      </c>
+      <c r="BD31" s="5">
+        <f t="shared" si="17"/>
+        <v>32779.298074459104</v>
+      </c>
+      <c r="BE31" s="5">
+        <f t="shared" si="18"/>
+        <v>9973.5088506425527</v>
+      </c>
     </row>
-    <row r="32" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>1</v>
       </c>
@@ -5080,32 +7348,104 @@
       <c r="AE32" s="5">
         <v>0.31404642092249829</v>
       </c>
-      <c r="AF32" s="4">
+      <c r="AF32" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7163030419111629</v>
+      </c>
+      <c r="AG32" s="5">
+        <f t="shared" si="2"/>
+        <v>1300.292058402443</v>
+      </c>
+      <c r="AH32" s="5">
+        <f t="shared" si="3"/>
+        <v>6.734493009378946E-2</v>
+      </c>
+      <c r="AI32" s="5">
+        <f t="shared" si="4"/>
+        <v>0.16335134071835461</v>
+      </c>
+      <c r="AJ32" s="5">
+        <f t="shared" si="5"/>
+        <v>19307.942804180828</v>
+      </c>
+      <c r="AK32" s="5">
+        <f t="shared" si="6"/>
+        <v>7960.0941913563283</v>
+      </c>
+      <c r="AL32" s="4">
         <v>14.99</v>
       </c>
-      <c r="AG32" s="5">
+      <c r="AM32" s="5">
         <v>0.14323472222222225</v>
       </c>
-      <c r="AH32" s="5">
+      <c r="AN32" s="5">
         <v>0.20498496503496505</v>
       </c>
-      <c r="AI32" s="5">
+      <c r="AO32" s="5">
         <v>0.29433281996426541</v>
       </c>
-      <c r="AJ32" s="4">
+      <c r="AP32" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8717503248500198</v>
+      </c>
+      <c r="AQ32" s="5">
+        <f t="shared" si="8"/>
+        <v>1387.3820362432325</v>
+      </c>
+      <c r="AR32" s="5">
+        <f t="shared" si="9"/>
+        <v>5.9920398088121697E-2</v>
+      </c>
+      <c r="AS32" s="5">
+        <f t="shared" si="10"/>
+        <v>0.17964491380780936</v>
+      </c>
+      <c r="AT32" s="5">
+        <f t="shared" si="11"/>
+        <v>23153.751986141422</v>
+      </c>
+      <c r="AU32" s="5">
+        <f t="shared" si="12"/>
+        <v>7722.9129778063407</v>
+      </c>
+      <c r="AV32" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="AK32" s="5">
+      <c r="AW32" s="5">
         <v>0.14722222222222223</v>
       </c>
-      <c r="AL32" s="5">
+      <c r="AX32" s="5">
         <v>0.18180000000000002</v>
       </c>
-      <c r="AM32" s="5">
+      <c r="AY32" s="5">
         <v>0.27627313251384578</v>
       </c>
+      <c r="AZ32" s="5">
+        <f t="shared" si="13"/>
+        <v>3.0393083884911523</v>
+      </c>
+      <c r="BA32" s="5">
+        <f t="shared" si="14"/>
+        <v>1478.0737575875942</v>
+      </c>
+      <c r="BB32" s="5">
+        <f t="shared" si="15"/>
+        <v>5.2862610129809029E-2</v>
+      </c>
+      <c r="BC32" s="5">
+        <f t="shared" si="16"/>
+        <v>0.19004397089805464</v>
+      </c>
+      <c r="BD32" s="5">
+        <f t="shared" si="17"/>
+        <v>27960.665467672658</v>
+      </c>
+      <c r="BE32" s="5">
+        <f t="shared" si="18"/>
+        <v>7777.5356440035548</v>
+      </c>
     </row>
-    <row r="33" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
@@ -5200,32 +7540,104 @@
       <c r="AE33" s="5">
         <v>0.34019625334522746</v>
       </c>
-      <c r="AF33" s="4">
+      <c r="AF33" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7832292595896519</v>
+      </c>
+      <c r="AG33" s="5">
+        <f t="shared" si="2"/>
+        <v>1426.8223772351389</v>
+      </c>
+      <c r="AH33" s="5">
+        <f t="shared" si="3"/>
+        <v>6.3853283385678763E-2</v>
+      </c>
+      <c r="AI33" s="5">
+        <f t="shared" si="4"/>
+        <v>0.15935106797558818</v>
+      </c>
+      <c r="AJ33" s="5">
+        <f t="shared" si="5"/>
+        <v>22345.325120041543</v>
+      </c>
+      <c r="AK33" s="5">
+        <f t="shared" si="6"/>
+        <v>8953.9555357967311</v>
+      </c>
+      <c r="AL33" s="4">
         <v>15.69</v>
       </c>
-      <c r="AG33" s="5">
+      <c r="AM33" s="5">
         <v>0.13007500000000002</v>
       </c>
-      <c r="AH33" s="5">
+      <c r="AN33" s="5">
         <v>0.21914720279720279</v>
       </c>
-      <c r="AI33" s="5">
+      <c r="AO33" s="5">
         <v>0.3137647048811269</v>
       </c>
-      <c r="AJ33" s="4">
+      <c r="AP33" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8635063635421569</v>
+      </c>
+      <c r="AQ33" s="5">
+        <f t="shared" si="8"/>
+        <v>1547.0179385167742</v>
+      </c>
+      <c r="AR33" s="5">
+        <f t="shared" si="9"/>
+        <v>6.0597457472276843E-2</v>
+      </c>
+      <c r="AS33" s="5">
+        <f t="shared" si="10"/>
+        <v>0.18234865705750614</v>
+      </c>
+      <c r="AT33" s="5">
+        <f t="shared" si="11"/>
+        <v>25529.419930275628</v>
+      </c>
+      <c r="AU33" s="5">
+        <f t="shared" si="12"/>
+        <v>8483.846075317686</v>
+      </c>
+      <c r="AV33" s="4">
         <v>18.11</v>
       </c>
-      <c r="AK33" s="5">
+      <c r="AW33" s="5">
         <v>0.13966666666666669</v>
       </c>
-      <c r="AL33" s="5">
+      <c r="AX33" s="5">
         <v>0.19539999999999999</v>
       </c>
-      <c r="AM33" s="5">
+      <c r="AY33" s="5">
         <v>0.29158376442499001</v>
       </c>
+      <c r="AZ33" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9844807003581377</v>
+      </c>
+      <c r="BA33" s="5">
+        <f t="shared" si="14"/>
+        <v>1664.7004605408822</v>
+      </c>
+      <c r="BB33" s="5">
+        <f t="shared" si="15"/>
+        <v>5.540248196357745E-2</v>
+      </c>
+      <c r="BC33" s="5">
+        <f t="shared" si="16"/>
+        <v>0.19636861880254752</v>
+      </c>
+      <c r="BD33" s="5">
+        <f t="shared" si="17"/>
+        <v>30047.398628012463</v>
+      </c>
+      <c r="BE33" s="5">
+        <f t="shared" si="18"/>
+        <v>8477.4261319970428</v>
+      </c>
     </row>
-    <row r="34" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
@@ -5269,7 +7681,7 @@
         <v>5</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" ref="O34:O65" si="1">SUM(J34:N34)</f>
+        <f t="shared" ref="O34:O65" si="19">SUM(J34:N34)</f>
         <v>20</v>
       </c>
       <c r="P34" s="3" t="s">
@@ -5320,32 +7732,104 @@
       <c r="AE34" s="5">
         <v>0.33748040752351099</v>
       </c>
-      <c r="AF34" s="4">
+      <c r="AF34" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9715256008359461</v>
+      </c>
+      <c r="AG34" s="5">
+        <f t="shared" si="2"/>
+        <v>1666.6069324769055</v>
+      </c>
+      <c r="AH34" s="5">
+        <f t="shared" si="3"/>
+        <v>5.6079249296685299E-2</v>
+      </c>
+      <c r="AI34" s="5">
+        <f t="shared" si="4"/>
+        <v>0.14001440436350654</v>
+      </c>
+      <c r="AJ34" s="5">
+        <f t="shared" si="5"/>
+        <v>29718.781071047866</v>
+      </c>
+      <c r="AK34" s="5">
+        <f t="shared" si="6"/>
+        <v>11903.110541041528</v>
+      </c>
+      <c r="AL34" s="4">
         <v>14.15</v>
       </c>
-      <c r="AG34" s="5">
+      <c r="AM34" s="5">
         <v>0.12456837606837606</v>
       </c>
-      <c r="AH34" s="5">
+      <c r="AN34" s="5">
         <v>0.21116071428571431</v>
       </c>
-      <c r="AI34" s="5">
+      <c r="AO34" s="5">
         <v>0.31448081258464233</v>
       </c>
-      <c r="AJ34" s="4">
+      <c r="AP34" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9785920515416437</v>
+      </c>
+      <c r="AQ34" s="5">
+        <f t="shared" si="8"/>
+        <v>1788.494446230904</v>
+      </c>
+      <c r="AR34" s="5">
+        <f t="shared" si="9"/>
+        <v>5.6008554484988017E-2</v>
+      </c>
+      <c r="AS34" s="5">
+        <f t="shared" si="10"/>
+        <v>0.17148390279107953</v>
+      </c>
+      <c r="AT34" s="5">
+        <f t="shared" si="11"/>
+        <v>31932.522856133961</v>
+      </c>
+      <c r="AU34" s="5">
+        <f t="shared" si="12"/>
+        <v>10429.517972948423</v>
+      </c>
+      <c r="AV34" s="4">
         <v>17.34</v>
       </c>
-      <c r="AK34" s="5">
+      <c r="AW34" s="5">
         <v>0.14888888888888888</v>
       </c>
-      <c r="AL34" s="5">
+      <c r="AX34" s="5">
         <v>0.18450000000000003</v>
       </c>
-      <c r="AM34" s="5">
+      <c r="AY34" s="5">
         <v>0.27670388268621898</v>
       </c>
+      <c r="AZ34" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9995000833194467</v>
+      </c>
+      <c r="BA34" s="5">
+        <f t="shared" si="14"/>
+        <v>2032.6682130139363</v>
+      </c>
+      <c r="BB34" s="5">
+        <f t="shared" si="15"/>
+        <v>5.429471135640207E-2</v>
+      </c>
+      <c r="BC34" s="5">
+        <f t="shared" si="16"/>
+        <v>0.18218814229098967</v>
+      </c>
+      <c r="BD34" s="5">
+        <f t="shared" si="17"/>
+        <v>37437.683380818962</v>
+      </c>
+      <c r="BE34" s="5">
+        <f t="shared" si="18"/>
+        <v>11156.973156723736</v>
+      </c>
     </row>
-    <row r="35" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
@@ -5389,7 +7873,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="P35" s="3" t="s">
@@ -5440,32 +7924,104 @@
       <c r="AE35" s="5">
         <v>0.34584348355663824</v>
       </c>
-      <c r="AF35" s="4">
+      <c r="AF35" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5121802679658951</v>
+      </c>
+      <c r="AG35" s="5">
+        <f t="shared" si="2"/>
+        <v>1693.1400548037363</v>
+      </c>
+      <c r="AH35" s="5">
+        <f t="shared" si="3"/>
+        <v>7.8158460762059845E-2</v>
+      </c>
+      <c r="AI35" s="5">
+        <f t="shared" si="4"/>
+        <v>0.20125332242247901</v>
+      </c>
+      <c r="AJ35" s="5">
+        <f t="shared" si="5"/>
+        <v>21662.91452384424</v>
+      </c>
+      <c r="AK35" s="5">
+        <f t="shared" si="6"/>
+        <v>8412.9793954379002</v>
+      </c>
+      <c r="AL35" s="4">
         <v>15.19</v>
       </c>
-      <c r="AG35" s="5">
+      <c r="AM35" s="5">
         <v>0.12485890151515151</v>
       </c>
-      <c r="AH35" s="5">
+      <c r="AN35" s="5">
         <v>0.24370000000000003</v>
       </c>
-      <c r="AI35" s="5">
+      <c r="AO35" s="5">
         <v>0.33061201208022034</v>
       </c>
-      <c r="AJ35" s="4">
+      <c r="AP35" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7132705135840811</v>
+      </c>
+      <c r="AQ35" s="5">
+        <f t="shared" si="8"/>
+        <v>1771.1439188740665</v>
+      </c>
+      <c r="AR35" s="5">
+        <f t="shared" si="9"/>
+        <v>6.7406827925291096E-2</v>
+      </c>
+      <c r="AS35" s="5">
+        <f t="shared" si="10"/>
+        <v>0.22080315520073326</v>
+      </c>
+      <c r="AT35" s="5">
+        <f t="shared" si="11"/>
+        <v>26275.437865687371</v>
+      </c>
+      <c r="AU35" s="5">
+        <f t="shared" si="12"/>
+        <v>8021.3705155794105</v>
+      </c>
+      <c r="AV35" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="AK35" s="5">
+      <c r="AW35" s="5">
         <v>0.143375</v>
       </c>
-      <c r="AL35" s="5">
+      <c r="AX35" s="5">
         <v>0.19766666666666666</v>
       </c>
-      <c r="AM35" s="5">
+      <c r="AY35" s="5">
         <v>0.28979841172877213</v>
       </c>
+      <c r="AZ35" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9321930360415394</v>
+      </c>
+      <c r="BA35" s="5">
+        <f t="shared" si="14"/>
+        <v>2020.5820011554783</v>
+      </c>
+      <c r="BB35" s="5">
+        <f t="shared" si="15"/>
+        <v>5.7339741991904287E-2</v>
+      </c>
+      <c r="BC35" s="5">
+        <f t="shared" si="16"/>
+        <v>0.20190243513980377</v>
+      </c>
+      <c r="BD35" s="5">
+        <f t="shared" si="17"/>
+        <v>35238.770370483377</v>
+      </c>
+      <c r="BE35" s="5">
+        <f t="shared" si="18"/>
+        <v>10007.714863648684</v>
+      </c>
     </row>
-    <row r="36" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
@@ -5509,7 +8065,7 @@
         <v>4</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="P36" s="3" t="s">
@@ -5560,32 +8116,104 @@
       <c r="AE36" s="5">
         <v>0.4131403118040089</v>
       </c>
-      <c r="AF36" s="4">
+      <c r="AF36" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8953229398663698</v>
+      </c>
+      <c r="AG36" s="5">
+        <f t="shared" si="2"/>
+        <v>1156.2533533842404</v>
+      </c>
+      <c r="AH36" s="5">
+        <f t="shared" si="3"/>
+        <v>5.4023183942390793E-2</v>
+      </c>
+      <c r="AI36" s="5">
+        <f t="shared" si="4"/>
+        <v>0.18979993891702351</v>
+      </c>
+      <c r="AJ36" s="5">
+        <f t="shared" si="5"/>
+        <v>21402.910176809371</v>
+      </c>
+      <c r="AK36" s="5">
+        <f t="shared" si="6"/>
+        <v>6091.9585115869277</v>
+      </c>
+      <c r="AL36" s="4">
         <v>14.88</v>
       </c>
-      <c r="AG36" s="5">
+      <c r="AM36" s="5">
         <v>8.811616161616162E-2</v>
       </c>
-      <c r="AH36" s="5">
+      <c r="AN36" s="5">
         <v>0.24056585081585083</v>
       </c>
-      <c r="AI36" s="5">
+      <c r="AO36" s="5">
         <v>0.36595530287136058</v>
       </c>
-      <c r="AJ36" s="4">
+      <c r="AP36" s="5">
+        <f t="shared" si="7"/>
+        <v>3.0424542937434067</v>
+      </c>
+      <c r="AQ36" s="5">
+        <f t="shared" si="8"/>
+        <v>1305.3366550327428</v>
+      </c>
+      <c r="AR36" s="5">
+        <f t="shared" si="9"/>
+        <v>5.2486810222527533E-2</v>
+      </c>
+      <c r="AS36" s="5">
+        <f t="shared" si="10"/>
+        <v>0.20474068874176132</v>
+      </c>
+      <c r="AT36" s="5">
+        <f t="shared" si="11"/>
+        <v>24869.803470596267</v>
+      </c>
+      <c r="AU36" s="5">
+        <f t="shared" si="12"/>
+        <v>6375.5605349123307</v>
+      </c>
+      <c r="AV36" s="4">
         <v>18.760000000000002</v>
       </c>
-      <c r="AK36" s="5">
+      <c r="AW36" s="5">
         <v>0.10155555555555555</v>
       </c>
-      <c r="AL36" s="5">
+      <c r="AX36" s="5">
         <v>0.20233333333333337</v>
       </c>
-      <c r="AM36" s="5">
+      <c r="AY36" s="5">
         <v>0.33290676416819015</v>
       </c>
+      <c r="AZ36" s="5">
+        <f t="shared" si="13"/>
+        <v>3.2906764168190121</v>
+      </c>
+      <c r="BA36" s="5">
+        <f t="shared" si="14"/>
+        <v>1434.9208918454312</v>
+      </c>
+      <c r="BB36" s="5">
+        <f t="shared" si="15"/>
+        <v>4.5798859906410389E-2</v>
+      </c>
+      <c r="BC36" s="5">
+        <f t="shared" si="16"/>
+        <v>0.20118928453275084</v>
+      </c>
+      <c r="BD36" s="5">
+        <f t="shared" si="17"/>
+        <v>31330.930393849998</v>
+      </c>
+      <c r="BE36" s="5">
+        <f t="shared" si="18"/>
+        <v>7132.1934226166304</v>
+      </c>
     </row>
-    <row r="37" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
@@ -5629,7 +8257,7 @@
         <v>5</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="P37" s="3" t="s">
@@ -5680,32 +8308,104 @@
       <c r="AE37" s="5">
         <v>0.38558295324971498</v>
       </c>
-      <c r="AF37" s="4">
+      <c r="AF37" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7793614595210947</v>
+      </c>
+      <c r="AG37" s="5">
+        <f t="shared" si="2"/>
+        <v>1558.603567931212</v>
+      </c>
+      <c r="AH37" s="5">
+        <f t="shared" si="3"/>
+        <v>6.1461647629571098E-2</v>
+      </c>
+      <c r="AI37" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17527114192341067</v>
+      </c>
+      <c r="AJ37" s="5">
+        <f t="shared" si="5"/>
+        <v>25358.961694696249</v>
+      </c>
+      <c r="AK37" s="5">
+        <f t="shared" si="6"/>
+        <v>8892.5281756439108</v>
+      </c>
+      <c r="AL37" s="4">
         <v>15.92</v>
       </c>
-      <c r="AG37" s="5">
+      <c r="AM37" s="5">
         <v>0.10773611111111112</v>
       </c>
-      <c r="AH37" s="5">
+      <c r="AN37" s="5">
         <v>0.24803760683760681</v>
       </c>
-      <c r="AI37" s="5">
+      <c r="AO37" s="5">
         <v>0.34858899677541605</v>
       </c>
-      <c r="AJ37" s="4">
+      <c r="AP37" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8107753595900595</v>
+      </c>
+      <c r="AQ37" s="5">
+        <f t="shared" si="8"/>
+        <v>1724.0101444040833</v>
+      </c>
+      <c r="AR37" s="5">
+        <f t="shared" si="9"/>
+        <v>6.2336053656104312E-2</v>
+      </c>
+      <c r="AS37" s="5">
+        <f t="shared" si="10"/>
+        <v>0.2068043954505179</v>
+      </c>
+      <c r="AT37" s="5">
+        <f t="shared" si="11"/>
+        <v>27656.709773690625</v>
+      </c>
+      <c r="AU37" s="5">
+        <f t="shared" si="12"/>
+        <v>8336.428926708124</v>
+      </c>
+      <c r="AV37" s="4">
         <v>18.7</v>
       </c>
-      <c r="AK37" s="5">
+      <c r="AW37" s="5">
         <v>0.11549999999999999</v>
       </c>
-      <c r="AL37" s="5">
+      <c r="AX37" s="5">
         <v>0.22688888888888892</v>
       </c>
-      <c r="AM37" s="5">
+      <c r="AY37" s="5">
         <v>0.33133214343663803</v>
       </c>
+      <c r="AZ37" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9206555249067012</v>
+      </c>
+      <c r="BA37" s="5">
+        <f t="shared" si="14"/>
+        <v>1813.8021878441311</v>
+      </c>
+      <c r="BB37" s="5">
+        <f t="shared" si="15"/>
+        <v>5.8163577741988395E-2</v>
+      </c>
+      <c r="BC37" s="5">
+        <f t="shared" si="16"/>
+        <v>0.23537378861050523</v>
+      </c>
+      <c r="BD37" s="5">
+        <f t="shared" si="17"/>
+        <v>31184.50168058943</v>
+      </c>
+      <c r="BE37" s="5">
+        <f t="shared" si="18"/>
+        <v>7706.0500175131965</v>
+      </c>
     </row>
-    <row r="38" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -5749,7 +8449,7 @@
         <v>3</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="P38" s="3" t="s">
@@ -5800,32 +8500,104 @@
       <c r="AE38" s="5">
         <v>0.38160251427798991</v>
       </c>
-      <c r="AF38" s="4">
+      <c r="AF38" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6359366023453079</v>
+      </c>
+      <c r="AG38" s="5">
+        <f t="shared" si="2"/>
+        <v>1393.1463838176339</v>
+      </c>
+      <c r="AH38" s="5">
+        <f t="shared" si="3"/>
+        <v>6.8698916849595018E-2</v>
+      </c>
+      <c r="AI38" s="5">
+        <f t="shared" si="4"/>
+        <v>0.1989100332451274</v>
+      </c>
+      <c r="AJ38" s="5">
+        <f t="shared" si="5"/>
+        <v>20279.01526988699</v>
+      </c>
+      <c r="AK38" s="5">
+        <f t="shared" si="6"/>
+        <v>7003.9020208738575</v>
+      </c>
+      <c r="AL38" s="4">
         <v>14.22</v>
       </c>
-      <c r="AG38" s="5">
+      <c r="AM38" s="5">
         <v>0.11721547619047618</v>
       </c>
-      <c r="AH38" s="5">
+      <c r="AN38" s="5">
         <v>0.265302229020979</v>
       </c>
-      <c r="AI38" s="5">
+      <c r="AO38" s="5">
         <v>0.34678424737793556</v>
       </c>
-      <c r="AJ38" s="4">
+      <c r="AP38" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6142580758378271</v>
+      </c>
+      <c r="AQ38" s="5">
+        <f t="shared" si="8"/>
+        <v>1533.0228141612065</v>
+      </c>
+      <c r="AR38" s="5">
+        <f t="shared" si="9"/>
+        <v>7.2136168690316166E-2</v>
+      </c>
+      <c r="AS38" s="5">
+        <f t="shared" si="10"/>
+        <v>0.24736674898606284</v>
+      </c>
+      <c r="AT38" s="5">
+        <f t="shared" si="11"/>
+        <v>21251.791465977945</v>
+      </c>
+      <c r="AU38" s="5">
+        <f t="shared" si="12"/>
+        <v>6197.3681606155569</v>
+      </c>
+      <c r="AV38" s="4">
         <v>17.45</v>
       </c>
-      <c r="AK38" s="5">
+      <c r="AW38" s="5">
         <v>0.14442857142857141</v>
       </c>
-      <c r="AL38" s="5">
+      <c r="AX38" s="5">
         <v>0.23712499999999997</v>
       </c>
-      <c r="AM38" s="5">
+      <c r="AY38" s="5">
         <v>0.31073618196283992</v>
       </c>
+      <c r="AZ38" s="5">
+        <f t="shared" si="13"/>
+        <v>2.6208639490803578</v>
+      </c>
+      <c r="BA38" s="5">
+        <f t="shared" si="14"/>
+        <v>1710.8666247488188</v>
+      </c>
+      <c r="BB38" s="5">
+        <f t="shared" si="15"/>
+        <v>7.2311001320961979E-2</v>
+      </c>
+      <c r="BC38" s="5">
+        <f t="shared" si="16"/>
+        <v>0.27740292005707751</v>
+      </c>
+      <c r="BD38" s="5">
+        <f t="shared" si="17"/>
+        <v>23659.838662099424</v>
+      </c>
+      <c r="BE38" s="5">
+        <f t="shared" si="18"/>
+        <v>6167.4427377938073</v>
+      </c>
     </row>
-    <row r="39" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
@@ -5869,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="P39" s="3" t="s">
@@ -5920,32 +8692,104 @@
       <c r="AE39" s="5">
         <v>0.38399432602063621</v>
       </c>
-      <c r="AF39" s="4">
+      <c r="AF39" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5649495754231197</v>
+      </c>
+      <c r="AG39" s="5">
+        <f t="shared" si="2"/>
+        <v>1103.562085024975</v>
+      </c>
+      <c r="AH39" s="5">
+        <f t="shared" si="3"/>
+        <v>7.2324135198635689E-2</v>
+      </c>
+      <c r="AI39" s="5">
+        <f t="shared" si="4"/>
+        <v>0.22314263915506294</v>
+      </c>
+      <c r="AJ39" s="5">
+        <f t="shared" si="5"/>
+        <v>15258.559013448008</v>
+      </c>
+      <c r="AK39" s="5">
+        <f t="shared" si="6"/>
+        <v>4945.5455452335318</v>
+      </c>
+      <c r="AL39" s="4">
         <v>15.73</v>
       </c>
-      <c r="AG39" s="5">
+      <c r="AM39" s="5">
         <v>0.11731919191919191</v>
       </c>
-      <c r="AH39" s="5">
+      <c r="AN39" s="5">
         <v>0.24207234848484849</v>
       </c>
-      <c r="AI39" s="5">
+      <c r="AO39" s="5">
         <v>0.33678081043964248</v>
       </c>
-      <c r="AJ39" s="4">
+      <c r="AP39" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7824806306675036</v>
+      </c>
+      <c r="AQ39" s="5">
+        <f t="shared" si="8"/>
+        <v>1258.2711541904773</v>
+      </c>
+      <c r="AR39" s="5">
+        <f t="shared" si="9"/>
+        <v>6.3974973612064182E-2</v>
+      </c>
+      <c r="AS39" s="5">
+        <f t="shared" si="10"/>
+        <v>0.21833920736207602</v>
+      </c>
+      <c r="AT39" s="5">
+        <f t="shared" si="11"/>
+        <v>19668.17777558562</v>
+      </c>
+      <c r="AU39" s="5">
+        <f t="shared" si="12"/>
+        <v>5762.9189433845595</v>
+      </c>
+      <c r="AV39" s="4">
         <v>17.29</v>
       </c>
-      <c r="AK39" s="5">
+      <c r="AW39" s="5">
         <v>0.12122222222222222</v>
       </c>
-      <c r="AL39" s="5">
+      <c r="AX39" s="5">
         <v>0.21760000000000002</v>
       </c>
-      <c r="AM39" s="5">
+      <c r="AY39" s="5">
         <v>0.32111234997048599</v>
       </c>
+      <c r="AZ39" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9514002754640254</v>
+      </c>
+      <c r="BA39" s="5">
+        <f t="shared" si="14"/>
+        <v>1319.6676462304922</v>
+      </c>
+      <c r="BB39" s="5">
+        <f t="shared" si="15"/>
+        <v>5.704917576442637E-2</v>
+      </c>
+      <c r="BC39" s="5">
+        <f t="shared" si="16"/>
+        <v>0.23981174983898768</v>
+      </c>
+      <c r="BD39" s="5">
+        <f t="shared" si="17"/>
+        <v>23132.107143489797</v>
+      </c>
+      <c r="BE39" s="5">
+        <f t="shared" si="18"/>
+        <v>5502.9315582598938</v>
+      </c>
     </row>
-    <row r="40" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
@@ -5989,7 +8833,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="P40" s="3" t="s">
@@ -6040,32 +8884,104 @@
       <c r="AE40" s="5">
         <v>0.42322834645669294</v>
       </c>
-      <c r="AF40" s="4">
+      <c r="AF40" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9527559055118107</v>
+      </c>
+      <c r="AG40" s="5">
+        <f t="shared" si="2"/>
+        <v>1347.1497065593758</v>
+      </c>
+      <c r="AH40" s="5">
+        <f t="shared" si="3"/>
+        <v>5.0808413152812218E-2</v>
+      </c>
+      <c r="AI40" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17432653635049394</v>
+      </c>
+      <c r="AJ40" s="5">
+        <f t="shared" si="5"/>
+        <v>26514.303891122639</v>
+      </c>
+      <c r="AK40" s="5">
+        <f t="shared" si="6"/>
+        <v>7727.737467638608</v>
+      </c>
+      <c r="AL40" s="4">
         <v>14.36</v>
       </c>
-      <c r="AG40" s="5">
+      <c r="AM40" s="5">
         <v>8.0850000000000005E-2</v>
       </c>
-      <c r="AH40" s="5">
+      <c r="AN40" s="5">
         <v>0.25614141414141411</v>
       </c>
-      <c r="AI40" s="5">
+      <c r="AO40" s="5">
         <v>0.38004145416287621</v>
       </c>
-      <c r="AJ40" s="4">
+      <c r="AP40" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9674346527427042</v>
+      </c>
+      <c r="AQ40" s="5">
+        <f t="shared" si="8"/>
+        <v>1500.2361886879605</v>
+      </c>
+      <c r="AR40" s="5">
+        <f t="shared" si="9"/>
+        <v>5.4315978678244239E-2</v>
+      </c>
+      <c r="AS40" s="5">
+        <f t="shared" si="10"/>
+        <v>0.21123549567042843</v>
+      </c>
+      <c r="AT40" s="5">
+        <f t="shared" si="11"/>
+        <v>27620.531291077816</v>
+      </c>
+      <c r="AU40" s="5">
+        <f t="shared" si="12"/>
+        <v>7102.1974026024627</v>
+      </c>
+      <c r="AV40" s="4">
         <v>17.66</v>
       </c>
-      <c r="AK40" s="5">
+      <c r="AW40" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AL40" s="5">
+      <c r="AX40" s="5">
         <v>0.22444444444444445</v>
       </c>
-      <c r="AM40" s="5">
+      <c r="AY40" s="5">
         <v>0.34695980762624529</v>
       </c>
+      <c r="AZ40" s="5">
+        <f t="shared" si="13"/>
+        <v>3.0917210580556511</v>
+      </c>
+      <c r="BA40" s="5">
+        <f t="shared" si="14"/>
+        <v>1643.2795102046146</v>
+      </c>
+      <c r="BB40" s="5">
+        <f t="shared" si="15"/>
+        <v>5.1571058513325461E-2</v>
+      </c>
+      <c r="BC40" s="5">
+        <f t="shared" si="16"/>
+        <v>0.22684285975176835</v>
+      </c>
+      <c r="BD40" s="5">
+        <f t="shared" si="17"/>
+        <v>31864.37427457509</v>
+      </c>
+      <c r="BE40" s="5">
+        <f t="shared" si="18"/>
+        <v>7244.1315190737641</v>
+      </c>
     </row>
-    <row r="41" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
@@ -6109,7 +9025,7 @@
         <v>3</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="P41" s="3" t="s">
@@ -6160,32 +9076,104 @@
       <c r="AE41" s="5">
         <v>0.39154091700522348</v>
       </c>
-      <c r="AF41" s="4">
+      <c r="AF41" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8293673824724319</v>
+      </c>
+      <c r="AG41" s="5">
+        <f t="shared" si="2"/>
+        <v>1416.8185409942353</v>
+      </c>
+      <c r="AH41" s="5">
+        <f t="shared" si="3"/>
+        <v>5.8795396498707686E-2</v>
+      </c>
+      <c r="AI41" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17551025881461568</v>
+      </c>
+      <c r="AJ41" s="5">
+        <f t="shared" si="5"/>
+        <v>24097.440027050023</v>
+      </c>
+      <c r="AK41" s="5">
+        <f t="shared" si="6"/>
+        <v>8072.568239391424</v>
+      </c>
+      <c r="AL41" s="4">
         <v>15.95</v>
       </c>
-      <c r="AG41" s="5">
+      <c r="AM41" s="5">
         <v>0.10802777777777775</v>
       </c>
-      <c r="AH41" s="5">
+      <c r="AN41" s="5">
         <v>0.23376958041958046</v>
       </c>
-      <c r="AI41" s="5">
+      <c r="AO41" s="5">
         <v>0.34197101705595817</v>
       </c>
-      <c r="AJ41" s="4">
+      <c r="AP41" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9257101496454134</v>
+      </c>
+      <c r="AQ41" s="5">
+        <f t="shared" si="8"/>
+        <v>1622.1913644807823</v>
+      </c>
+      <c r="AR41" s="5">
+        <f t="shared" si="9"/>
+        <v>5.7739141987828604E-2</v>
+      </c>
+      <c r="AS41" s="5">
+        <f t="shared" si="10"/>
+        <v>0.18887959996546522</v>
+      </c>
+      <c r="AT41" s="5">
+        <f t="shared" si="11"/>
+        <v>28095.176142775726</v>
+      </c>
+      <c r="AU41" s="5">
+        <f t="shared" si="12"/>
+        <v>8588.4942830108921</v>
+      </c>
+      <c r="AV41" s="4">
         <v>17.72</v>
       </c>
-      <c r="AK41" s="5">
+      <c r="AW41" s="5">
         <v>0.12444444444444443</v>
       </c>
-      <c r="AL41" s="5">
+      <c r="AX41" s="5">
         <v>0.20940000000000003</v>
       </c>
-      <c r="AM41" s="5">
+      <c r="AY41" s="5">
         <v>0.31361911735339149</v>
       </c>
+      <c r="AZ41" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9954070425347799</v>
+      </c>
+      <c r="BA41" s="5">
+        <f t="shared" si="14"/>
+        <v>1768.8412474734191</v>
+      </c>
+      <c r="BB41" s="5">
+        <f t="shared" si="15"/>
+        <v>5.5377487776906625E-2</v>
+      </c>
+      <c r="BC41" s="5">
+        <f t="shared" si="16"/>
+        <v>0.20878881057433815</v>
+      </c>
+      <c r="BD41" s="5">
+        <f t="shared" si="17"/>
+        <v>31941.522060360719</v>
+      </c>
+      <c r="BE41" s="5">
+        <f t="shared" si="18"/>
+        <v>8471.9159164117773</v>
+      </c>
     </row>
-    <row r="42" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>5</v>
       </c>
@@ -6229,7 +9217,7 @@
         <v>2</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="P42" s="3" t="s">
@@ -6280,32 +9268,104 @@
       <c r="AE42" s="5">
         <v>0.36483672503549458</v>
       </c>
-      <c r="AF42" s="4">
+      <c r="AF42" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8711153178734818</v>
+      </c>
+      <c r="AG42" s="5">
+        <f t="shared" si="2"/>
+        <v>1414.9306126076494</v>
+      </c>
+      <c r="AH42" s="5">
+        <f t="shared" si="3"/>
+        <v>5.9000902077043796E-2</v>
+      </c>
+      <c r="AI42" s="5">
+        <f t="shared" si="4"/>
+        <v>0.16767491697606229</v>
+      </c>
+      <c r="AJ42" s="5">
+        <f t="shared" si="5"/>
+        <v>23981.508126096498</v>
+      </c>
+      <c r="AK42" s="5">
+        <f t="shared" si="6"/>
+        <v>8438.5347440467121</v>
+      </c>
+      <c r="AL42" s="4">
         <v>14.76</v>
       </c>
-      <c r="AG42" s="5">
+      <c r="AM42" s="5">
         <v>0.10856346153846153</v>
       </c>
-      <c r="AH42" s="5">
+      <c r="AN42" s="5">
         <v>0.22739935064935066</v>
       </c>
-      <c r="AI42" s="5">
+      <c r="AO42" s="5">
         <v>0.33842934753479254</v>
       </c>
-      <c r="AJ42" s="4">
+      <c r="AP42" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9765199114983392</v>
+      </c>
+      <c r="AQ42" s="5">
+        <f t="shared" si="8"/>
+        <v>1525.3365425206528</v>
+      </c>
+      <c r="AR42" s="5">
+        <f t="shared" si="9"/>
+        <v>5.5870574600645956E-2</v>
+      </c>
+      <c r="AS42" s="5">
+        <f t="shared" si="10"/>
+        <v>0.19431353559090173</v>
+      </c>
+      <c r="AT42" s="5">
+        <f t="shared" si="11"/>
+        <v>27301.250316888945</v>
+      </c>
+      <c r="AU42" s="5">
+        <f t="shared" si="12"/>
+        <v>7849.8728247733716</v>
+      </c>
+      <c r="AV42" s="4">
         <v>17.04</v>
       </c>
-      <c r="AK42" s="5">
+      <c r="AW42" s="5">
         <v>0.12069999999999999</v>
       </c>
-      <c r="AL42" s="5">
+      <c r="AX42" s="5">
         <v>0.20400000000000001</v>
       </c>
-      <c r="AM42" s="5">
+      <c r="AY42" s="5">
         <v>0.31413612565445032</v>
       </c>
+      <c r="AZ42" s="5">
+        <f t="shared" si="13"/>
+        <v>3.0797659377887281</v>
+      </c>
+      <c r="BA42" s="5">
+        <f t="shared" si="14"/>
+        <v>1643.2960385590334</v>
+      </c>
+      <c r="BB42" s="5">
+        <f t="shared" si="15"/>
+        <v>5.2387680280304071E-2</v>
+      </c>
+      <c r="BC42" s="5">
+        <f t="shared" si="16"/>
+        <v>0.21528598548526459</v>
+      </c>
+      <c r="BD42" s="5">
+        <f t="shared" si="17"/>
+        <v>31367.986323625308</v>
+      </c>
+      <c r="BE42" s="5">
+        <f t="shared" si="18"/>
+        <v>7633.0841269345419</v>
+      </c>
     </row>
-    <row r="43" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>5</v>
       </c>
@@ -6349,7 +9409,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="P43" s="3" t="s">
@@ -6400,32 +9460,104 @@
       <c r="AE43" s="5">
         <v>0.38678618244927349</v>
       </c>
-      <c r="AF43" s="4">
+      <c r="AF43" s="5">
+        <f t="shared" si="1"/>
+        <v>2.437088049037166</v>
+      </c>
+      <c r="AG43" s="5">
+        <f t="shared" si="2"/>
+        <v>1892.3939157889811</v>
+      </c>
+      <c r="AH43" s="5">
+        <f t="shared" si="3"/>
+        <v>7.9802840733062014E-2</v>
+      </c>
+      <c r="AI43" s="5">
+        <f t="shared" si="4"/>
+        <v>0.22996060884932348</v>
+      </c>
+      <c r="AJ43" s="5">
+        <f t="shared" si="5"/>
+        <v>23713.365318898599</v>
+      </c>
+      <c r="AK43" s="5">
+        <f t="shared" si="6"/>
+        <v>8229.2090165273894</v>
+      </c>
+      <c r="AL43" s="4">
         <v>15.07</v>
       </c>
-      <c r="AG43" s="5">
+      <c r="AM43" s="5">
         <v>0.11677588383838383</v>
       </c>
-      <c r="AH43" s="5">
+      <c r="AN43" s="5">
         <v>0.27285972222222221</v>
       </c>
-      <c r="AI43" s="5">
+      <c r="AO43" s="5">
         <v>0.35014731453954973</v>
       </c>
-      <c r="AJ43" s="4">
+      <c r="AP43" s="5">
+        <f t="shared" si="7"/>
+        <v>2.5665005570472803</v>
+      </c>
+      <c r="AQ43" s="5">
+        <f t="shared" si="8"/>
+        <v>2090.4110583877596</v>
+      </c>
+      <c r="AR43" s="5">
+        <f t="shared" si="9"/>
+        <v>7.4694729703679463E-2</v>
+      </c>
+      <c r="AS43" s="5">
+        <f t="shared" si="10"/>
+        <v>0.25048790754601707</v>
+      </c>
+      <c r="AT43" s="5">
+        <f t="shared" si="11"/>
+        <v>27986.058275873056</v>
+      </c>
+      <c r="AU43" s="5">
+        <f t="shared" si="12"/>
+        <v>8345.3571825766903</v>
+      </c>
+      <c r="AV43" s="4">
         <v>17.829999999999998</v>
       </c>
-      <c r="AK43" s="5">
+      <c r="AW43" s="5">
         <v>0.12975</v>
       </c>
-      <c r="AL43" s="5">
+      <c r="AX43" s="5">
         <v>0.22822222222222224</v>
       </c>
-      <c r="AM43" s="5">
+      <c r="AY43" s="5">
         <v>0.31877085434934432</v>
       </c>
+      <c r="AZ43" s="5">
+        <f t="shared" si="13"/>
+        <v>2.7935128423993167</v>
+      </c>
+      <c r="BA43" s="5">
+        <f t="shared" si="14"/>
+        <v>2296.1692023954556</v>
+      </c>
+      <c r="BB43" s="5">
+        <f t="shared" si="15"/>
+        <v>6.3684979158992155E-2</v>
+      </c>
+      <c r="BC43" s="5">
+        <f t="shared" si="16"/>
+        <v>0.24091672354499769</v>
+      </c>
+      <c r="BD43" s="5">
+        <f t="shared" si="17"/>
+        <v>36055.114294109684</v>
+      </c>
+      <c r="BE43" s="5">
+        <f t="shared" si="18"/>
+        <v>9530.9664211276067</v>
+      </c>
     </row>
-    <row r="44" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -6469,7 +9601,7 @@
         <v>3</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="P44" s="3" t="s">
@@ -6520,32 +9652,104 @@
       <c r="AE44" s="5">
         <v>0.38007552846901338</v>
       </c>
-      <c r="AF44" s="4">
+      <c r="AF44" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7939393009011217</v>
+      </c>
+      <c r="AG44" s="5">
+        <f t="shared" si="2"/>
+        <v>1459.5584014720705</v>
+      </c>
+      <c r="AH44" s="5">
+        <f t="shared" si="3"/>
+        <v>6.1268501867166786E-2</v>
+      </c>
+      <c r="AI44" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17665425849398605</v>
+      </c>
+      <c r="AJ44" s="5">
+        <f t="shared" si="5"/>
+        <v>23822.328880122888</v>
+      </c>
+      <c r="AK44" s="5">
+        <f t="shared" si="6"/>
+        <v>8262.231626427274</v>
+      </c>
+      <c r="AL44" s="4">
         <v>15.65</v>
       </c>
-      <c r="AG44" s="5">
+      <c r="AM44" s="5">
         <v>0.10943376068376066</v>
       </c>
-      <c r="AH44" s="5">
+      <c r="AN44" s="5">
         <v>0.23169285714285714</v>
       </c>
-      <c r="AI44" s="5">
+      <c r="AO44" s="5">
         <v>0.3395994991815886</v>
       </c>
-      <c r="AJ44" s="4">
+      <c r="AP44" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9314628285860223</v>
+      </c>
+      <c r="AQ44" s="5">
+        <f t="shared" si="8"/>
+        <v>1633.5195785264016</v>
+      </c>
+      <c r="AR44" s="5">
+        <f t="shared" si="9"/>
+        <v>5.7573596897376705E-2</v>
+      </c>
+      <c r="AS44" s="5">
+        <f t="shared" si="10"/>
+        <v>0.1895492119127252</v>
+      </c>
+      <c r="AT44" s="5">
+        <f t="shared" si="11"/>
+        <v>28372.720596875399</v>
+      </c>
+      <c r="AU44" s="5">
+        <f t="shared" si="12"/>
+        <v>8617.9180701554633</v>
+      </c>
+      <c r="AV44" s="4">
         <v>17.829999999999998</v>
       </c>
-      <c r="AK44" s="5">
+      <c r="AW44" s="5">
         <v>0.11944444444444444</v>
       </c>
-      <c r="AL44" s="5">
+      <c r="AX44" s="5">
         <v>0.20329999999999998</v>
       </c>
-      <c r="AM44" s="5">
+      <c r="AY44" s="5">
         <v>0.3149550728130272</v>
       </c>
+      <c r="AZ44" s="5">
+        <f t="shared" si="13"/>
+        <v>3.0984266877818714</v>
+      </c>
+      <c r="BA44" s="5">
+        <f t="shared" si="14"/>
+        <v>1761.3382944309906</v>
+      </c>
+      <c r="BB44" s="5">
+        <f t="shared" si="15"/>
+        <v>5.1761704930315067E-2</v>
+      </c>
+      <c r="BC44" s="5">
+        <f t="shared" si="16"/>
+        <v>0.19939140370825625</v>
+      </c>
+      <c r="BD44" s="5">
+        <f t="shared" si="17"/>
+        <v>34027.826108166591</v>
+      </c>
+      <c r="BE44" s="5">
+        <f t="shared" si="18"/>
+        <v>8833.5718675622047</v>
+      </c>
     </row>
-    <row r="45" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>5</v>
       </c>
@@ -6589,7 +9793,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="P45" s="3" t="s">
@@ -6640,32 +9844,104 @@
       <c r="AE45" s="5">
         <v>0.37255357557775831</v>
       </c>
-      <c r="AF45" s="4">
+      <c r="AF45" s="5">
+        <f t="shared" si="1"/>
+        <v>2.788253588089153</v>
+      </c>
+      <c r="AG45" s="5">
+        <f t="shared" si="2"/>
+        <v>1654.4747360924691</v>
+      </c>
+      <c r="AH45" s="5">
+        <f t="shared" si="3"/>
+        <v>6.2069181535964787E-2</v>
+      </c>
+      <c r="AI45" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17241727205036522</v>
+      </c>
+      <c r="AJ45" s="5">
+        <f t="shared" si="5"/>
+        <v>26655.333535110589</v>
+      </c>
+      <c r="AK45" s="5">
+        <f t="shared" si="6"/>
+        <v>9595.7598471293331</v>
+      </c>
+      <c r="AL45" s="4">
         <v>14.11</v>
       </c>
-      <c r="AG45" s="5">
+      <c r="AM45" s="5">
         <v>0.10533143939393941</v>
       </c>
-      <c r="AH45" s="5">
+      <c r="AN45" s="5">
         <v>0.24500769230769232</v>
       </c>
-      <c r="AI45" s="5">
+      <c r="AO45" s="5">
         <v>0.34967217495468716</v>
       </c>
-      <c r="AJ45" s="4">
+      <c r="AP45" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8543771149483113</v>
+      </c>
+      <c r="AQ45" s="5">
+        <f t="shared" si="8"/>
+        <v>1762.7381381266384</v>
+      </c>
+      <c r="AR45" s="5">
+        <f t="shared" si="9"/>
+        <v>6.0405986029080497E-2</v>
+      </c>
+      <c r="AS45" s="5">
+        <f t="shared" si="10"/>
+        <v>0.20844415900281205</v>
+      </c>
+      <c r="AT45" s="5">
+        <f t="shared" si="11"/>
+        <v>29181.514184339703</v>
+      </c>
+      <c r="AU45" s="5">
+        <f t="shared" si="12"/>
+        <v>8456.64443925655</v>
+      </c>
+      <c r="AV45" s="4">
         <v>16.989999999999998</v>
       </c>
-      <c r="AK45" s="5">
+      <c r="AW45" s="5">
         <v>0.11500000000000002</v>
       </c>
-      <c r="AL45" s="5">
+      <c r="AX45" s="5">
         <v>0.21880000000000002</v>
       </c>
-      <c r="AM45" s="5">
+      <c r="AY45" s="5">
         <v>0.32774116237267825</v>
       </c>
+      <c r="AZ45" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9958058717795084</v>
+      </c>
+      <c r="BA45" s="5">
+        <f t="shared" si="14"/>
+        <v>1880.6929046447456</v>
+      </c>
+      <c r="BB45" s="5">
+        <f t="shared" si="15"/>
+        <v>5.5326156422506004E-2</v>
+      </c>
+      <c r="BC45" s="5">
+        <f t="shared" si="16"/>
+        <v>0.22772075725998747</v>
+      </c>
+      <c r="BD45" s="5">
+        <f t="shared" si="17"/>
+        <v>33992.834967290495</v>
+      </c>
+      <c r="BE45" s="5">
+        <f t="shared" si="18"/>
+        <v>8258.7680072465646</v>
+      </c>
     </row>
-    <row r="46" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>5</v>
       </c>
@@ -6709,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="P46" s="3" t="s">
@@ -6760,32 +10036,104 @@
       <c r="AE46" s="5">
         <v>0.41486609860012175</v>
       </c>
-      <c r="AF46" s="4">
+      <c r="AF46" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1953743152769327</v>
+      </c>
+      <c r="AG46" s="5">
+        <f t="shared" si="2"/>
+        <v>1021.4418109625913</v>
+      </c>
+      <c r="AH46" s="5">
+        <f t="shared" si="3"/>
+        <v>4.4195118479343695E-2</v>
+      </c>
+      <c r="AI46" s="5">
+        <f t="shared" si="4"/>
+        <v>0.16124447620214327</v>
+      </c>
+      <c r="AJ46" s="5">
+        <f t="shared" si="5"/>
+        <v>23112.095772296703</v>
+      </c>
+      <c r="AK46" s="5">
+        <f t="shared" si="6"/>
+        <v>6334.7398622329629</v>
+      </c>
+      <c r="AL46" s="4">
         <v>14.76</v>
       </c>
-      <c r="AG46" s="5">
+      <c r="AM46" s="5">
         <v>7.8325216450216437E-2</v>
       </c>
-      <c r="AH46" s="5">
+      <c r="AN46" s="5">
         <v>0.21831410256410255</v>
       </c>
-      <c r="AI46" s="5">
+      <c r="AO46" s="5">
         <v>0.36797903812873228</v>
       </c>
-      <c r="AJ46" s="4">
+      <c r="AP46" s="5">
+        <f t="shared" si="7"/>
+        <v>3.3710972750437351</v>
+      </c>
+      <c r="AQ46" s="5">
+        <f t="shared" si="8"/>
+        <v>1151.5916265666367</v>
+      </c>
+      <c r="AR46" s="5">
+        <f t="shared" si="9"/>
+        <v>4.2666929309705767E-2</v>
+      </c>
+      <c r="AS46" s="5">
+        <f t="shared" si="10"/>
+        <v>0.17302811188917783</v>
+      </c>
+      <c r="AT46" s="5">
+        <f t="shared" si="11"/>
+        <v>26990.262603797819</v>
+      </c>
+      <c r="AU46" s="5">
+        <f t="shared" si="12"/>
+        <v>6655.5174994004192</v>
+      </c>
+      <c r="AV46" s="4">
         <v>17.829999999999998</v>
       </c>
-      <c r="AK46" s="5">
+      <c r="AW46" s="5">
         <v>8.9181818181818154E-2</v>
       </c>
-      <c r="AL46" s="5">
+      <c r="AX46" s="5">
         <v>0.18266666666666667</v>
       </c>
-      <c r="AM46" s="5">
+      <c r="AY46" s="5">
         <v>0.33597146360494928</v>
       </c>
+      <c r="AZ46" s="5">
+        <f t="shared" si="13"/>
+        <v>3.6785196745067439</v>
+      </c>
+      <c r="BA46" s="5">
+        <f t="shared" si="14"/>
+        <v>1261.3022978623317</v>
+      </c>
+      <c r="BB46" s="5">
+        <f t="shared" si="15"/>
+        <v>3.6614575361930593E-2</v>
+      </c>
+      <c r="BC46" s="5">
+        <f t="shared" si="16"/>
+        <v>0.16813169455977917</v>
+      </c>
+      <c r="BD46" s="5">
+        <f t="shared" si="17"/>
+        <v>34448.093017453102</v>
+      </c>
+      <c r="BE46" s="5">
+        <f t="shared" si="18"/>
+        <v>7501.8710848350847</v>
+      </c>
     </row>
-    <row r="47" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
@@ -6829,7 +10177,7 @@
         <v>3</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="P47" s="3" t="s">
@@ -6880,32 +10228,104 @@
       <c r="AE47" s="5">
         <v>0.3639583556938929</v>
       </c>
-      <c r="AF47" s="4">
+      <c r="AF47" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7905978319201461</v>
+      </c>
+      <c r="AG47" s="5">
+        <f t="shared" si="2"/>
+        <v>1503.0227118842206</v>
+      </c>
+      <c r="AH47" s="5">
+        <f t="shared" si="3"/>
+        <v>6.2505738097145672E-2</v>
+      </c>
+      <c r="AI47" s="5">
+        <f t="shared" si="4"/>
+        <v>0.16732141701198966</v>
+      </c>
+      <c r="AJ47" s="5">
+        <f t="shared" si="5"/>
+        <v>24046.155723307205</v>
+      </c>
+      <c r="AK47" s="5">
+        <f t="shared" si="6"/>
+        <v>8982.8471377129172</v>
+      </c>
+      <c r="AL47" s="4">
         <v>14.73</v>
       </c>
-      <c r="AG47" s="5">
+      <c r="AM47" s="5">
         <v>0.13082500000000002</v>
       </c>
-      <c r="AH47" s="5">
+      <c r="AN47" s="5">
         <v>0.22391355866355866</v>
       </c>
-      <c r="AI47" s="5">
+      <c r="AO47" s="5">
         <v>0.31560363709421685</v>
       </c>
-      <c r="AJ47" s="4">
+      <c r="AP47" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8189774569964934</v>
+      </c>
+      <c r="AQ47" s="5">
+        <f t="shared" si="8"/>
+        <v>1733.3059904650277</v>
+      </c>
+      <c r="AR47" s="5">
+        <f t="shared" si="9"/>
+        <v>6.2535217888101916E-2</v>
+      </c>
+      <c r="AS47" s="5">
+        <f t="shared" si="10"/>
+        <v>0.1843656016633648</v>
+      </c>
+      <c r="AT47" s="5">
+        <f t="shared" si="11"/>
+        <v>27717.277543776021</v>
+      </c>
+      <c r="AU47" s="5">
+        <f t="shared" si="12"/>
+        <v>9401.4608735413149</v>
+      </c>
+      <c r="AV47" s="4">
         <v>17.190000000000001</v>
       </c>
-      <c r="AK47" s="5">
+      <c r="AW47" s="5">
         <v>0.153</v>
       </c>
-      <c r="AL47" s="5">
+      <c r="AX47" s="5">
         <v>0.19844444444444445</v>
       </c>
-      <c r="AM47" s="5">
+      <c r="AY47" s="5">
         <v>0.28232690483717993</v>
       </c>
+      <c r="AZ47" s="5">
+        <f t="shared" si="13"/>
+        <v>2.8453999367688905</v>
+      </c>
+      <c r="BA47" s="5">
+        <f t="shared" si="14"/>
+        <v>1937.6037685938488</v>
+      </c>
+      <c r="BB47" s="5">
+        <f t="shared" si="15"/>
+        <v>6.0599222628027513E-2</v>
+      </c>
+      <c r="BC47" s="5">
+        <f t="shared" si="16"/>
+        <v>0.19974355109343067</v>
+      </c>
+      <c r="BD47" s="5">
+        <f t="shared" si="17"/>
+        <v>31974.069708572388</v>
+      </c>
+      <c r="BE47" s="5">
+        <f t="shared" si="18"/>
+        <v>9700.4572011815726</v>
+      </c>
     </row>
-    <row r="48" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>5</v>
       </c>
@@ -6949,7 +10369,7 @@
         <v>2</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="P48" s="3" t="s">
@@ -7000,32 +10420,104 @@
       <c r="AE48" s="5">
         <v>0.41443026836779584</v>
       </c>
-      <c r="AF48" s="4">
+      <c r="AF48" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6396832380114383</v>
+      </c>
+      <c r="AG48" s="5">
+        <f t="shared" si="2"/>
+        <v>1208.4279964945226</v>
+      </c>
+      <c r="AH48" s="5">
+        <f t="shared" si="3"/>
+        <v>6.4820203319764139E-2</v>
+      </c>
+      <c r="AI48" s="5">
+        <f t="shared" si="4"/>
+        <v>0.22222132664785688</v>
+      </c>
+      <c r="AJ48" s="5">
+        <f t="shared" si="5"/>
+        <v>18642.76775765781</v>
+      </c>
+      <c r="AK48" s="5">
+        <f t="shared" si="6"/>
+        <v>5437.9478996156777</v>
+      </c>
+      <c r="AL48" s="4">
         <v>14.92</v>
       </c>
-      <c r="AG48" s="5">
+      <c r="AM48" s="5">
         <v>0.11024305555555555</v>
       </c>
-      <c r="AH48" s="5">
+      <c r="AN48" s="5">
         <v>0.26369444444444445</v>
       </c>
-      <c r="AI48" s="5">
+      <c r="AO48" s="5">
         <v>0.3525916021319665</v>
       </c>
-      <c r="AJ48" s="4">
+      <c r="AP48" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6742436904562927</v>
+      </c>
+      <c r="AQ48" s="5">
+        <f t="shared" si="8"/>
+        <v>1420.3660434968106</v>
+      </c>
+      <c r="AR48" s="5">
+        <f t="shared" si="9"/>
+        <v>6.8686349021296486E-2</v>
+      </c>
+      <c r="AS48" s="5">
+        <f t="shared" si="10"/>
+        <v>0.24393207354346996</v>
+      </c>
+      <c r="AT48" s="5">
+        <f t="shared" si="11"/>
+        <v>20679.015026063189</v>
+      </c>
+      <c r="AU48" s="5">
+        <f t="shared" si="12"/>
+        <v>5822.7933000524181</v>
+      </c>
+      <c r="AV48" s="4">
         <v>17.989999999999998</v>
       </c>
-      <c r="AK48" s="5">
+      <c r="AW48" s="5">
         <v>0.12125</v>
       </c>
-      <c r="AL48" s="5">
+      <c r="AX48" s="5">
         <v>0.22977777777777778</v>
       </c>
-      <c r="AM48" s="5">
+      <c r="AY48" s="5">
         <v>0.32729287014323022</v>
       </c>
+      <c r="AZ48" s="5">
+        <f t="shared" si="13"/>
+        <v>2.8487773996992956</v>
+      </c>
+      <c r="BA48" s="5">
+        <f t="shared" si="14"/>
+        <v>1530.1559690903694</v>
+      </c>
+      <c r="BB48" s="5">
+        <f t="shared" si="15"/>
+        <v>6.1189403295915143E-2</v>
+      </c>
+      <c r="BC48" s="5">
+        <f t="shared" si="16"/>
+        <v>0.25487597941067486</v>
+      </c>
+      <c r="BD48" s="5">
+        <f t="shared" si="17"/>
+        <v>25006.878424528106</v>
+      </c>
+      <c r="BE48" s="5">
+        <f t="shared" si="18"/>
+        <v>6003.5314925651346</v>
+      </c>
     </row>
-    <row r="49" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
@@ -7069,7 +10561,7 @@
         <v>4</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="P49" s="3" t="s">
@@ -7120,32 +10612,104 @@
       <c r="AE49" s="5">
         <v>0.36828846749604605</v>
       </c>
-      <c r="AF49" s="4">
+      <c r="AF49" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9675041985292925</v>
+      </c>
+      <c r="AG49" s="5">
+        <f t="shared" si="2"/>
+        <v>1548.112398449905</v>
+      </c>
+      <c r="AH49" s="5">
+        <f t="shared" si="3"/>
+        <v>5.5044735577422538E-2</v>
+      </c>
+      <c r="AI49" s="5">
+        <f t="shared" si="4"/>
+        <v>0.14713928892379827</v>
+      </c>
+      <c r="AJ49" s="5">
+        <f t="shared" si="5"/>
+        <v>28124.622313289619</v>
+      </c>
+      <c r="AK49" s="5">
+        <f t="shared" si="6"/>
+        <v>10521.407366945034</v>
+      </c>
+      <c r="AL49" s="4">
         <v>15.35</v>
       </c>
-      <c r="AG49" s="5">
+      <c r="AM49" s="5">
         <v>0.10571730769230769</v>
       </c>
-      <c r="AH49" s="5">
+      <c r="AN49" s="5">
         <v>0.21389448051948051</v>
       </c>
-      <c r="AI49" s="5">
+      <c r="AO49" s="5">
         <v>0.33461606925734705</v>
       </c>
-      <c r="AJ49" s="4">
+      <c r="AP49" s="5">
+        <f t="shared" si="7"/>
+        <v>3.1287957355858165</v>
+      </c>
+      <c r="AQ49" s="5">
+        <f t="shared" si="8"/>
+        <v>1703.8988713308036</v>
+      </c>
+      <c r="AR49" s="5">
+        <f t="shared" si="9"/>
+        <v>5.0634164842032536E-2</v>
+      </c>
+      <c r="AS49" s="5">
+        <f t="shared" si="10"/>
+        <v>0.15839906775798063</v>
+      </c>
+      <c r="AT49" s="5">
+        <f t="shared" si="11"/>
+        <v>33651.169652873577</v>
+      </c>
+      <c r="AU49" s="5">
+        <f t="shared" si="12"/>
+        <v>10757.00062789641</v>
+      </c>
+      <c r="AV49" s="4">
         <v>18.16</v>
       </c>
-      <c r="AK49" s="5">
+      <c r="AW49" s="5">
         <v>0.11710000000000001</v>
       </c>
-      <c r="AL49" s="5">
+      <c r="AX49" s="5">
         <v>0.17972727272727271</v>
       </c>
-      <c r="AM49" s="5">
+      <c r="AY49" s="5">
         <v>0.30274723591926739</v>
       </c>
+      <c r="AZ49" s="5">
+        <f t="shared" si="13"/>
+        <v>3.3689626657682767</v>
+      </c>
+      <c r="BA49" s="5">
+        <f t="shared" si="14"/>
+        <v>1883.2606051894202</v>
+      </c>
+      <c r="BB49" s="5">
+        <f t="shared" si="15"/>
+        <v>4.3682501296801152E-2</v>
+      </c>
+      <c r="BC49" s="5">
+        <f t="shared" si="16"/>
+        <v>0.15336057119473642</v>
+      </c>
+      <c r="BD49" s="5">
+        <f t="shared" si="17"/>
+        <v>43112.471797198355</v>
+      </c>
+      <c r="BE49" s="5">
+        <f t="shared" si="18"/>
+        <v>12279.952992598508</v>
+      </c>
     </row>
-    <row r="50" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -7189,7 +10753,7 @@
         <v>4</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="P50" s="3" t="s">
@@ -7240,32 +10804,104 @@
       <c r="AE50" s="5">
         <v>0.36571870711553622</v>
       </c>
-      <c r="AF50" s="4">
+      <c r="AF50" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6570118835586438</v>
+      </c>
+      <c r="AG50" s="5">
+        <f t="shared" si="2"/>
+        <v>1537.9229331468921</v>
+      </c>
+      <c r="AH50" s="5">
+        <f t="shared" si="3"/>
+        <v>6.8835093502631936E-2</v>
+      </c>
+      <c r="AI50" s="5">
+        <f t="shared" si="4"/>
+        <v>0.18421778480626738</v>
+      </c>
+      <c r="AJ50" s="5">
+        <f t="shared" si="5"/>
+        <v>22342.134729403526</v>
+      </c>
+      <c r="AK50" s="5">
+        <f t="shared" si="6"/>
+        <v>8348.3955404427888</v>
+      </c>
+      <c r="AL50" s="4">
         <v>15.86</v>
       </c>
-      <c r="AG50" s="5">
+      <c r="AM50" s="5">
         <v>0.13480395299145298</v>
       </c>
-      <c r="AH50" s="5">
+      <c r="AN50" s="5">
         <v>0.22684920634920636</v>
       </c>
-      <c r="AI50" s="5">
+      <c r="AO50" s="5">
         <v>0.3136281275169584</v>
       </c>
-      <c r="AJ50" s="4">
+      <c r="AP50" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7650802272075539</v>
+      </c>
+      <c r="AQ50" s="5">
+        <f t="shared" si="8"/>
+        <v>1793.356964526092</v>
+      </c>
+      <c r="AR50" s="5">
+        <f t="shared" si="9"/>
+        <v>6.498750019708667E-2</v>
+      </c>
+      <c r="AS50" s="5">
+        <f t="shared" si="10"/>
+        <v>0.18792063278665594</v>
+      </c>
+      <c r="AT50" s="5">
+        <f t="shared" si="11"/>
+        <v>27595.413873243375</v>
+      </c>
+      <c r="AU50" s="5">
+        <f t="shared" si="12"/>
+        <v>9543.1615886589152</v>
+      </c>
+      <c r="AV50" s="4">
         <v>18.82</v>
       </c>
-      <c r="AK50" s="5">
+      <c r="AW50" s="5">
         <v>0.15525</v>
       </c>
-      <c r="AL50" s="5">
+      <c r="AX50" s="5">
         <v>0.18911111111111112</v>
       </c>
-      <c r="AM50" s="5">
+      <c r="AY50" s="5">
         <v>0.27458256029684602</v>
       </c>
+      <c r="AZ50" s="5">
+        <f t="shared" si="13"/>
+        <v>2.903928369766879</v>
+      </c>
+      <c r="BA50" s="5">
+        <f t="shared" si="14"/>
+        <v>2048.3718490561223</v>
+      </c>
+      <c r="BB50" s="5">
+        <f t="shared" si="15"/>
+        <v>5.7822035323077267E-2</v>
+      </c>
+      <c r="BC50" s="5">
+        <f t="shared" si="16"/>
+        <v>0.18085298828008478</v>
+      </c>
+      <c r="BD50" s="5">
+        <f t="shared" si="17"/>
+        <v>35425.453940024134</v>
+      </c>
+      <c r="BE50" s="5">
+        <f t="shared" si="18"/>
+        <v>11326.170877994198</v>
+      </c>
     </row>
-    <row r="51" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>5</v>
       </c>
@@ -7309,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="O51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="P51" s="3" t="s">
@@ -7360,32 +10996,104 @@
       <c r="AE51" s="5">
         <v>0.38057386583947267</v>
       </c>
-      <c r="AF51" s="4">
+      <c r="AF51" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8227995347033739</v>
+      </c>
+      <c r="AG51" s="5">
+        <f t="shared" si="2"/>
+        <v>1518.382502290408</v>
+      </c>
+      <c r="AH51" s="5">
+        <f t="shared" si="3"/>
+        <v>5.9984043249608418E-2</v>
+      </c>
+      <c r="AI51" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17689639279337283</v>
+      </c>
+      <c r="AJ51" s="5">
+        <f t="shared" si="5"/>
+        <v>25313.106953661714</v>
+      </c>
+      <c r="AK51" s="5">
+        <f t="shared" si="6"/>
+        <v>8583.4565550694042</v>
+      </c>
+      <c r="AL51" s="4">
         <v>14.39</v>
       </c>
-      <c r="AG51" s="5">
+      <c r="AM51" s="5">
         <v>0.11070687645687646</v>
       </c>
-      <c r="AH51" s="5">
+      <c r="AN51" s="5">
         <v>0.22740238095238097</v>
       </c>
-      <c r="AI51" s="5">
+      <c r="AO51" s="5">
         <v>0.3362853515086196</v>
       </c>
-      <c r="AJ51" s="4">
+      <c r="AP51" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9576238392951493</v>
+      </c>
+      <c r="AQ51" s="5">
+        <f t="shared" si="8"/>
+        <v>1718.3522747194684</v>
+      </c>
+      <c r="AR51" s="5">
+        <f t="shared" si="9"/>
+        <v>5.6632560072217425E-2</v>
+      </c>
+      <c r="AS51" s="5">
+        <f t="shared" si="10"/>
+        <v>0.18762520572406585</v>
+      </c>
+      <c r="AT51" s="5">
+        <f t="shared" si="11"/>
+        <v>30342.126023055254</v>
+      </c>
+      <c r="AU51" s="5">
+        <f t="shared" si="12"/>
+        <v>9158.429796722472</v>
+      </c>
+      <c r="AV51" s="4">
         <v>17.66</v>
       </c>
-      <c r="AK51" s="5">
+      <c r="AW51" s="5">
         <v>0.12166666666666666</v>
       </c>
-      <c r="AL51" s="5">
+      <c r="AX51" s="5">
         <v>0.20080000000000001</v>
       </c>
-      <c r="AM51" s="5">
+      <c r="AY51" s="5">
         <v>0.31135001033698573</v>
       </c>
+      <c r="AZ51" s="5">
+        <f t="shared" si="13"/>
+        <v>3.1010957204879057</v>
+      </c>
+      <c r="BA51" s="5">
+        <f t="shared" si="14"/>
+        <v>1855.9713490750703</v>
+      </c>
+      <c r="BB51" s="5">
+        <f t="shared" si="15"/>
+        <v>5.1653677276336692E-2</v>
+      </c>
+      <c r="BC51" s="5">
+        <f t="shared" si="16"/>
+        <v>0.2002589254844182</v>
+      </c>
+      <c r="BD51" s="5">
+        <f t="shared" si="17"/>
+        <v>35931.05945092738</v>
+      </c>
+      <c r="BE51" s="5">
+        <f t="shared" si="18"/>
+        <v>9267.8583218478325</v>
+      </c>
     </row>
-    <row r="52" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
@@ -7429,7 +11137,7 @@
         <v>2</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="P52" s="3" t="s">
@@ -7480,32 +11188,104 @@
       <c r="AE52" s="5">
         <v>0.34610077314880577</v>
       </c>
-      <c r="AF52" s="4">
+      <c r="AF52" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6786257838024308</v>
+      </c>
+      <c r="AG52" s="5">
+        <f t="shared" si="2"/>
+        <v>1135.3414543238596</v>
+      </c>
+      <c r="AH52" s="5">
+        <f t="shared" si="3"/>
+        <v>6.8737230626385704E-2</v>
+      </c>
+      <c r="AI52" s="5">
+        <f t="shared" si="4"/>
+        <v>0.18294654490589857</v>
+      </c>
+      <c r="AJ52" s="5">
+        <f t="shared" si="5"/>
+        <v>16517.12534790489</v>
+      </c>
+      <c r="AK52" s="5">
+        <f t="shared" si="6"/>
+        <v>6205.8644228992698</v>
+      </c>
+      <c r="AL52" s="4">
         <v>14.36</v>
       </c>
-      <c r="AG52" s="5">
+      <c r="AM52" s="5">
         <v>0.12834602272727275</v>
       </c>
-      <c r="AH52" s="5">
+      <c r="AN52" s="5">
         <v>0.23616224747474746</v>
       </c>
-      <c r="AI52" s="5">
+      <c r="AO52" s="5">
         <v>0.32394635016629397</v>
       </c>
-      <c r="AJ52" s="4">
+      <c r="AP52" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7434219790013907</v>
+      </c>
+      <c r="AQ52" s="5">
+        <f t="shared" si="8"/>
+        <v>1212.9865174516244</v>
+      </c>
+      <c r="AR52" s="5">
+        <f t="shared" si="9"/>
+        <v>6.6011232653045579E-2</v>
+      </c>
+      <c r="AS52" s="5">
+        <f t="shared" si="10"/>
+        <v>0.21866393298969172</v>
+      </c>
+      <c r="AT52" s="5">
+        <f t="shared" si="11"/>
+        <v>18375.456247379447</v>
+      </c>
+      <c r="AU52" s="5">
+        <f t="shared" si="12"/>
+        <v>5547.2637890804199</v>
+      </c>
+      <c r="AV52" s="4">
         <v>18.05</v>
       </c>
-      <c r="AK52" s="5">
+      <c r="AW52" s="5">
         <v>0.14087500000000003</v>
       </c>
-      <c r="AL52" s="5">
+      <c r="AX52" s="5">
         <v>0.20877777777777778</v>
       </c>
-      <c r="AM52" s="5">
+      <c r="AY52" s="5">
         <v>0.29855014895729887</v>
       </c>
+      <c r="AZ52" s="5">
+        <f t="shared" si="13"/>
+        <v>2.859980139026812</v>
+      </c>
+      <c r="BA52" s="5">
+        <f t="shared" si="14"/>
+        <v>1316.1693487735599</v>
+      </c>
+      <c r="BB52" s="5">
+        <f t="shared" si="15"/>
+        <v>6.0525225940768528E-2</v>
+      </c>
+      <c r="BC52" s="5">
+        <f t="shared" si="16"/>
+        <v>0.23468376177220523</v>
+      </c>
+      <c r="BD52" s="5">
+        <f t="shared" si="17"/>
+        <v>21745.798191015358</v>
+      </c>
+      <c r="BE52" s="5">
+        <f t="shared" si="18"/>
+        <v>5608.2676484924168</v>
+      </c>
     </row>
-    <row r="53" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
@@ -7549,7 +11329,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="P53" s="3" t="s">
@@ -7600,32 +11380,104 @@
       <c r="AE53" s="5">
         <v>0.36604774535809015</v>
       </c>
-      <c r="AF53" s="4">
+      <c r="AF53" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8936580660718589</v>
+      </c>
+      <c r="AG53" s="5">
+        <f t="shared" si="2"/>
+        <v>1641.7830031449944</v>
+      </c>
+      <c r="AH53" s="5">
+        <f t="shared" si="3"/>
+        <v>5.8018329711229777E-2</v>
+      </c>
+      <c r="AI53" s="5">
+        <f t="shared" si="4"/>
+        <v>0.15447501030107924</v>
+      </c>
+      <c r="AJ53" s="5">
+        <f t="shared" si="5"/>
+        <v>28297.660606855043</v>
+      </c>
+      <c r="AK53" s="5">
+        <f t="shared" si="6"/>
+        <v>10628.146260971793</v>
+      </c>
+      <c r="AL53" s="4">
         <v>14.18</v>
       </c>
-      <c r="AG53" s="5">
+      <c r="AM53" s="5">
         <v>0.10480492424242424</v>
       </c>
-      <c r="AH53" s="5">
+      <c r="AN53" s="5">
         <v>0.23744444444444446</v>
       </c>
-      <c r="AI53" s="5">
+      <c r="AO53" s="5">
         <v>0.34688806783700377</v>
       </c>
-      <c r="AJ53" s="4">
+      <c r="AP53" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9218461493055998</v>
+      </c>
+      <c r="AQ53" s="5">
+        <f t="shared" si="8"/>
+        <v>1732.4636457395948</v>
+      </c>
+      <c r="AR53" s="5">
+        <f t="shared" si="9"/>
+        <v>5.774437776905203E-2</v>
+      </c>
+      <c r="AS53" s="5">
+        <f t="shared" si="10"/>
+        <v>0.19337719136572248</v>
+      </c>
+      <c r="AT53" s="5">
+        <f t="shared" si="11"/>
+        <v>30002.291351524524</v>
+      </c>
+      <c r="AU53" s="5">
+        <f t="shared" si="12"/>
+        <v>8958.98649424012</v>
+      </c>
+      <c r="AV53" s="4">
         <v>17.72</v>
       </c>
-      <c r="AK53" s="5">
+      <c r="AW53" s="5">
         <v>0.125</v>
       </c>
-      <c r="AL53" s="5">
+      <c r="AX53" s="5">
         <v>0.2247777777777778</v>
       </c>
-      <c r="AM53" s="5">
+      <c r="AY53" s="5">
         <v>0.32131512071156293</v>
       </c>
+      <c r="AZ53" s="5">
+        <f t="shared" si="13"/>
+        <v>2.8589580686149936</v>
+      </c>
+      <c r="BA53" s="5">
+        <f t="shared" si="14"/>
+        <v>1870.3476056078207</v>
+      </c>
+      <c r="BB53" s="5">
+        <f t="shared" si="15"/>
+        <v>6.0797396423861852E-2</v>
+      </c>
+      <c r="BC53" s="5">
+        <f t="shared" si="16"/>
+        <v>0.24017576398232976</v>
+      </c>
+      <c r="BD53" s="5">
+        <f t="shared" si="17"/>
+        <v>30763.613503583252</v>
+      </c>
+      <c r="BE53" s="5">
+        <f t="shared" si="18"/>
+        <v>7787.4119128249185</v>
+      </c>
     </row>
-    <row r="54" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>5</v>
       </c>
@@ -7669,7 +11521,7 @@
         <v>4</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="P54" s="3" t="s">
@@ -7720,32 +11572,104 @@
       <c r="AE54" s="5">
         <v>0.33890546240098757</v>
       </c>
-      <c r="AF54" s="4">
+      <c r="AF54" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7157699825120871</v>
+      </c>
+      <c r="AG54" s="5">
+        <f t="shared" si="2"/>
+        <v>1636.8648260809773</v>
+      </c>
+      <c r="AH54" s="5">
+        <f t="shared" si="3"/>
+        <v>6.7101360078811345E-2</v>
+      </c>
+      <c r="AI54" s="5">
+        <f t="shared" si="4"/>
+        <v>0.16140240550084212</v>
+      </c>
+      <c r="AJ54" s="5">
+        <f t="shared" si="5"/>
+        <v>24393.914283681584</v>
+      </c>
+      <c r="AK54" s="5">
+        <f t="shared" si="6"/>
+        <v>10141.514440269213</v>
+      </c>
+      <c r="AL54" s="4">
         <v>15.6</v>
       </c>
-      <c r="AG54" s="5">
+      <c r="AM54" s="5">
         <v>0.13112159090909092</v>
       </c>
-      <c r="AH54" s="5">
+      <c r="AN54" s="5">
         <v>0.22335290404040406</v>
       </c>
-      <c r="AI54" s="5">
+      <c r="AO54" s="5">
         <v>0.31504791913481256</v>
       </c>
-      <c r="AJ54" s="4">
+      <c r="AP54" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8210774378632757</v>
+      </c>
+      <c r="AQ54" s="5">
+        <f t="shared" si="8"/>
+        <v>1760.8192185313405</v>
+      </c>
+      <c r="AR54" s="5">
+        <f t="shared" si="9"/>
+        <v>6.2440107273600519E-2</v>
+      </c>
+      <c r="AS54" s="5">
+        <f t="shared" si="10"/>
+        <v>0.18209525289104325</v>
+      </c>
+      <c r="AT54" s="5">
+        <f t="shared" si="11"/>
+        <v>28200.131220399253</v>
+      </c>
+      <c r="AU54" s="5">
+        <f t="shared" si="12"/>
+        <v>9669.7700273654427</v>
+      </c>
+      <c r="AV54" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="AK54" s="5">
+      <c r="AW54" s="5">
         <v>0.13525000000000001</v>
       </c>
-      <c r="AL54" s="5">
+      <c r="AX54" s="5">
         <v>0.20055555555555557</v>
       </c>
-      <c r="AM54" s="5">
+      <c r="AY54" s="5">
         <v>0.29861857887335597</v>
       </c>
+      <c r="AZ54" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9779138059392833</v>
+      </c>
+      <c r="BA54" s="5">
+        <f t="shared" si="14"/>
+        <v>1857.6956358972957</v>
+      </c>
+      <c r="BB54" s="5">
+        <f t="shared" si="15"/>
+        <v>5.5827711233104517E-2</v>
+      </c>
+      <c r="BC54" s="5">
+        <f t="shared" si="16"/>
+        <v>0.19637532084838785</v>
+      </c>
+      <c r="BD54" s="5">
+        <f t="shared" si="17"/>
+        <v>33275.511298333971</v>
+      </c>
+      <c r="BE54" s="5">
+        <f t="shared" si="18"/>
+        <v>9459.9241283049778</v>
+      </c>
     </row>
-    <row r="55" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
@@ -7789,7 +11713,7 @@
         <v>3</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="P55" s="3" t="s">
@@ -7840,32 +11764,104 @@
       <c r="AE55" s="5">
         <v>0.35559781316852862</v>
       </c>
-      <c r="AF55" s="4">
+      <c r="AF55" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6146898027097691</v>
+      </c>
+      <c r="AG55" s="5">
+        <f t="shared" si="2"/>
+        <v>1560.0276779766818</v>
+      </c>
+      <c r="AH55" s="5">
+        <f t="shared" si="3"/>
+        <v>7.1696508070755879E-2</v>
+      </c>
+      <c r="AI55" s="5">
+        <f t="shared" si="4"/>
+        <v>0.1892635788481386</v>
+      </c>
+      <c r="AJ55" s="5">
+        <f t="shared" si="5"/>
+        <v>21758.767894764431</v>
+      </c>
+      <c r="AK55" s="5">
+        <f t="shared" si="6"/>
+        <v>8242.6195651114558</v>
+      </c>
+      <c r="AL55" s="4">
         <v>14.65</v>
       </c>
-      <c r="AG55" s="5">
+      <c r="AM55" s="5">
         <v>0.13147077922077921</v>
       </c>
-      <c r="AH55" s="5">
+      <c r="AN55" s="5">
         <v>0.24045170454545456</v>
       </c>
-      <c r="AI55" s="5">
+      <c r="AO55" s="5">
         <v>0.32325513385282023</v>
       </c>
-      <c r="AJ55" s="4">
+      <c r="AP55" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6887323129099525</v>
+      </c>
+      <c r="AQ55" s="5">
+        <f t="shared" si="8"/>
+        <v>1716.1132884697286</v>
+      </c>
+      <c r="AR55" s="5">
+        <f t="shared" si="9"/>
+        <v>6.8728884753794642E-2</v>
+      </c>
+      <c r="AS55" s="5">
+        <f t="shared" si="10"/>
+        <v>0.21465284414358837</v>
+      </c>
+      <c r="AT55" s="5">
+        <f t="shared" si="11"/>
+        <v>24969.316679840042</v>
+      </c>
+      <c r="AU55" s="5">
+        <f t="shared" si="12"/>
+        <v>7994.8313534656163</v>
+      </c>
+      <c r="AV55" s="4">
         <v>18.11</v>
       </c>
-      <c r="AK55" s="5">
+      <c r="AW55" s="5">
         <v>0.14742857142857144</v>
       </c>
-      <c r="AL55" s="5">
+      <c r="AX55" s="5">
         <v>0.21562499999999998</v>
       </c>
-      <c r="AM55" s="5">
+      <c r="AY55" s="5">
         <v>0.29696030692046627</v>
       </c>
+      <c r="AZ55" s="5">
+        <f t="shared" si="13"/>
+        <v>2.7544144410014266</v>
+      </c>
+      <c r="BA55" s="5">
+        <f t="shared" si="14"/>
+        <v>1868.0692935822569</v>
+      </c>
+      <c r="BB55" s="5">
+        <f t="shared" si="15"/>
+        <v>6.5211255789096895E-2</v>
+      </c>
+      <c r="BC55" s="5">
+        <f t="shared" si="16"/>
+        <v>0.23674424540854064</v>
+      </c>
+      <c r="BD55" s="5">
+        <f t="shared" si="17"/>
+        <v>28646.424163703836</v>
+      </c>
+      <c r="BE55" s="5">
+        <f t="shared" si="18"/>
+        <v>7890.6639963248108</v>
+      </c>
     </row>
-    <row r="56" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -7909,7 +11905,7 @@
         <v>4</v>
       </c>
       <c r="O56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="P56" s="3" t="s">
@@ -7960,32 +11956,104 @@
       <c r="AE56" s="5">
         <v>0.33555636100036246</v>
       </c>
-      <c r="AF56" s="4">
+      <c r="AF56" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8271112722000722</v>
+      </c>
+      <c r="AG56" s="5">
+        <f t="shared" si="2"/>
+        <v>1423.590569159498</v>
+      </c>
+      <c r="AH56" s="5">
+        <f t="shared" si="3"/>
+        <v>6.1997854650292589E-2</v>
+      </c>
+      <c r="AI56" s="5">
+        <f t="shared" si="4"/>
+        <v>0.15351086968406277</v>
+      </c>
+      <c r="AJ56" s="5">
+        <f t="shared" si="5"/>
+        <v>22961.932750567841</v>
+      </c>
+      <c r="AK56" s="5">
+        <f t="shared" si="6"/>
+        <v>9273.548981185224</v>
+      </c>
+      <c r="AL56" s="4">
         <v>15.82</v>
       </c>
-      <c r="AG56" s="5">
+      <c r="AM56" s="5">
         <v>0.12427777777777778</v>
       </c>
-      <c r="AH56" s="5">
+      <c r="AN56" s="5">
         <v>0.21172569930069929</v>
       </c>
-      <c r="AI56" s="5">
+      <c r="AO56" s="5">
         <v>0.31506474448067778</v>
       </c>
-      <c r="AJ56" s="4">
+      <c r="AP56" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9761596775572645</v>
+      </c>
+      <c r="AQ56" s="5">
+        <f t="shared" si="8"/>
+        <v>1516.180021122268</v>
+      </c>
+      <c r="AR56" s="5">
+        <f t="shared" si="9"/>
+        <v>5.610242945542384E-2</v>
+      </c>
+      <c r="AS56" s="5">
+        <f t="shared" si="10"/>
+        <v>0.17145873256056829</v>
+      </c>
+      <c r="AT56" s="5">
+        <f t="shared" si="11"/>
+        <v>27025.211489761743</v>
+      </c>
+      <c r="AU56" s="5">
+        <f t="shared" si="12"/>
+        <v>8842.8276500100292</v>
+      </c>
+      <c r="AV56" s="4">
         <v>17.66</v>
       </c>
-      <c r="AK56" s="5">
+      <c r="AW56" s="5">
         <v>0.12777777777777777</v>
       </c>
-      <c r="AL56" s="5">
+      <c r="AX56" s="5">
         <v>0.19370000000000001</v>
       </c>
-      <c r="AM56" s="5">
+      <c r="AY56" s="5">
         <v>0.30126499153216058</v>
       </c>
+      <c r="AZ56" s="5">
+        <f t="shared" si="13"/>
+        <v>3.1106349151487924</v>
+      </c>
+      <c r="BA56" s="5">
+        <f t="shared" si="14"/>
+        <v>1585.6302071878849</v>
+      </c>
+      <c r="BB56" s="5">
+        <f t="shared" si="15"/>
+        <v>5.1214636710962526E-2</v>
+      </c>
+      <c r="BC56" s="5">
+        <f t="shared" si="16"/>
+        <v>0.19241009770109321</v>
+      </c>
+      <c r="BD56" s="5">
+        <f t="shared" si="17"/>
+        <v>30960.489208126703</v>
+      </c>
+      <c r="BE56" s="5">
+        <f t="shared" si="18"/>
+        <v>8240.88873782052</v>
+      </c>
     </row>
-    <row r="57" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>5</v>
       </c>
@@ -8029,7 +12097,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="P57" s="3" t="s">
@@ -8080,32 +12148,104 @@
       <c r="AE57" s="5">
         <v>0.34255412202055546</v>
       </c>
-      <c r="AF57" s="4">
+      <c r="AF57" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8427727968510821</v>
+      </c>
+      <c r="AG57" s="5">
+        <f t="shared" si="2"/>
+        <v>1709.3983609032857</v>
+      </c>
+      <c r="AH57" s="5">
+        <f t="shared" si="3"/>
+        <v>6.1140390112872103E-2</v>
+      </c>
+      <c r="AI57" s="5">
+        <f t="shared" si="4"/>
+        <v>0.14928002663844908</v>
+      </c>
+      <c r="AJ57" s="5">
+        <f t="shared" si="5"/>
+        <v>27958.577917928593</v>
+      </c>
+      <c r="AK57" s="5">
+        <f t="shared" si="6"/>
+        <v>11450.951606830751</v>
+      </c>
+      <c r="AL57" s="4">
         <v>15.48</v>
       </c>
-      <c r="AG57" s="5">
+      <c r="AM57" s="5">
         <v>0.12645998445998446</v>
       </c>
-      <c r="AH57" s="5">
+      <c r="AN57" s="5">
         <v>0.2073666666666667</v>
       </c>
-      <c r="AI57" s="5">
+      <c r="AO57" s="5">
         <v>0.31059034077538861</v>
       </c>
-      <c r="AJ57" s="4">
+      <c r="AP57" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9955667009360734</v>
+      </c>
+      <c r="AQ57" s="5">
+        <f t="shared" si="8"/>
+        <v>1885.3176606868965</v>
+      </c>
+      <c r="AR57" s="5">
+        <f t="shared" si="9"/>
+        <v>5.5351038712433367E-2</v>
+      </c>
+      <c r="AS57" s="5">
+        <f t="shared" si="10"/>
+        <v>0.15813455328608811</v>
+      </c>
+      <c r="AT57" s="5">
+        <f t="shared" si="11"/>
+        <v>34061.107154316189</v>
+      </c>
+      <c r="AU57" s="5">
+        <f t="shared" si="12"/>
+        <v>11922.23724359651</v>
+      </c>
+      <c r="AV57" s="4">
         <v>17.34</v>
       </c>
-      <c r="AK57" s="5">
+      <c r="AW57" s="5">
         <v>0.13688888888888889</v>
       </c>
-      <c r="AL57" s="5">
+      <c r="AX57" s="5">
         <v>0.1903</v>
       </c>
-      <c r="AM57" s="5">
+      <c r="AY57" s="5">
         <v>0.29081060889054916</v>
       </c>
+      <c r="AZ57" s="5">
+        <f t="shared" si="13"/>
+        <v>3.0563385064692499</v>
+      </c>
+      <c r="BA57" s="5">
+        <f t="shared" si="14"/>
+        <v>2013.549151238105</v>
+      </c>
+      <c r="BB57" s="5">
+        <f t="shared" si="15"/>
+        <v>5.2805948589013794E-2</v>
+      </c>
+      <c r="BC57" s="5">
+        <f t="shared" si="16"/>
+        <v>0.17908828521085943</v>
+      </c>
+      <c r="BD57" s="5">
+        <f t="shared" si="17"/>
+        <v>38131.104639544741</v>
+      </c>
+      <c r="BE57" s="5">
+        <f t="shared" si="18"/>
+        <v>11243.332576820099</v>
+      </c>
     </row>
-    <row r="58" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>5</v>
       </c>
@@ -8149,7 +12289,7 @@
         <v>4</v>
       </c>
       <c r="O58" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="P58" s="3" t="s">
@@ -8200,32 +12340,104 @@
       <c r="AE58" s="5">
         <v>0.34755357864941366</v>
       </c>
-      <c r="AF58" s="4">
+      <c r="AF58" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6283865750101092</v>
+      </c>
+      <c r="AG58" s="5">
+        <f t="shared" si="2"/>
+        <v>1862.1574983662599</v>
+      </c>
+      <c r="AH58" s="5">
+        <f t="shared" si="3"/>
+        <v>7.1331211421771817E-2</v>
+      </c>
+      <c r="AI58" s="5">
+        <f t="shared" si="4"/>
+        <v>0.18348471571482752</v>
+      </c>
+      <c r="AJ58" s="5">
+        <f t="shared" si="5"/>
+        <v>26105.788213178857</v>
+      </c>
+      <c r="AK58" s="5">
+        <f t="shared" si="6"/>
+        <v>10148.84259493543</v>
+      </c>
+      <c r="AL58" s="4">
         <v>14.01</v>
       </c>
-      <c r="AG58" s="5">
+      <c r="AM58" s="5">
         <v>0.11952020202020203</v>
       </c>
-      <c r="AH58" s="5">
+      <c r="AN58" s="5">
         <v>0.23059038461538461</v>
       </c>
-      <c r="AI58" s="5">
+      <c r="AO58" s="5">
         <v>0.32931078553102294</v>
       </c>
-      <c r="AJ58" s="4">
+      <c r="AP58" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8562403942410692</v>
+      </c>
+      <c r="AQ58" s="5">
+        <f t="shared" si="8"/>
+        <v>1965.3152310890935</v>
+      </c>
+      <c r="AR58" s="5">
+        <f t="shared" si="9"/>
+        <v>6.0845815147974922E-2</v>
+      </c>
+      <c r="AS58" s="5">
+        <f t="shared" si="10"/>
+        <v>0.19585339048281558</v>
+      </c>
+      <c r="AT58" s="5">
+        <f t="shared" si="11"/>
+        <v>32299.924428812643</v>
+      </c>
+      <c r="AU58" s="5">
+        <f t="shared" si="12"/>
+        <v>10034.62450276822</v>
+      </c>
+      <c r="AV58" s="4">
         <v>17.239999999999998</v>
       </c>
-      <c r="AK58" s="5">
+      <c r="AW58" s="5">
         <v>0.11644444444444445</v>
       </c>
-      <c r="AL58" s="5">
+      <c r="AX58" s="5">
         <v>0.2104</v>
       </c>
-      <c r="AM58" s="5">
+      <c r="AY58" s="5">
         <v>0.32186565134620615</v>
       </c>
+      <c r="AZ58" s="5">
+        <f t="shared" si="13"/>
+        <v>3.0595594234430243</v>
+      </c>
+      <c r="BA58" s="5">
+        <f t="shared" si="14"/>
+        <v>2010.7753028604175</v>
+      </c>
+      <c r="BB58" s="5">
+        <f t="shared" si="15"/>
+        <v>5.3084445337879607E-2</v>
+      </c>
+      <c r="BC58" s="5">
+        <f t="shared" si="16"/>
+        <v>0.21780385812788383</v>
+      </c>
+      <c r="BD58" s="5">
+        <f t="shared" si="17"/>
+        <v>37878.804046306635</v>
+      </c>
+      <c r="BE58" s="5">
+        <f t="shared" si="18"/>
+        <v>9232.0463014010893</v>
+      </c>
     </row>
-    <row r="59" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
@@ -8269,7 +12481,7 @@
         <v>2</v>
       </c>
       <c r="O59" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="P59" s="3" t="s">
@@ -8320,32 +12532,104 @@
       <c r="AE59" s="5">
         <v>0.34495180605588549</v>
       </c>
-      <c r="AF59" s="4">
+      <c r="AF59" s="5">
+        <f t="shared" si="1"/>
+        <v>2.531399084801869</v>
+      </c>
+      <c r="AG59" s="5">
+        <f t="shared" si="2"/>
+        <v>1362.4805167204261</v>
+      </c>
+      <c r="AH59" s="5">
+        <f t="shared" si="3"/>
+        <v>7.701315771312954E-2</v>
+      </c>
+      <c r="AI59" s="5">
+        <f t="shared" si="4"/>
+        <v>0.19989015440065605</v>
+      </c>
+      <c r="AJ59" s="5">
+        <f t="shared" si="5"/>
+        <v>17691.529047485667</v>
+      </c>
+      <c r="AK59" s="5">
+        <f t="shared" si="6"/>
+        <v>6816.1462019259634</v>
+      </c>
+      <c r="AL59" s="4">
         <v>15.35</v>
       </c>
-      <c r="AG59" s="5">
+      <c r="AM59" s="5">
         <v>0.14938124999999999</v>
       </c>
-      <c r="AH59" s="5">
+      <c r="AN59" s="5">
         <v>0.2226346153846154</v>
       </c>
-      <c r="AI59" s="5">
+      <c r="AO59" s="5">
         <v>0.29922731273092418</v>
       </c>
-      <c r="AJ59" s="4">
+      <c r="AP59" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6880574003641802</v>
+      </c>
+      <c r="AQ59" s="5">
+        <f t="shared" si="8"/>
+        <v>1570.6791959238656</v>
+      </c>
+      <c r="AR59" s="5">
+        <f t="shared" si="9"/>
+        <v>6.8532810074740769E-2</v>
+      </c>
+      <c r="AS59" s="5">
+        <f t="shared" si="10"/>
+        <v>0.19708860802507788</v>
+      </c>
+      <c r="AT59" s="5">
+        <f t="shared" si="11"/>
+        <v>22918.645743708865</v>
+      </c>
+      <c r="AU59" s="5">
+        <f t="shared" si="12"/>
+        <v>7969.4063074615133</v>
+      </c>
+      <c r="AV59" s="4">
         <v>17.14</v>
       </c>
-      <c r="AK59" s="5">
+      <c r="AW59" s="5">
         <v>0.15662499999999999</v>
       </c>
-      <c r="AL59" s="5">
+      <c r="AX59" s="5">
         <v>0.20200000000000001</v>
       </c>
-      <c r="AM59" s="5">
+      <c r="AY59" s="5">
         <v>0.28163123039386551</v>
       </c>
+      <c r="AZ59" s="5">
+        <f t="shared" si="13"/>
+        <v>2.7884280237016386</v>
+      </c>
+      <c r="BA59" s="5">
+        <f t="shared" si="14"/>
+        <v>1668.813910663881</v>
+      </c>
+      <c r="BB59" s="5">
+        <f t="shared" si="15"/>
+        <v>6.3068903748510763E-2</v>
+      </c>
+      <c r="BC59" s="5">
+        <f t="shared" si="16"/>
+        <v>0.21789466136272589</v>
+      </c>
+      <c r="BD59" s="5">
+        <f t="shared" si="17"/>
+        <v>26460.169932845653</v>
+      </c>
+      <c r="BE59" s="5">
+        <f t="shared" si="18"/>
+        <v>7658.8104555982309</v>
+      </c>
     </row>
-    <row r="60" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>5</v>
       </c>
@@ -8389,7 +12673,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="P60" s="3" t="s">
@@ -8440,32 +12724,104 @@
       <c r="AE60" s="5">
         <v>0.35451513061885592</v>
       </c>
-      <c r="AF60" s="4">
+      <c r="AF60" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9186779351155443</v>
+      </c>
+      <c r="AG60" s="5">
+        <f t="shared" si="2"/>
+        <v>1673.4580824516602</v>
+      </c>
+      <c r="AH60" s="5">
+        <f t="shared" si="3"/>
+        <v>5.7585304745238167E-2</v>
+      </c>
+      <c r="AI60" s="5">
+        <f t="shared" si="4"/>
+        <v>0.14721415747226285</v>
+      </c>
+      <c r="AJ60" s="5">
+        <f t="shared" si="5"/>
+        <v>29060.505798400616</v>
+      </c>
+      <c r="AK60" s="5">
+        <f t="shared" si="6"/>
+        <v>11367.507793990279</v>
+      </c>
+      <c r="AL60" s="4">
         <v>15.23</v>
       </c>
-      <c r="AG60" s="5">
+      <c r="AM60" s="5">
         <v>0.10442812742812743</v>
       </c>
-      <c r="AH60" s="5">
+      <c r="AN60" s="5">
         <v>0.22307380952380951</v>
       </c>
-      <c r="AI60" s="5">
+      <c r="AO60" s="5">
         <v>0.34056868731824791</v>
       </c>
-      <c r="AJ60" s="4">
+      <c r="AP60" s="5">
+        <f t="shared" si="7"/>
+        <v>3.0534170555050992</v>
+      </c>
+      <c r="AQ60" s="5">
+        <f t="shared" si="8"/>
+        <v>1741.9869552809087</v>
+      </c>
+      <c r="AR60" s="5">
+        <f t="shared" si="9"/>
+        <v>5.3044227626103356E-2</v>
+      </c>
+      <c r="AS60" s="5">
+        <f t="shared" si="10"/>
+        <v>0.17313274359309858</v>
+      </c>
+      <c r="AT60" s="5">
+        <f t="shared" si="11"/>
+        <v>32840.273734585724</v>
+      </c>
+      <c r="AU60" s="5">
+        <f t="shared" si="12"/>
+        <v>10061.56847704658</v>
+      </c>
+      <c r="AV60" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="AK60" s="5">
+      <c r="AW60" s="5">
         <v>0.1071111111111111</v>
       </c>
-      <c r="AL60" s="5">
+      <c r="AX60" s="5">
         <v>0.20519999999999999</v>
       </c>
-      <c r="AM60" s="5">
+      <c r="AY60" s="5">
         <v>0.32851857122527395</v>
       </c>
+      <c r="AZ60" s="5">
+        <f t="shared" si="13"/>
+        <v>3.2019353920592004</v>
+      </c>
+      <c r="BA60" s="5">
+        <f t="shared" si="14"/>
+        <v>1805.883327913027</v>
+      </c>
+      <c r="BB60" s="5">
+        <f t="shared" si="15"/>
+        <v>4.8424729044502464E-2</v>
+      </c>
+      <c r="BC60" s="5">
+        <f t="shared" si="16"/>
+        <v>0.19711539650508492</v>
+      </c>
+      <c r="BD60" s="5">
+        <f t="shared" si="17"/>
+        <v>37292.585080928693</v>
+      </c>
+      <c r="BE60" s="5">
+        <f t="shared" si="18"/>
+        <v>9161.5538914355748</v>
+      </c>
     </row>
-    <row r="61" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>5</v>
       </c>
@@ -8509,7 +12865,7 @@
         <v>2</v>
       </c>
       <c r="O61" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="P61" s="3" t="s">
@@ -8560,32 +12916,104 @@
       <c r="AE61" s="5">
         <v>0.38980010251153258</v>
       </c>
-      <c r="AF61" s="4">
+      <c r="AF61" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6652998462327009</v>
+      </c>
+      <c r="AG61" s="5">
+        <f t="shared" si="2"/>
+        <v>1304.5504390504029</v>
+      </c>
+      <c r="AH61" s="5">
+        <f t="shared" si="3"/>
+        <v>6.6430661842583061E-2</v>
+      </c>
+      <c r="AI61" s="5">
+        <f t="shared" si="4"/>
+        <v>0.21174280796225042</v>
+      </c>
+      <c r="AJ61" s="5">
+        <f t="shared" si="5"/>
+        <v>19637.775732864462</v>
+      </c>
+      <c r="AK61" s="5">
+        <f t="shared" si="6"/>
+        <v>6161.014164329863</v>
+      </c>
+      <c r="AL61" s="4">
         <v>15.15</v>
       </c>
-      <c r="AG61" s="5">
+      <c r="AM61" s="5">
         <v>0.12141057692307693</v>
       </c>
-      <c r="AH61" s="5">
+      <c r="AN61" s="5">
         <v>0.24116792929292935</v>
       </c>
-      <c r="AI61" s="5">
+      <c r="AO61" s="5">
         <v>0.33257339466953051</v>
       </c>
-      <c r="AJ61" s="4">
+      <c r="AP61" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7580233876418743</v>
+      </c>
+      <c r="AQ61" s="5">
+        <f t="shared" si="8"/>
+        <v>1529.0275861621726</v>
+      </c>
+      <c r="AR61" s="5">
+        <f t="shared" si="9"/>
+        <v>6.5203432619281854E-2</v>
+      </c>
+      <c r="AS61" s="5">
+        <f t="shared" si="10"/>
+        <v>0.22050272279863281</v>
+      </c>
+      <c r="AT61" s="5">
+        <f t="shared" si="11"/>
+        <v>23450.10875562418</v>
+      </c>
+      <c r="AU61" s="5">
+        <f t="shared" si="12"/>
+        <v>6934.2798436031517</v>
+      </c>
+      <c r="AV61" s="4">
         <v>17.989999999999998</v>
       </c>
-      <c r="AK61" s="5">
+      <c r="AW61" s="5">
         <v>0.14075000000000001</v>
       </c>
-      <c r="AL61" s="5">
+      <c r="AX61" s="5">
         <v>0.20944444444444446</v>
       </c>
-      <c r="AM61" s="5">
+      <c r="AY61" s="5">
         <v>0.29904021575315298</v>
       </c>
+      <c r="AZ61" s="5">
+        <f t="shared" si="13"/>
+        <v>2.8555564369001347</v>
+      </c>
+      <c r="BA61" s="5">
+        <f t="shared" si="14"/>
+        <v>1700.4866505750247</v>
+      </c>
+      <c r="BB61" s="5">
+        <f t="shared" si="15"/>
+        <v>6.0724402697393827E-2</v>
+      </c>
+      <c r="BC61" s="5">
+        <f t="shared" si="16"/>
+        <v>0.2309552806704997</v>
+      </c>
+      <c r="BD61" s="5">
+        <f t="shared" si="17"/>
+        <v>28003.349148595353</v>
+      </c>
+      <c r="BE61" s="5">
+        <f t="shared" si="18"/>
+        <v>7362.8394451005543</v>
+      </c>
     </row>
-    <row r="62" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -8627,7 +13055,7 @@
         <v>5</v>
       </c>
       <c r="O62" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="P62" s="3" t="s">
@@ -8678,32 +13106,104 @@
       <c r="AE62" s="5">
         <v>0.34012649332396344</v>
       </c>
-      <c r="AF62" s="4">
+      <c r="AF62" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5767158585148744</v>
+      </c>
+      <c r="AG62" s="5">
+        <f t="shared" si="2"/>
+        <v>1563.0307349087736</v>
+      </c>
+      <c r="AH62" s="5">
+        <f t="shared" si="3"/>
+        <v>7.4500856512841843E-2</v>
+      </c>
+      <c r="AI62" s="5">
+        <f t="shared" si="4"/>
+        <v>0.18551065448957199</v>
+      </c>
+      <c r="AJ62" s="5">
+        <f t="shared" si="5"/>
+        <v>20980.037117282689</v>
+      </c>
+      <c r="AK62" s="5">
+        <f t="shared" si="6"/>
+        <v>8425.5577622181027</v>
+      </c>
+      <c r="AL62" s="4">
         <v>15.69</v>
       </c>
-      <c r="AG62" s="5">
+      <c r="AM62" s="5">
         <v>0.1486338383838384</v>
       </c>
-      <c r="AH62" s="5">
+      <c r="AN62" s="5">
         <v>0.22195000000000001</v>
       </c>
-      <c r="AI62" s="5">
+      <c r="AO62" s="5">
         <v>0.29945990220182184</v>
       </c>
-      <c r="AJ62" s="4">
+      <c r="AP62" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6984447145917714</v>
+      </c>
+      <c r="AQ62" s="5">
+        <f t="shared" si="8"/>
+        <v>1775.2899767655917</v>
+      </c>
+      <c r="AR62" s="5">
+        <f t="shared" si="9"/>
+        <v>6.8012152292615702E-2</v>
+      </c>
+      <c r="AS62" s="5">
+        <f t="shared" si="10"/>
+        <v>0.19149328229268081</v>
+      </c>
+      <c r="AT62" s="5">
+        <f t="shared" si="11"/>
+        <v>26102.540750770222</v>
+      </c>
+      <c r="AU62" s="5">
+        <f t="shared" si="12"/>
+        <v>9270.7689560212129</v>
+      </c>
+      <c r="AV62" s="4">
         <v>17.14</v>
       </c>
-      <c r="AK62" s="5">
+      <c r="AW62" s="5">
         <v>0.15533333333333332</v>
       </c>
-      <c r="AL62" s="5">
+      <c r="AX62" s="5">
         <v>0.19660000000000002</v>
       </c>
-      <c r="AM62" s="5">
+      <c r="AY62" s="5">
         <v>0.27931426406516391</v>
       </c>
+      <c r="AZ62" s="5">
+        <f t="shared" si="13"/>
+        <v>2.8414472437961735</v>
+      </c>
+      <c r="BA62" s="5">
+        <f t="shared" si="14"/>
+        <v>1903.333381850023</v>
+      </c>
+      <c r="BB62" s="5">
+        <f t="shared" si="15"/>
+        <v>6.0630708600167893E-2</v>
+      </c>
+      <c r="BC62" s="5">
+        <f t="shared" si="16"/>
+        <v>0.20156602594527023</v>
+      </c>
+      <c r="BD62" s="5">
+        <f t="shared" si="17"/>
+        <v>31392.233833215541</v>
+      </c>
+      <c r="BE62" s="5">
+        <f t="shared" si="18"/>
+        <v>9442.7291153064725</v>
+      </c>
     </row>
-    <row r="63" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>5</v>
       </c>
@@ -8747,7 +13247,7 @@
         <v>3</v>
       </c>
       <c r="O63" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="P63" s="3" t="s">
@@ -8798,32 +13298,104 @@
       <c r="AE63" s="5">
         <v>0.36836912362159024</v>
       </c>
-      <c r="AF63" s="4">
+      <c r="AF63" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5536854323853748</v>
+      </c>
+      <c r="AG63" s="5">
+        <f t="shared" si="2"/>
+        <v>1422.2782889300295</v>
+      </c>
+      <c r="AH63" s="5">
+        <f t="shared" si="3"/>
+        <v>7.4323852959055761E-2</v>
+      </c>
+      <c r="AI63" s="5">
+        <f t="shared" si="4"/>
+        <v>0.20520297064095572</v>
+      </c>
+      <c r="AJ63" s="5">
+        <f t="shared" si="5"/>
+        <v>19136.229249492055</v>
+      </c>
+      <c r="AK63" s="5">
+        <f t="shared" si="6"/>
+        <v>6931.080405354337</v>
+      </c>
+      <c r="AL63" s="4">
         <v>14.76</v>
       </c>
-      <c r="AG63" s="5">
+      <c r="AM63" s="5">
         <v>0.12853701298701298</v>
       </c>
-      <c r="AH63" s="5">
+      <c r="AN63" s="5">
         <v>0.2455852272727273</v>
       </c>
-      <c r="AI63" s="5">
+      <c r="AO63" s="5">
         <v>0.328215220648505</v>
       </c>
-      <c r="AJ63" s="4">
+      <c r="AP63" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6729231582322779</v>
+      </c>
+      <c r="AQ63" s="5">
+        <f t="shared" si="8"/>
+        <v>1596.2800439418206</v>
+      </c>
+      <c r="AR63" s="5">
+        <f t="shared" si="9"/>
+        <v>6.9493720068649151E-2</v>
+      </c>
+      <c r="AS63" s="5">
+        <f t="shared" si="10"/>
+        <v>0.21928170619674178</v>
+      </c>
+      <c r="AT63" s="5">
+        <f t="shared" si="11"/>
+        <v>22970.133738198798</v>
+      </c>
+      <c r="AU63" s="5">
+        <f t="shared" si="12"/>
+        <v>7279.5860248808076</v>
+      </c>
+      <c r="AV63" s="4">
         <v>18.57</v>
       </c>
-      <c r="AK63" s="5">
+      <c r="AW63" s="5">
         <v>0.14685714285714285</v>
       </c>
-      <c r="AL63" s="5">
+      <c r="AX63" s="5">
         <v>0.21875</v>
       </c>
-      <c r="AM63" s="5">
+      <c r="AY63" s="5">
         <v>0.29915991012992088</v>
       </c>
+      <c r="AZ63" s="5">
+        <f t="shared" si="13"/>
+        <v>2.7351763211878479</v>
+      </c>
+      <c r="BA63" s="5">
+        <f t="shared" si="14"/>
+        <v>1751.3155643469654</v>
+      </c>
+      <c r="BB63" s="5">
+        <f t="shared" si="15"/>
+        <v>6.6190227619963266E-2</v>
+      </c>
+      <c r="BC63" s="5">
+        <f t="shared" si="16"/>
+        <v>0.23967449998345566</v>
+      </c>
+      <c r="BD63" s="5">
+        <f t="shared" si="17"/>
+        <v>26458.823716429717</v>
+      </c>
+      <c r="BE63" s="5">
+        <f t="shared" si="18"/>
+        <v>7307.0583832149678</v>
+      </c>
     </row>
-    <row r="64" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>5</v>
       </c>
@@ -8867,7 +13439,7 @@
         <v>3</v>
       </c>
       <c r="O64" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="P64" s="3" t="s">
@@ -8918,32 +13490,104 @@
       <c r="AE64" s="5">
         <v>0.40107048352177055</v>
       </c>
-      <c r="AF64" s="4">
+      <c r="AF64" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7363483281212413</v>
+      </c>
+      <c r="AG64" s="5">
+        <f t="shared" si="2"/>
+        <v>1114.20776489433</v>
+      </c>
+      <c r="AH64" s="5">
+        <f t="shared" si="3"/>
+        <v>6.1886902879852809E-2</v>
+      </c>
+      <c r="AI64" s="5">
+        <f t="shared" si="4"/>
+        <v>0.20686961309382862</v>
+      </c>
+      <c r="AJ64" s="5">
+        <f t="shared" si="5"/>
+        <v>18003.934807619185</v>
+      </c>
+      <c r="AK64" s="5">
+        <f t="shared" si="6"/>
+        <v>5386.0388107796452</v>
+      </c>
+      <c r="AL64" s="4">
         <v>15.23</v>
       </c>
-      <c r="AG64" s="5">
+      <c r="AM64" s="5">
         <v>0.10524358974358974</v>
       </c>
-      <c r="AH64" s="5">
+      <c r="AN64" s="5">
         <v>0.24490162337662336</v>
       </c>
-      <c r="AI64" s="5">
+      <c r="AO64" s="5">
         <v>0.34971436735384254</v>
       </c>
-      <c r="AJ64" s="4">
+      <c r="AP64" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8559579355342395</v>
+      </c>
+      <c r="AQ64" s="5">
+        <f t="shared" si="8"/>
+        <v>1277.8309635695614</v>
+      </c>
+      <c r="AR64" s="5">
+        <f t="shared" si="9"/>
+        <v>6.0337540511668938E-2</v>
+      </c>
+      <c r="AS64" s="5">
+        <f t="shared" si="10"/>
+        <v>0.21985651963346253</v>
+      </c>
+      <c r="AT64" s="5">
+        <f t="shared" si="11"/>
+        <v>21178.04194094448</v>
+      </c>
+      <c r="AU64" s="5">
+        <f t="shared" si="12"/>
+        <v>5812.1131258691739</v>
+      </c>
+      <c r="AV64" s="4">
         <v>17.09</v>
       </c>
-      <c r="AK64" s="5">
+      <c r="AW64" s="5">
         <v>0.11866666666666667</v>
       </c>
-      <c r="AL64" s="5">
+      <c r="AX64" s="5">
         <v>0.21610000000000001</v>
       </c>
-      <c r="AM64" s="5">
+      <c r="AY64" s="5">
         <v>0.3227621228716519</v>
       </c>
+      <c r="AZ64" s="5">
+        <f t="shared" si="13"/>
+        <v>2.9871552325002488</v>
+      </c>
+      <c r="BA64" s="5">
+        <f t="shared" si="14"/>
+        <v>1384.5362120994064</v>
+      </c>
+      <c r="BB64" s="5">
+        <f t="shared" si="15"/>
+        <v>5.5685062169764127E-2</v>
+      </c>
+      <c r="BC64" s="5">
+        <f t="shared" si="16"/>
+        <v>0.23695632009677062</v>
+      </c>
+      <c r="BD64" s="5">
+        <f t="shared" si="17"/>
+        <v>24863.691592521591</v>
+      </c>
+      <c r="BE64" s="5">
+        <f t="shared" si="18"/>
+        <v>5843.0018306073271</v>
+      </c>
     </row>
-    <row r="65" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>5</v>
       </c>
@@ -8985,7 +13629,7 @@
         <v>5</v>
       </c>
       <c r="O65" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="P65" s="3" t="s">
@@ -9036,32 +13680,104 @@
       <c r="AE65" s="5">
         <v>0.38026052104208419</v>
       </c>
-      <c r="AF65" s="4">
+      <c r="AF65" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7555110220440882</v>
+      </c>
+      <c r="AG65" s="5">
+        <f t="shared" si="2"/>
+        <v>2147.7489484113034</v>
+      </c>
+      <c r="AH65" s="5">
+        <f t="shared" si="3"/>
+        <v>6.2974530764529621E-2</v>
+      </c>
+      <c r="AI65" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17161200434231838</v>
+      </c>
+      <c r="AJ65" s="5">
+        <f t="shared" si="5"/>
+        <v>34105.040916335376</v>
+      </c>
+      <c r="AK65" s="5">
+        <f t="shared" si="6"/>
+        <v>12515.144011296201</v>
+      </c>
+      <c r="AL65" s="4">
         <v>14.58</v>
       </c>
-      <c r="AG65" s="5">
+      <c r="AM65" s="5">
         <v>9.9233522727272705E-2</v>
       </c>
-      <c r="AH65" s="5">
+      <c r="AN65" s="5">
         <v>0.24823737373737376</v>
       </c>
-      <c r="AI65" s="5">
+      <c r="AO65" s="5">
         <v>0.35720599374375339</v>
       </c>
-      <c r="AJ65" s="4">
+      <c r="AP65" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8779388725056729</v>
+      </c>
+      <c r="AQ65" s="5">
+        <f t="shared" si="8"/>
+        <v>2286.3673860308868</v>
+      </c>
+      <c r="AR65" s="5">
+        <f t="shared" si="9"/>
+        <v>5.910747908201118E-2</v>
+      </c>
+      <c r="AS65" s="5">
+        <f t="shared" si="10"/>
+        <v>0.1986345707011189</v>
+      </c>
+      <c r="AT65" s="5">
+        <f t="shared" si="11"/>
+        <v>38681.524259536927</v>
+      </c>
+      <c r="AU65" s="5">
+        <f t="shared" si="12"/>
+        <v>11510.420255450568</v>
+      </c>
+      <c r="AV65" s="4">
         <v>18.46</v>
       </c>
-      <c r="AK65" s="5">
+      <c r="AW65" s="5">
         <v>0.11562499999999999</v>
       </c>
-      <c r="AL65" s="5">
+      <c r="AX65" s="5">
         <v>0.2162222222222222</v>
       </c>
-      <c r="AM65" s="5">
+      <c r="AY65" s="5">
         <v>0.32578579500272048</v>
       </c>
+      <c r="AZ65" s="5">
+        <f t="shared" si="13"/>
+        <v>3.0134348972502409</v>
+      </c>
+      <c r="BA65" s="5">
+        <f t="shared" si="14"/>
+        <v>2506.8745989482163</v>
+      </c>
+      <c r="BB65" s="5">
+        <f t="shared" si="15"/>
+        <v>5.469857531594035E-2</v>
+      </c>
+      <c r="BC65" s="5">
+        <f t="shared" si="16"/>
+        <v>0.20825868864370267</v>
+      </c>
+      <c r="BD65" s="5">
+        <f t="shared" si="17"/>
+        <v>45830.711028001104</v>
+      </c>
+      <c r="BE65" s="5">
+        <f t="shared" si="18"/>
+        <v>12037.310977392535</v>
+      </c>
     </row>
-    <row r="66" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>5</v>
       </c>
@@ -9105,7 +13821,7 @@
         <v>2</v>
       </c>
       <c r="O66" s="3">
-        <f t="shared" ref="O66:O81" si="2">SUM(J66:N66)</f>
+        <f t="shared" ref="O66:O81" si="20">SUM(J66:N66)</f>
         <v>17</v>
       </c>
       <c r="P66" s="3" t="s">
@@ -9156,32 +13872,104 @@
       <c r="AE66" s="5">
         <v>0.34872864691096256</v>
       </c>
-      <c r="AF66" s="4">
+      <c r="AF66" s="5">
+        <f t="shared" si="1"/>
+        <v>2.6675330449205723</v>
+      </c>
+      <c r="AG66" s="5">
+        <f t="shared" si="2"/>
+        <v>1502.381325652716</v>
+      </c>
+      <c r="AH66" s="5">
+        <f t="shared" si="3"/>
+        <v>6.9204653375395331E-2</v>
+      </c>
+      <c r="AI66" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17136222156716657</v>
+      </c>
+      <c r="AJ66" s="5">
+        <f t="shared" si="5"/>
+        <v>21709.252953022737</v>
+      </c>
+      <c r="AK66" s="5">
+        <f t="shared" si="6"/>
+        <v>8767.2843635716254</v>
+      </c>
+      <c r="AL66" s="4">
         <v>15.56</v>
       </c>
-      <c r="AG66" s="5">
+      <c r="AM66" s="5">
         <v>0.14422916666666669</v>
       </c>
-      <c r="AH66" s="5">
+      <c r="AN66" s="5">
         <v>0.21064316239316239</v>
       </c>
-      <c r="AI66" s="5">
+      <c r="AO66" s="5">
         <v>0.29678724592478634</v>
       </c>
-      <c r="AJ66" s="4">
+      <c r="AP66" s="5">
+        <f t="shared" si="7"/>
+        <v>2.8179148333411108</v>
+      </c>
+      <c r="AQ66" s="5">
+        <f t="shared" si="8"/>
+        <v>1765.3164481736044</v>
+      </c>
+      <c r="AR66" s="5">
+        <f t="shared" si="9"/>
+        <v>6.2300777032073595E-2</v>
+      </c>
+      <c r="AS66" s="5">
+        <f t="shared" si="10"/>
+        <v>0.16598849771334945</v>
+      </c>
+      <c r="AT66" s="5">
+        <f t="shared" si="11"/>
+        <v>28335.384119924969</v>
+      </c>
+      <c r="AU66" s="5">
+        <f t="shared" si="12"/>
+        <v>10635.173355338047</v>
+      </c>
+      <c r="AV66" s="4">
         <v>18.05</v>
       </c>
-      <c r="AK66" s="5">
+      <c r="AW66" s="5">
         <v>0.1525</v>
       </c>
-      <c r="AL66" s="5">
+      <c r="AX66" s="5">
         <v>0.19755555555555557</v>
       </c>
-      <c r="AM66" s="5">
+      <c r="AY66" s="5">
         <v>0.2821774321536264</v>
       </c>
+      <c r="AZ66" s="5">
+        <f t="shared" si="13"/>
+        <v>2.8566894143786699</v>
+      </c>
+      <c r="BA66" s="5">
+        <f t="shared" si="14"/>
+        <v>1856.7161903788576</v>
+      </c>
+      <c r="BB66" s="5">
+        <f t="shared" si="15"/>
+        <v>6.0114720620657078E-2</v>
+      </c>
+      <c r="BC66" s="5">
+        <f t="shared" si="16"/>
+        <v>0.19358814758289294</v>
+      </c>
+      <c r="BD66" s="5">
+        <f t="shared" si="17"/>
+        <v>30886.215076924746</v>
+      </c>
+      <c r="BE66" s="5">
+        <f t="shared" si="18"/>
+        <v>9591.0633660246476</v>
+      </c>
     </row>
-    <row r="67" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>5</v>
       </c>
@@ -9225,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="P67" s="3" t="s">
@@ -9276,32 +14064,104 @@
       <c r="AE67" s="5">
         <v>0.37414159071045078</v>
       </c>
-      <c r="AF67" s="4">
+      <c r="AF67" s="5">
+        <f t="shared" ref="AF67:AF81" si="21" xml:space="preserve"> 1 / (AC67+AD67)</f>
+        <v>2.8405543763266325</v>
+      </c>
+      <c r="AG67" s="5">
+        <f t="shared" ref="AG67:AG81" si="22">$F67 * 9.81 * PI() / 2 * (AC67/AD67 + 1)</f>
+        <v>1462.1140455120121</v>
+      </c>
+      <c r="AH67" s="5">
+        <f t="shared" ref="AH67:AH81" si="23">AG67*AD67*AD67/$F67/PI()/PI()-9.81*AD67*AD67/8</f>
+        <v>5.9698304135923155E-2</v>
+      </c>
+      <c r="AI67" s="5">
+        <f t="shared" ref="AI67:AI81" si="24">0.53*$G67/100 - SQRT((0.53*$G67/100) * (0.53*$G67/100) - (12/3.6*AD67/2)*(12/3.6*AD67/2)) + AH67</f>
+        <v>0.17239170871401976</v>
+      </c>
+      <c r="AJ67" s="5">
+        <f t="shared" ref="AJ67:AJ81" si="25">AG67/AH67</f>
+        <v>24491.718260254438</v>
+      </c>
+      <c r="AK67" s="5">
+        <f t="shared" ref="AK67:AK81" si="26">AG67/AI67</f>
+        <v>8481.3478352228067</v>
+      </c>
+      <c r="AL67" s="4">
         <v>14.61</v>
       </c>
-      <c r="AG67" s="5">
+      <c r="AM67" s="5">
         <v>0.1137472804972805</v>
       </c>
-      <c r="AH67" s="5">
+      <c r="AN67" s="5">
         <v>0.22805714285714287</v>
       </c>
-      <c r="AI67" s="5">
+      <c r="AO67" s="5">
         <v>0.33360765290720967</v>
       </c>
-      <c r="AJ67" s="4">
+      <c r="AP67" s="5">
+        <f t="shared" ref="AP67:AP81" si="27" xml:space="preserve"> 1 / (AM67+AN67)</f>
+        <v>2.9256496747061735</v>
+      </c>
+      <c r="AQ67" s="5">
+        <f t="shared" ref="AQ67:AQ81" si="28">$F67 * 9.81 * PI() / 2 * (AM67/AN67 + 1)</f>
+        <v>1639.7635666352978</v>
+      </c>
+      <c r="AR67" s="5">
+        <f t="shared" ref="AR67:AR81" si="29">AQ67*AN67*AN67/$F67/PI()/PI()-9.81*AN67*AN67/8</f>
+        <v>5.7928245233205139E-2</v>
+      </c>
+      <c r="AS67" s="5">
+        <f t="shared" ref="AS67:AS81" si="30">0.53*$G67/100 - SQRT((0.53*$G67/100) * (0.53*$G67/100) - (15/3.6*AN67/2)*(15/3.6*AN67/2)) + AR67</f>
+        <v>0.19153309705452323</v>
+      </c>
+      <c r="AT67" s="5">
+        <f t="shared" ref="AT67:AT81" si="31">AQ67/AR67</f>
+        <v>28306.805428578155</v>
+      </c>
+      <c r="AU67" s="5">
+        <f t="shared" ref="AU67:AU81" si="32">AQ67/AS67</f>
+        <v>8561.2543829357619</v>
+      </c>
+      <c r="AV67" s="4">
         <v>17.88</v>
       </c>
-      <c r="AK67" s="5">
+      <c r="AW67" s="5">
         <v>0.12855555555555556</v>
       </c>
-      <c r="AL67" s="5">
+      <c r="AX67" s="5">
         <v>0.19680000000000003</v>
       </c>
-      <c r="AM67" s="5">
+      <c r="AY67" s="5">
         <v>0.30243835803565328</v>
       </c>
+      <c r="AZ67" s="5">
+        <f t="shared" ref="AZ67:AZ81" si="33" xml:space="preserve"> 1 / (AW67+AX67)</f>
+        <v>3.0735605491428175</v>
+      </c>
+      <c r="BA67" s="5">
+        <f t="shared" ref="BA67:BA81" si="34">$F67 * 9.81 * PI() / 2 * (AW67/AX67 + 1)</f>
+        <v>1808.7575873013718</v>
+      </c>
+      <c r="BB67" s="5">
+        <f t="shared" ref="BB67:BB81" si="35">BA67*AX67*AX67/$F67/PI()/PI()-9.81*AX67*AX67/8</f>
+        <v>5.2477680335634408E-2</v>
+      </c>
+      <c r="BC67" s="5">
+        <f t="shared" ref="BC67:BC81" si="36">0.53*$G67/100 - SQRT((0.53*$G67/100) * (0.53*$G67/100) - (18/3.6*AX67/2)*(18/3.6*AX67/2)) + BB67</f>
+        <v>0.19664653684457181</v>
+      </c>
+      <c r="BD67" s="5">
+        <f t="shared" ref="BD67:BD81" si="37">BA67/BB67</f>
+        <v>34467.178726898761</v>
+      </c>
+      <c r="BE67" s="5">
+        <f t="shared" ref="BE67:BE81" si="38">BA67/BC67</f>
+        <v>9198.0139407743682</v>
+      </c>
     </row>
-    <row r="68" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -9345,7 +14205,7 @@
         <v>3</v>
       </c>
       <c r="O68" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="P68" s="3" t="s">
@@ -9396,32 +14256,104 @@
       <c r="AE68" s="5">
         <v>0.38988325643328275</v>
       </c>
-      <c r="AF68" s="4">
+      <c r="AF68" s="5">
+        <f t="shared" si="21"/>
+        <v>2.8179481621404023</v>
+      </c>
+      <c r="AG68" s="5">
+        <f t="shared" si="22"/>
+        <v>1501.8892066805222</v>
+      </c>
+      <c r="AH68" s="5">
+        <f t="shared" si="23"/>
+        <v>5.9421146217036355E-2</v>
+      </c>
+      <c r="AI68" s="5">
+        <f t="shared" si="24"/>
+        <v>0.17465610319773012</v>
+      </c>
+      <c r="AJ68" s="5">
+        <f t="shared" si="25"/>
+        <v>25275.332138408376</v>
+      </c>
+      <c r="AK68" s="5">
+        <f t="shared" si="26"/>
+        <v>8599.1223849773905</v>
+      </c>
+      <c r="AL68" s="4">
         <v>14.65</v>
       </c>
-      <c r="AG68" s="5">
+      <c r="AM68" s="5">
         <v>9.2588461538461522E-2</v>
       </c>
-      <c r="AH68" s="5">
+      <c r="AN68" s="5">
         <v>0.24765584415584418</v>
       </c>
-      <c r="AI68" s="5">
+      <c r="AO68" s="5">
         <v>0.36393826437517501</v>
       </c>
-      <c r="AJ68" s="4">
+      <c r="AP68" s="5">
+        <f t="shared" si="27"/>
+        <v>2.9390646169945174</v>
+      </c>
+      <c r="AQ68" s="5">
+        <f t="shared" si="28"/>
+        <v>1608.9581998417202</v>
+      </c>
+      <c r="AR68" s="5">
+        <f t="shared" si="29"/>
+        <v>5.6351327266317294E-2</v>
+      </c>
+      <c r="AS68" s="5">
+        <f t="shared" si="30"/>
+        <v>0.20307906667451636</v>
+      </c>
+      <c r="AT68" s="5">
+        <f t="shared" si="31"/>
+        <v>28552.268028005044</v>
+      </c>
+      <c r="AU68" s="5">
+        <f t="shared" si="32"/>
+        <v>7922.8165964563323</v>
+      </c>
+      <c r="AV68" s="4">
         <v>18.22</v>
       </c>
-      <c r="AK68" s="5">
+      <c r="AW68" s="5">
         <v>9.6799999999999983E-2</v>
       </c>
-      <c r="AL68" s="5">
+      <c r="AX68" s="5">
         <v>0.21118181818181822</v>
       </c>
-      <c r="AM68" s="5">
+      <c r="AY68" s="5">
         <v>0.34284786587165716</v>
       </c>
+      <c r="AZ68" s="5">
+        <f t="shared" si="33"/>
+        <v>3.2469449200070843</v>
+      </c>
+      <c r="BA68" s="5">
+        <f t="shared" si="34"/>
+        <v>1707.933789273761</v>
+      </c>
+      <c r="BB68" s="5">
+        <f t="shared" si="35"/>
+        <v>4.6859848582578675E-2</v>
+      </c>
+      <c r="BC68" s="5">
+        <f t="shared" si="36"/>
+        <v>0.20113696828097133</v>
+      </c>
+      <c r="BD68" s="5">
+        <f t="shared" si="37"/>
+        <v>36447.701837191344</v>
+      </c>
+      <c r="BE68" s="5">
+        <f t="shared" si="38"/>
+        <v>8491.3967028076204</v>
+      </c>
     </row>
-    <row r="69" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>5</v>
       </c>
@@ -9465,7 +14397,7 @@
         <v>2</v>
       </c>
       <c r="O69" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="P69" s="3" t="s">
@@ -9516,32 +14448,104 @@
       <c r="AE69" s="5">
         <v>0.37593690569414923</v>
       </c>
-      <c r="AF69" s="4">
+      <c r="AF69" s="5">
+        <f t="shared" si="21"/>
+        <v>2.9086027519856805</v>
+      </c>
+      <c r="AG69" s="5">
+        <f t="shared" si="22"/>
+        <v>1106.7198159487309</v>
+      </c>
+      <c r="AH69" s="5">
+        <f t="shared" si="23"/>
+        <v>5.6819530520526962E-2</v>
+      </c>
+      <c r="AI69" s="5">
+        <f t="shared" si="24"/>
+        <v>0.16952717696139458</v>
+      </c>
+      <c r="AJ69" s="5">
+        <f t="shared" si="25"/>
+        <v>19477.806412865568</v>
+      </c>
+      <c r="AK69" s="5">
+        <f t="shared" si="26"/>
+        <v>6528.2737304164375</v>
+      </c>
+      <c r="AL69" s="4">
         <v>14.92</v>
       </c>
-      <c r="AG69" s="5">
+      <c r="AM69" s="5">
         <v>0.10877692307692308</v>
       </c>
-      <c r="AH69" s="5">
+      <c r="AN69" s="5">
         <v>0.22389772727272728</v>
       </c>
-      <c r="AI69" s="5">
+      <c r="AO69" s="5">
         <v>0.33651155421280898</v>
       </c>
-      <c r="AJ69" s="4">
+      <c r="AP69" s="5">
+        <f t="shared" si="27"/>
+        <v>3.0059398843553966</v>
+      </c>
+      <c r="AQ69" s="5">
+        <f t="shared" si="28"/>
+        <v>1236.3819841236448</v>
+      </c>
+      <c r="AR69" s="5">
+        <f t="shared" si="29"/>
+        <v>5.4822179671785987E-2</v>
+      </c>
+      <c r="AS69" s="5">
+        <f t="shared" si="30"/>
+        <v>0.18865362774715172</v>
+      </c>
+      <c r="AT69" s="5">
+        <f t="shared" si="31"/>
+        <v>22552.587137646111</v>
+      </c>
+      <c r="AU69" s="5">
+        <f t="shared" si="32"/>
+        <v>6553.7143329188466</v>
+      </c>
+      <c r="AV69" s="4">
         <v>17.88</v>
       </c>
-      <c r="AK69" s="5">
+      <c r="AW69" s="5">
         <v>0.12379999999999999</v>
       </c>
-      <c r="AL69" s="5">
+      <c r="AX69" s="5">
         <v>0.18672727272727274</v>
       </c>
-      <c r="AM69" s="5">
+      <c r="AY69" s="5">
         <v>0.30066163124304701</v>
       </c>
+      <c r="AZ69" s="5">
+        <f t="shared" si="33"/>
+        <v>3.2203290590783999</v>
+      </c>
+      <c r="BA69" s="5">
+        <f t="shared" si="34"/>
+        <v>1383.8041833207337</v>
+      </c>
+      <c r="BB69" s="5">
+        <f t="shared" si="35"/>
+        <v>4.7775109245286919E-2</v>
+      </c>
+      <c r="BC69" s="5">
+        <f t="shared" si="36"/>
+        <v>0.18183465498256765</v>
+      </c>
+      <c r="BD69" s="5">
+        <f t="shared" si="37"/>
+        <v>28964.961151967389</v>
+      </c>
+      <c r="BE69" s="5">
+        <f t="shared" si="38"/>
+        <v>7610.23350281275</v>
+      </c>
     </row>
-    <row r="70" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>5</v>
       </c>
@@ -9585,7 +14589,7 @@
         <v>2</v>
       </c>
       <c r="O70" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="P70" s="3" t="s">
@@ -9636,32 +14640,104 @@
       <c r="AE70" s="5">
         <v>0.39884591134625402</v>
       </c>
-      <c r="AF70" s="4">
+      <c r="AF70" s="5">
+        <f t="shared" si="21"/>
+        <v>2.8783683763261054</v>
+      </c>
+      <c r="AG70" s="5">
+        <f t="shared" si="22"/>
+        <v>1429.5042935560443</v>
+      </c>
+      <c r="AH70" s="5">
+        <f t="shared" si="23"/>
+        <v>5.6145572805280708E-2</v>
+      </c>
+      <c r="AI70" s="5">
+        <f t="shared" si="24"/>
+        <v>0.17246624814960604</v>
+      </c>
+      <c r="AJ70" s="5">
+        <f t="shared" si="25"/>
+        <v>25460.676988971674</v>
+      </c>
+      <c r="AK70" s="5">
+        <f t="shared" si="26"/>
+        <v>8288.603184061958</v>
+      </c>
+      <c r="AL70" s="4">
         <v>14.58</v>
       </c>
-      <c r="AG70" s="5">
+      <c r="AM70" s="5">
         <v>0.10815476190476189</v>
       </c>
-      <c r="AH70" s="5">
+      <c r="AN70" s="5">
         <v>0.23355833333333337</v>
       </c>
-      <c r="AI70" s="5">
+      <c r="AO70" s="5">
         <v>0.34174624354181843</v>
       </c>
-      <c r="AJ70" s="4">
+      <c r="AP70" s="5">
+        <f t="shared" si="27"/>
+        <v>2.9264315998871235</v>
+      </c>
+      <c r="AQ70" s="5">
+        <f t="shared" si="28"/>
+        <v>1668.3488217098018</v>
+      </c>
+      <c r="AR70" s="5">
+        <f t="shared" si="29"/>
+        <v>5.7716739996992575E-2</v>
+      </c>
+      <c r="AS70" s="5">
+        <f t="shared" si="30"/>
+        <v>0.18778060968360233</v>
+      </c>
+      <c r="AT70" s="5">
+        <f t="shared" si="31"/>
+        <v>28905.804828837074</v>
+      </c>
+      <c r="AU70" s="5">
+        <f t="shared" si="32"/>
+        <v>8884.5638776061969</v>
+      </c>
+      <c r="AV70" s="4">
         <v>18.05</v>
       </c>
-      <c r="AK70" s="5">
+      <c r="AW70" s="5">
         <v>0.1323333333333333</v>
       </c>
-      <c r="AL70" s="5">
+      <c r="AX70" s="5">
         <v>0.19860000000000003</v>
       </c>
-      <c r="AM70" s="5">
+      <c r="AY70" s="5">
         <v>0.30006043513295738</v>
       </c>
+      <c r="AZ70" s="5">
+        <f t="shared" si="33"/>
+        <v>3.0217566478646254</v>
+      </c>
+      <c r="BA70" s="5">
+        <f t="shared" si="34"/>
+        <v>1900.1236950286641</v>
+      </c>
+      <c r="BB70" s="5">
+        <f t="shared" si="35"/>
+        <v>5.4248835208165959E-2</v>
+      </c>
+      <c r="BC70" s="5">
+        <f t="shared" si="36"/>
+        <v>0.19010219048978741</v>
+      </c>
+      <c r="BD70" s="5">
+        <f t="shared" si="37"/>
+        <v>35026.073605772879</v>
+      </c>
+      <c r="BE70" s="5">
+        <f t="shared" si="38"/>
+        <v>9995.2751208868467</v>
+      </c>
     </row>
-    <row r="71" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>5</v>
       </c>
@@ -9703,7 +14779,7 @@
         <v>2</v>
       </c>
       <c r="O71" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="P71" s="3" t="s">
@@ -9754,32 +14830,104 @@
       <c r="AE71" s="5">
         <v>0.34027432820036213</v>
       </c>
-      <c r="AF71" s="4">
+      <c r="AF71" s="5">
+        <f t="shared" si="21"/>
+        <v>2.9163395131956351</v>
+      </c>
+      <c r="AG71" s="5">
+        <f t="shared" si="22"/>
+        <v>1267.9955532524448</v>
+      </c>
+      <c r="AH71" s="5">
+        <f t="shared" si="23"/>
+        <v>5.8155432217161115E-2</v>
+      </c>
+      <c r="AI71" s="5">
+        <f t="shared" si="24"/>
+        <v>0.15534402446195705</v>
+      </c>
+      <c r="AJ71" s="5">
+        <f t="shared" si="25"/>
+        <v>21803.561677910999</v>
+      </c>
+      <c r="AK71" s="5">
+        <f t="shared" si="26"/>
+        <v>8162.4997011904397</v>
+      </c>
+      <c r="AL71" s="4">
         <v>14.36</v>
       </c>
-      <c r="AG71" s="5">
+      <c r="AM71" s="5">
         <v>0.11414825174825176</v>
       </c>
-      <c r="AH71" s="5">
+      <c r="AN71" s="5">
         <v>0.21611580086580084</v>
       </c>
-      <c r="AI71" s="5">
+      <c r="AO71" s="5">
         <v>0.32718638185905491</v>
       </c>
-      <c r="AJ71" s="4">
+      <c r="AP71" s="5">
+        <f t="shared" si="27"/>
+        <v>3.0278802433536489</v>
+      </c>
+      <c r="AQ71" s="5">
+        <f t="shared" si="28"/>
+        <v>1318.7172784895699</v>
+      </c>
+      <c r="AR71" s="5">
+        <f t="shared" si="29"/>
+        <v>5.4165657387943933E-2</v>
+      </c>
+      <c r="AS71" s="5">
+        <f t="shared" si="30"/>
+        <v>0.18750977906965433</v>
+      </c>
+      <c r="AT71" s="5">
+        <f t="shared" si="31"/>
+        <v>24346.003391866652</v>
+      </c>
+      <c r="AU71" s="5">
+        <f t="shared" si="32"/>
+        <v>7032.7920230747304</v>
+      </c>
+      <c r="AV71" s="4">
         <v>17.239999999999998</v>
       </c>
-      <c r="AK71" s="5">
+      <c r="AW71" s="5">
         <v>0.12760000000000002</v>
       </c>
-      <c r="AL71" s="5">
+      <c r="AX71" s="5">
         <v>0.18627272727272726</v>
       </c>
-      <c r="AM71" s="5">
+      <c r="AY71" s="5">
         <v>0.2967328969472281</v>
       </c>
+      <c r="AZ71" s="5">
+        <f t="shared" si="33"/>
+        <v>3.1860047500434452</v>
+      </c>
+      <c r="BA71" s="5">
+        <f t="shared" si="34"/>
+        <v>1454.0562892854964</v>
+      </c>
+      <c r="BB71" s="5">
+        <f t="shared" si="35"/>
+        <v>4.8735594162392246E-2</v>
+      </c>
+      <c r="BC71" s="5">
+        <f t="shared" si="36"/>
+        <v>0.19235283368400014</v>
+      </c>
+      <c r="BD71" s="5">
+        <f t="shared" si="37"/>
+        <v>29835.612231184139</v>
+      </c>
+      <c r="BE71" s="5">
+        <f t="shared" si="38"/>
+        <v>7559.3182665259819</v>
+      </c>
     </row>
-    <row r="72" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>5</v>
       </c>
@@ -9821,7 +14969,7 @@
         <v>2</v>
       </c>
       <c r="O72" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="P72" s="3" t="s">
@@ -9872,32 +15020,104 @@
       <c r="AE72" s="5">
         <v>0.3742351960558285</v>
       </c>
-      <c r="AF72" s="4">
+      <c r="AF72" s="5">
+        <f t="shared" si="21"/>
+        <v>2.766595137177009</v>
+      </c>
+      <c r="AG72" s="5">
+        <f t="shared" si="22"/>
+        <v>1235.2802832226776</v>
+      </c>
+      <c r="AH72" s="5">
+        <f t="shared" si="23"/>
+        <v>6.2926086833696715E-2</v>
+      </c>
+      <c r="AI72" s="5">
+        <f t="shared" si="24"/>
+        <v>0.18469457028903646</v>
+      </c>
+      <c r="AJ72" s="5">
+        <f t="shared" si="25"/>
+        <v>19630.654715385685</v>
+      </c>
+      <c r="AK72" s="5">
+        <f t="shared" si="26"/>
+        <v>6688.2328012649987</v>
+      </c>
+      <c r="AL72" s="4">
         <v>15.23</v>
       </c>
-      <c r="AG72" s="5">
+      <c r="AM72" s="5">
         <v>0.11249027777777777</v>
       </c>
-      <c r="AH72" s="5">
+      <c r="AN72" s="5">
         <v>0.23203006993006994</v>
       </c>
-      <c r="AI72" s="5">
+      <c r="AO72" s="5">
         <v>0.33674363716657857</v>
       </c>
-      <c r="AJ72" s="4">
+      <c r="AP72" s="5">
+        <f t="shared" si="27"/>
+        <v>2.902586180041816</v>
+      </c>
+      <c r="AQ72" s="5">
+        <f t="shared" si="28"/>
+        <v>1372.810969393483</v>
+      </c>
+      <c r="AR72" s="5">
+        <f t="shared" si="29"/>
+        <v>5.8790894615456793E-2</v>
+      </c>
+      <c r="AS72" s="5">
+        <f t="shared" si="30"/>
+        <v>0.20043067323632241</v>
+      </c>
+      <c r="AT72" s="5">
+        <f t="shared" si="31"/>
+        <v>23350.741273335811</v>
+      </c>
+      <c r="AU72" s="5">
+        <f t="shared" si="32"/>
+        <v>6849.3057835256513</v>
+      </c>
+      <c r="AV72" s="4">
         <v>17.940000000000001</v>
       </c>
-      <c r="AK72" s="5">
+      <c r="AW72" s="5">
         <v>0.12744444444444444</v>
       </c>
-      <c r="AL72" s="5">
+      <c r="AX72" s="5">
         <v>0.19740000000000002</v>
       </c>
-      <c r="AM72" s="5">
+      <c r="AY72" s="5">
         <v>0.30383773430017785</v>
       </c>
+      <c r="AZ72" s="5">
+        <f t="shared" si="33"/>
+        <v>3.0783964974688733</v>
+      </c>
+      <c r="BA72" s="5">
+        <f t="shared" si="34"/>
+        <v>1521.4876455042979</v>
+      </c>
+      <c r="BB72" s="5">
+        <f t="shared" si="35"/>
+        <v>5.2334910444054521E-2</v>
+      </c>
+      <c r="BC72" s="5">
+        <f t="shared" si="36"/>
+        <v>0.2005482951792727</v>
+      </c>
+      <c r="BD72" s="5">
+        <f t="shared" si="37"/>
+        <v>29072.136220253065</v>
+      </c>
+      <c r="BE72" s="5">
+        <f t="shared" si="38"/>
+        <v>7586.6396378200106</v>
+      </c>
     </row>
-    <row r="73" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>5</v>
       </c>
@@ -9941,7 +15161,7 @@
         <v>3</v>
       </c>
       <c r="O73" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="P73" s="3" t="s">
@@ -9992,32 +15212,104 @@
       <c r="AE73" s="5">
         <v>0.40377924824339995</v>
       </c>
-      <c r="AF73" s="4">
+      <c r="AF73" s="5">
+        <f t="shared" si="21"/>
+        <v>2.6604816153898625</v>
+      </c>
+      <c r="AG73" s="5">
+        <f t="shared" si="22"/>
+        <v>1373.8755351698621</v>
+      </c>
+      <c r="AH73" s="5">
+        <f t="shared" si="23"/>
+        <v>6.5150994692412409E-2</v>
+      </c>
+      <c r="AI73" s="5">
+        <f t="shared" si="24"/>
+        <v>0.20574145530593785</v>
+      </c>
+      <c r="AJ73" s="5">
+        <f t="shared" si="25"/>
+        <v>21087.560391919327</v>
+      </c>
+      <c r="AK73" s="5">
+        <f t="shared" si="26"/>
+        <v>6677.6796787351732</v>
+      </c>
+      <c r="AL73" s="4">
         <v>14.69</v>
       </c>
-      <c r="AG73" s="5">
+      <c r="AM73" s="5">
         <v>0.10257291666666667</v>
       </c>
-      <c r="AH73" s="5">
+      <c r="AN73" s="5">
         <v>0.26364572649572648</v>
       </c>
-      <c r="AI73" s="5">
+      <c r="AO73" s="5">
         <v>0.35995672451172489</v>
       </c>
-      <c r="AJ73" s="4">
+      <c r="AP73" s="5">
+        <f t="shared" si="27"/>
+        <v>2.7306092102923545</v>
+      </c>
+      <c r="AQ73" s="5">
+        <f t="shared" si="28"/>
+        <v>1541.1364561208968</v>
+      </c>
+      <c r="AR73" s="5">
+        <f t="shared" si="29"/>
+        <v>6.5512075475764459E-2</v>
+      </c>
+      <c r="AS73" s="5">
+        <f t="shared" si="30"/>
+        <v>0.23379807532949995</v>
+      </c>
+      <c r="AT73" s="5">
+        <f t="shared" si="31"/>
+        <v>23524.463924074957</v>
+      </c>
+      <c r="AU73" s="5">
+        <f t="shared" si="32"/>
+        <v>6591.7414159586997</v>
+      </c>
+      <c r="AV73" s="4">
         <v>17.88</v>
       </c>
-      <c r="AK73" s="5">
+      <c r="AW73" s="5">
         <v>0.122625</v>
       </c>
-      <c r="AL73" s="5">
+      <c r="AX73" s="5">
         <v>0.22944444444444448</v>
       </c>
-      <c r="AM73" s="5">
+      <c r="AY73" s="5">
         <v>0.32585111838731312</v>
       </c>
+      <c r="AZ73" s="5">
+        <f t="shared" si="33"/>
+        <v>2.8403487317053924</v>
+      </c>
+      <c r="BA73" s="5">
+        <f t="shared" si="34"/>
+        <v>1702.4413895413049</v>
+      </c>
+      <c r="BB73" s="5">
+        <f t="shared" si="35"/>
+        <v>6.1567582969952711E-2</v>
+      </c>
+      <c r="BC73" s="5">
+        <f t="shared" si="36"/>
+        <v>0.24686286517089664</v>
+      </c>
+      <c r="BD73" s="5">
+        <f t="shared" si="37"/>
+        <v>27651.587205756641</v>
+      </c>
+      <c r="BE73" s="5">
+        <f t="shared" si="38"/>
+        <v>6896.3041013185584</v>
+      </c>
     </row>
-    <row r="74" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -10061,7 +15353,7 @@
         <v>3</v>
       </c>
       <c r="O74" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="P74" s="3" t="s">
@@ -10112,32 +15404,104 @@
       <c r="AE74" s="5">
         <v>0.35717833227723456</v>
       </c>
-      <c r="AF74" s="4">
+      <c r="AF74" s="5">
+        <f t="shared" si="21"/>
+        <v>2.6716446027641241</v>
+      </c>
+      <c r="AG74" s="5">
+        <f t="shared" si="22"/>
+        <v>1466.8398373967186</v>
+      </c>
+      <c r="AH74" s="5">
+        <f t="shared" si="23"/>
+        <v>6.8589487358838824E-2</v>
+      </c>
+      <c r="AI74" s="5">
+        <f t="shared" si="24"/>
+        <v>0.18341292325407452</v>
+      </c>
+      <c r="AJ74" s="5">
+        <f t="shared" si="25"/>
+        <v>21385.782193161318</v>
+      </c>
+      <c r="AK74" s="5">
+        <f t="shared" si="26"/>
+        <v>7997.4726500856468</v>
+      </c>
+      <c r="AL74" s="4">
         <v>14.11</v>
       </c>
-      <c r="AG74" s="5">
+      <c r="AM74" s="5">
         <v>0.12860984848484847</v>
       </c>
-      <c r="AH74" s="5">
+      <c r="AN74" s="5">
         <v>0.23554059829059831</v>
       </c>
-      <c r="AI74" s="5">
+      <c r="AO74" s="5">
         <v>0.32341110710739335</v>
       </c>
-      <c r="AJ74" s="4">
+      <c r="AP74" s="5">
+        <f t="shared" si="27"/>
+        <v>2.7461177347302543</v>
+      </c>
+      <c r="AQ74" s="5">
+        <f t="shared" si="28"/>
+        <v>1619.9920018986654</v>
+      </c>
+      <c r="AR74" s="5">
+        <f t="shared" si="29"/>
+        <v>6.5885433204664542E-2</v>
+      </c>
+      <c r="AS74" s="5">
+        <f t="shared" si="30"/>
+        <v>0.20728011283350523</v>
+      </c>
+      <c r="AT74" s="5">
+        <f t="shared" si="31"/>
+        <v>24588.01472650822</v>
+      </c>
+      <c r="AU74" s="5">
+        <f t="shared" si="32"/>
+        <v>7815.4724047255841</v>
+      </c>
+      <c r="AV74" s="4">
         <v>17.14</v>
       </c>
-      <c r="AK74" s="5">
+      <c r="AW74" s="5">
         <v>0.14625000000000002</v>
       </c>
-      <c r="AL74" s="5">
+      <c r="AX74" s="5">
         <v>0.20911111111111114</v>
       </c>
-      <c r="AM74" s="5">
+      <c r="AY74" s="5">
         <v>0.29422340342374736</v>
       </c>
+      <c r="AZ74" s="5">
+        <f t="shared" si="33"/>
+        <v>2.8140389275384976</v>
+      </c>
+      <c r="BA74" s="5">
+        <f t="shared" si="34"/>
+        <v>1780.6992942862646</v>
+      </c>
+      <c r="BB74" s="5">
+        <f t="shared" si="35"/>
+        <v>6.2400084132666414E-2</v>
+      </c>
+      <c r="BC74" s="5">
+        <f t="shared" si="36"/>
+        <v>0.22489209084726713</v>
+      </c>
+      <c r="BD74" s="5">
+        <f t="shared" si="37"/>
+        <v>28536.809189237443</v>
+      </c>
+      <c r="BE74" s="5">
+        <f t="shared" si="38"/>
+        <v>7918.0165366313659</v>
+      </c>
     </row>
-    <row r="75" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>5</v>
       </c>
@@ -10181,7 +15545,7 @@
         <v>3</v>
       </c>
       <c r="O75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="P75" s="3" t="s">
@@ -10226,32 +15590,104 @@
       <c r="AE75" s="5">
         <v>0.35259471241036228</v>
       </c>
-      <c r="AF75" s="4">
+      <c r="AF75" s="5">
+        <f t="shared" si="21"/>
+        <v>2.5955443155915674</v>
+      </c>
+      <c r="AG75" s="5">
+        <f t="shared" si="22"/>
+        <v>1573.314661977281</v>
+      </c>
+      <c r="AH75" s="5">
+        <f t="shared" si="23"/>
+        <v>7.2914612237421128E-2</v>
+      </c>
+      <c r="AI75" s="5">
+        <f t="shared" si="24"/>
+        <v>0.19174270386062975</v>
+      </c>
+      <c r="AJ75" s="5">
+        <f t="shared" si="25"/>
+        <v>21577.494739385405</v>
+      </c>
+      <c r="AK75" s="5">
+        <f t="shared" si="26"/>
+        <v>8205.3430472163454</v>
+      </c>
+      <c r="AL75" s="4">
         <v>15.69</v>
       </c>
-      <c r="AG75" s="5">
+      <c r="AM75" s="5">
         <v>0.13896875</v>
       </c>
-      <c r="AH75" s="5">
+      <c r="AN75" s="5">
         <v>0.23630085470085471</v>
       </c>
-      <c r="AI75" s="5">
+      <c r="AO75" s="5">
         <v>0.31484145230629779</v>
       </c>
-      <c r="AJ75" s="4">
+      <c r="AP75" s="5">
+        <f t="shared" si="27"/>
+        <v>2.6647508550476604</v>
+      </c>
+      <c r="AQ75" s="5">
+        <f t="shared" si="28"/>
+        <v>1761.9739291228941</v>
+      </c>
+      <c r="AR75" s="5">
+        <f t="shared" si="29"/>
+        <v>6.9980087035485139E-2</v>
+      </c>
+      <c r="AS75" s="5">
+        <f t="shared" si="30"/>
+        <v>0.21237241731689754</v>
+      </c>
+      <c r="AT75" s="5">
+        <f t="shared" si="31"/>
+        <v>25178.218601377866</v>
+      </c>
+      <c r="AU75" s="5">
+        <f t="shared" si="32"/>
+        <v>8296.6232215255841</v>
+      </c>
+      <c r="AV75" s="4">
         <v>17.34</v>
       </c>
-      <c r="AK75" s="5">
+      <c r="AW75" s="5">
         <v>0.15562499999999999</v>
       </c>
-      <c r="AL75" s="5">
+      <c r="AX75" s="5">
         <v>0.21511111111111111</v>
       </c>
-      <c r="AM75" s="5">
+      <c r="AY75" s="5">
         <v>0.29011351290600534</v>
       </c>
+      <c r="AZ75" s="5">
+        <f t="shared" si="33"/>
+        <v>2.6973363803244297</v>
+      </c>
+      <c r="BA75" s="5">
+        <f t="shared" si="34"/>
+        <v>1912.1564701145726</v>
+      </c>
+      <c r="BB75" s="5">
+        <f t="shared" si="35"/>
+        <v>6.7771614832689855E-2</v>
+      </c>
+      <c r="BC75" s="5">
+        <f t="shared" si="36"/>
+        <v>0.24080681205002114</v>
+      </c>
+      <c r="BD75" s="5">
+        <f t="shared" si="37"/>
+        <v>28214.710167895213</v>
+      </c>
+      <c r="BE75" s="5">
+        <f t="shared" si="38"/>
+        <v>7940.6244941167761</v>
+      </c>
     </row>
-    <row r="76" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>5</v>
       </c>
@@ -10295,7 +15731,7 @@
         <v>1</v>
       </c>
       <c r="O76" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="P76" s="3" t="s">
@@ -10346,32 +15782,104 @@
       <c r="AE76" s="5">
         <v>0.36229508196721311</v>
       </c>
-      <c r="AF76" s="4">
+      <c r="AF76" s="5">
+        <f t="shared" si="21"/>
+        <v>2.6639344262295084</v>
+      </c>
+      <c r="AG76" s="5">
+        <f t="shared" si="22"/>
+        <v>1318.5243044089302</v>
+      </c>
+      <c r="AH76" s="5">
+        <f t="shared" si="23"/>
+        <v>6.8694076201901128E-2</v>
+      </c>
+      <c r="AI76" s="5">
+        <f t="shared" si="24"/>
+        <v>0.18781143482002624</v>
+      </c>
+      <c r="AJ76" s="5">
+        <f t="shared" si="25"/>
+        <v>19194.148568700595</v>
+      </c>
+      <c r="AK76" s="5">
+        <f t="shared" si="26"/>
+        <v>7020.4687253064776</v>
+      </c>
+      <c r="AL76" s="4">
         <v>15.6</v>
       </c>
-      <c r="AG76" s="5">
+      <c r="AM76" s="5">
         <v>0.13029754273504274</v>
       </c>
-      <c r="AH76" s="5">
+      <c r="AN76" s="5">
         <v>0.22916666666666669</v>
       </c>
-      <c r="AI76" s="5">
+      <c r="AO76" s="5">
         <v>0.31876145200671108</v>
       </c>
-      <c r="AJ76" s="4">
+      <c r="AP76" s="5">
+        <f t="shared" si="27"/>
+        <v>2.7819181266040238</v>
+      </c>
+      <c r="AQ76" s="5">
+        <f t="shared" si="28"/>
+        <v>1498.5967341231046</v>
+      </c>
+      <c r="AR76" s="5">
+        <f t="shared" si="29"/>
+        <v>6.4216954268671994E-2</v>
+      </c>
+      <c r="AS76" s="5">
+        <f t="shared" si="30"/>
+        <v>0.19742208443622908</v>
+      </c>
+      <c r="AT76" s="5">
+        <f t="shared" si="31"/>
+        <v>23336.465442650082</v>
+      </c>
+      <c r="AU76" s="5">
+        <f t="shared" si="32"/>
+        <v>7590.8262158339157</v>
+      </c>
+      <c r="AV76" s="4">
         <v>17.77</v>
       </c>
-      <c r="AK76" s="5">
+      <c r="AW76" s="5">
         <v>0.14225000000000002</v>
       </c>
-      <c r="AL76" s="5">
+      <c r="AX76" s="5">
         <v>0.20466666666666666</v>
       </c>
-      <c r="AM76" s="5">
+      <c r="AY76" s="5">
         <v>0.29497958203218833</v>
       </c>
+      <c r="AZ76" s="5">
+        <f t="shared" si="33"/>
+        <v>2.8825366322363681</v>
+      </c>
+      <c r="BA76" s="5">
+        <f t="shared" si="34"/>
+        <v>1619.4167326790425</v>
+      </c>
+      <c r="BB76" s="5">
+        <f t="shared" si="35"/>
+        <v>5.9490860730139428E-2</v>
+      </c>
+      <c r="BC76" s="5">
+        <f t="shared" si="36"/>
+        <v>0.21445552380787403</v>
+      </c>
+      <c r="BD76" s="5">
+        <f t="shared" si="37"/>
+        <v>27221.269163090274</v>
+      </c>
+      <c r="BE76" s="5">
+        <f t="shared" si="38"/>
+        <v>7551.294104831929</v>
+      </c>
     </row>
-    <row r="77" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>5</v>
       </c>
@@ -10415,7 +15923,7 @@
         <v>2</v>
       </c>
       <c r="O77" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="P77" s="3" t="s">
@@ -10466,32 +15974,104 @@
       <c r="AE77" s="5">
         <v>0.41075844660856514</v>
       </c>
-      <c r="AF77" s="4">
+      <c r="AF77" s="5">
+        <f t="shared" si="21"/>
+        <v>2.6606177408626546</v>
+      </c>
+      <c r="AG77" s="5">
+        <f t="shared" si="22"/>
+        <v>1069.1711750615857</v>
+      </c>
+      <c r="AH77" s="5">
+        <f t="shared" si="23"/>
+        <v>6.4283930415780732E-2</v>
+      </c>
+      <c r="AI77" s="5">
+        <f t="shared" si="24"/>
+        <v>0.2245606761420551</v>
+      </c>
+      <c r="AJ77" s="5">
+        <f t="shared" si="25"/>
+        <v>16632.013135262812</v>
+      </c>
+      <c r="AK77" s="5">
+        <f t="shared" si="26"/>
+        <v>4761.1683106317214</v>
+      </c>
+      <c r="AL77" s="4">
         <v>15.99</v>
       </c>
-      <c r="AG77" s="5">
+      <c r="AM77" s="5">
         <v>0.10964583333333333</v>
       </c>
-      <c r="AH77" s="5">
+      <c r="AN77" s="5">
         <v>0.26219230769230772</v>
       </c>
-      <c r="AI77" s="5">
+      <c r="AO77" s="5">
         <v>0.35256241730488264</v>
       </c>
-      <c r="AJ77" s="4">
+      <c r="AP77" s="5">
+        <f t="shared" si="27"/>
+        <v>2.6893421886245994</v>
+      </c>
+      <c r="AQ77" s="5">
+        <f t="shared" si="28"/>
+        <v>1245.6548669711799</v>
+      </c>
+      <c r="AR77" s="5">
+        <f t="shared" si="29"/>
+        <v>6.7918632978843763E-2</v>
+      </c>
+      <c r="AS77" s="5">
+        <f t="shared" si="30"/>
+        <v>0.25102561914643723</v>
+      </c>
+      <c r="AT77" s="5">
+        <f t="shared" si="31"/>
+        <v>18340.399568395227</v>
+      </c>
+      <c r="AU77" s="5">
+        <f t="shared" si="32"/>
+        <v>4962.2619046087084</v>
+      </c>
+      <c r="AV77" s="4">
         <v>18.22</v>
       </c>
-      <c r="AK77" s="5">
+      <c r="AW77" s="5">
         <v>0.14125000000000001</v>
       </c>
-      <c r="AL77" s="5">
+      <c r="AX77" s="5">
         <v>0.22800000000000001</v>
       </c>
-      <c r="AM77" s="5">
+      <c r="AY77" s="5">
         <v>0.30873392010832768</v>
       </c>
+      <c r="AZ77" s="5">
+        <f t="shared" si="33"/>
+        <v>2.7081922816519972</v>
+      </c>
+      <c r="BA77" s="5">
+        <f t="shared" si="34"/>
+        <v>1422.4905733482608</v>
+      </c>
+      <c r="BB77" s="5">
+        <f t="shared" si="35"/>
+        <v>6.7699746893882709E-2</v>
+      </c>
+      <c r="BC77" s="5">
+        <f t="shared" si="36"/>
+        <v>0.26938659771200713</v>
+      </c>
+      <c r="BD77" s="5">
+        <f t="shared" si="37"/>
+        <v>21011.756152914004</v>
+      </c>
+      <c r="BE77" s="5">
+        <f t="shared" si="38"/>
+        <v>5280.4801182759711</v>
+      </c>
     </row>
-    <row r="78" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>5</v>
       </c>
@@ -10533,7 +16113,7 @@
         <v>3</v>
       </c>
       <c r="O78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="P78" s="3" t="s">
@@ -10584,32 +16164,104 @@
       <c r="AE78" s="5">
         <v>0.37734269337283438</v>
       </c>
-      <c r="AF78" s="4">
+      <c r="AF78" s="5">
+        <f t="shared" si="21"/>
+        <v>2.5117537193276229</v>
+      </c>
+      <c r="AG78" s="5">
+        <f t="shared" si="22"/>
+        <v>1449.7105267848785</v>
+      </c>
+      <c r="AH78" s="5">
+        <f t="shared" si="23"/>
+        <v>7.6065018281553792E-2</v>
+      </c>
+      <c r="AI78" s="5">
+        <f t="shared" si="24"/>
+        <v>0.21899714381968807</v>
+      </c>
+      <c r="AJ78" s="5">
+        <f t="shared" si="25"/>
+        <v>19058.833607569668</v>
+      </c>
+      <c r="AK78" s="5">
+        <f t="shared" si="26"/>
+        <v>6619.769105201216</v>
+      </c>
+      <c r="AL78" s="4">
         <v>15.91</v>
       </c>
-      <c r="AG78" s="5">
+      <c r="AM78" s="5">
         <v>0.13307291666666668</v>
       </c>
-      <c r="AH78" s="5">
+      <c r="AN78" s="5">
         <v>0.2524153846153846</v>
       </c>
-      <c r="AI78" s="5">
+      <c r="AO78" s="5">
         <v>0.32739694534945063</v>
       </c>
-      <c r="AJ78" s="4">
+      <c r="AP78" s="5">
+        <f t="shared" si="27"/>
+        <v>2.5941124456286091</v>
+      </c>
+      <c r="AQ78" s="5">
+        <f t="shared" si="28"/>
+        <v>1670.8698189107115</v>
+      </c>
+      <c r="AR78" s="5">
+        <f t="shared" si="29"/>
+        <v>7.3791712041249263E-2</v>
+      </c>
+      <c r="AS78" s="5">
+        <f t="shared" si="30"/>
+        <v>0.23287326794099042</v>
+      </c>
+      <c r="AT78" s="5">
+        <f t="shared" si="31"/>
+        <v>22643.055333594944</v>
+      </c>
+      <c r="AU78" s="5">
+        <f t="shared" si="32"/>
+        <v>7175.0176981846898</v>
+      </c>
+      <c r="AV78" s="4">
         <v>17.559999999999999</v>
       </c>
-      <c r="AK78" s="5">
+      <c r="AW78" s="5">
         <v>0.142625</v>
       </c>
-      <c r="AL78" s="5">
+      <c r="AX78" s="5">
         <v>0.22700000000000001</v>
       </c>
-      <c r="AM78" s="5">
+      <c r="AY78" s="5">
         <v>0.30706797429827531</v>
       </c>
+      <c r="AZ78" s="5">
+        <f t="shared" si="33"/>
+        <v>2.7054447074737911</v>
+      </c>
+      <c r="BA78" s="5">
+        <f t="shared" si="34"/>
+        <v>1781.4872294581364</v>
+      </c>
+      <c r="BB78" s="5">
+        <f t="shared" si="35"/>
+        <v>6.7814083442481965E-2</v>
+      </c>
+      <c r="BC78" s="5">
+        <f t="shared" si="36"/>
+        <v>0.25626712356694259</v>
+      </c>
+      <c r="BD78" s="5">
+        <f t="shared" si="37"/>
+        <v>26270.166004221599</v>
+      </c>
+      <c r="BE78" s="5">
+        <f t="shared" si="38"/>
+        <v>6951.6807488291524</v>
+      </c>
     </row>
-    <row r="79" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>5</v>
       </c>
@@ -10649,7 +16301,7 @@
         <v>2</v>
       </c>
       <c r="O79" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="P79" s="3" t="s">
@@ -10700,32 +16352,104 @@
       <c r="AE79" s="5">
         <v>0.38915458338890691</v>
       </c>
-      <c r="AF79" s="4">
+      <c r="AF79" s="5">
+        <f t="shared" si="21"/>
+        <v>2.9723910599622734</v>
+      </c>
+      <c r="AG79" s="5">
+        <f t="shared" si="22"/>
+        <v>1583.896232871371</v>
+      </c>
+      <c r="AH79" s="5">
+        <f t="shared" si="23"/>
+        <v>5.3464238311505749E-2</v>
+      </c>
+      <c r="AI79" s="5">
+        <f t="shared" si="24"/>
+        <v>0.16326105755706394</v>
+      </c>
+      <c r="AJ79" s="5">
+        <f t="shared" si="25"/>
+        <v>29625.339907451918</v>
+      </c>
+      <c r="AK79" s="5">
+        <f t="shared" si="26"/>
+        <v>9701.6168863034509</v>
+      </c>
+      <c r="AL79" s="4">
         <v>15.11</v>
       </c>
-      <c r="AG79" s="5">
+      <c r="AM79" s="5">
         <v>9.6120833333333322E-2</v>
       </c>
-      <c r="AH79" s="5">
+      <c r="AN79" s="5">
         <v>0.22977972027972027</v>
       </c>
-      <c r="AI79" s="5">
+      <c r="AO79" s="5">
         <v>0.35253042336427115</v>
       </c>
-      <c r="AJ79" s="4">
+      <c r="AP79" s="5">
+        <f t="shared" si="27"/>
+        <v>3.0684206851250533</v>
+      </c>
+      <c r="AQ79" s="5">
+        <f t="shared" si="28"/>
+        <v>1748.4461986346321</v>
+      </c>
+      <c r="AR79" s="5">
+        <f t="shared" si="29"/>
+        <v>5.2174796310563945E-2</v>
+      </c>
+      <c r="AS79" s="5">
+        <f t="shared" si="30"/>
+        <v>0.18615418662568456</v>
+      </c>
+      <c r="AT79" s="5">
+        <f t="shared" si="31"/>
+        <v>33511.318151147636</v>
+      </c>
+      <c r="AU79" s="5">
+        <f t="shared" si="32"/>
+        <v>9392.4624008074334</v>
+      </c>
+      <c r="AV79" s="4">
         <v>17.29</v>
       </c>
-      <c r="AK79" s="5">
+      <c r="AW79" s="5">
         <v>0.10729999999999999</v>
       </c>
-      <c r="AL79" s="5">
+      <c r="AX79" s="5">
         <v>0.20181818181818179</v>
       </c>
-      <c r="AM79" s="5">
+      <c r="AY79" s="5">
         <v>0.32644178454842215</v>
       </c>
+      <c r="AZ79" s="5">
+        <f t="shared" si="33"/>
+        <v>3.2350086757050853</v>
+      </c>
+      <c r="BA79" s="5">
+        <f t="shared" si="34"/>
+        <v>1888.1788662164593</v>
+      </c>
+      <c r="BB79" s="5">
+        <f t="shared" si="35"/>
+        <v>4.7457497107800048E-2</v>
+      </c>
+      <c r="BC79" s="5">
+        <f t="shared" si="36"/>
+        <v>0.19772050207678021</v>
+      </c>
+      <c r="BD79" s="5">
+        <f t="shared" si="37"/>
+        <v>39786.735105887426</v>
+      </c>
+      <c r="BE79" s="5">
+        <f t="shared" si="38"/>
+        <v>9549.7373635194817</v>
+      </c>
     </row>
-    <row r="80" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -10769,7 +16493,7 @@
         <v>3</v>
       </c>
       <c r="O80" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="P80" s="3" t="s">
@@ -10820,32 +16544,104 @@
       <c r="AE80" s="5">
         <v>0.39596889670297802</v>
       </c>
-      <c r="AF80" s="4">
+      <c r="AF80" s="5">
+        <f t="shared" si="21"/>
+        <v>2.8275724565441989</v>
+      </c>
+      <c r="AG80" s="5">
+        <f t="shared" si="22"/>
+        <v>1381.5167790774676</v>
+      </c>
+      <c r="AH80" s="5">
+        <f t="shared" si="23"/>
+        <v>5.8460166299039523E-2</v>
+      </c>
+      <c r="AI80" s="5">
+        <f t="shared" si="24"/>
+        <v>0.18532665910472482</v>
+      </c>
+      <c r="AJ80" s="5">
+        <f t="shared" si="25"/>
+        <v>23631.762729011691</v>
+      </c>
+      <c r="AK80" s="5">
+        <f t="shared" si="26"/>
+        <v>7454.4956767218091</v>
+      </c>
+      <c r="AL80" s="4">
         <v>14.18</v>
       </c>
-      <c r="AG80" s="5">
+      <c r="AM80" s="5">
         <v>8.6868055555555546E-2</v>
       </c>
-      <c r="AH80" s="5">
+      <c r="AN80" s="5">
         <v>0.2579124125874126</v>
       </c>
-      <c r="AI80" s="5">
+      <c r="AO80" s="5">
         <v>0.37402410579775874</v>
       </c>
-      <c r="AJ80" s="4">
+      <c r="AP80" s="5">
+        <f t="shared" si="27"/>
+        <v>2.900396317071348</v>
+      </c>
+      <c r="AQ80" s="5">
+        <f t="shared" si="28"/>
+        <v>1462.573310939882</v>
+      </c>
+      <c r="AR80" s="5">
+        <f t="shared" si="29"/>
+        <v>5.7267927966314469E-2</v>
+      </c>
+      <c r="AS80" s="5">
+        <f t="shared" si="30"/>
+        <v>0.22997295399199785</v>
+      </c>
+      <c r="AT80" s="5">
+        <f t="shared" si="31"/>
+        <v>25539.134431407772</v>
+      </c>
+      <c r="AU80" s="5">
+        <f t="shared" si="32"/>
+        <v>6359.7622483501855</v>
+      </c>
+      <c r="AV80" s="4">
         <v>17.190000000000001</v>
       </c>
-      <c r="AK80" s="5">
+      <c r="AW80" s="5">
         <v>0.10088888888888888</v>
       </c>
-      <c r="AL80" s="5">
+      <c r="AX80" s="5">
         <v>0.2283</v>
       </c>
-      <c r="AM80" s="5">
+      <c r="AY80" s="5">
         <v>0.3467614000742566</v>
       </c>
+      <c r="AZ80" s="5">
+        <f t="shared" si="33"/>
+        <v>3.0377696020521823</v>
+      </c>
+      <c r="BA80" s="5">
+        <f t="shared" si="34"/>
+        <v>1577.5621931126484</v>
+      </c>
+      <c r="BB80" s="5">
+        <f t="shared" si="35"/>
+        <v>5.342517392465676E-2</v>
+      </c>
+      <c r="BC80" s="5">
+        <f t="shared" si="36"/>
+        <v>0.25126526510860414</v>
+      </c>
+      <c r="BD80" s="5">
+        <f t="shared" si="37"/>
+        <v>29528.442814943701</v>
+      </c>
+      <c r="BE80" s="5">
+        <f t="shared" si="38"/>
+        <v>6278.4730409544682</v>
+      </c>
     </row>
-    <row r="81" spans="1:39" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:57" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>5</v>
       </c>
@@ -10889,7 +16685,7 @@
         <v>3</v>
       </c>
       <c r="O81" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="P81" s="3" t="s">
@@ -10940,29 +16736,101 @@
       <c r="AE81" s="5">
         <v>0.36847949941095809</v>
       </c>
-      <c r="AF81" s="4">
+      <c r="AF81" s="5">
+        <f t="shared" si="21"/>
+        <v>2.5492960466598427</v>
+      </c>
+      <c r="AG81" s="5">
+        <f t="shared" si="22"/>
+        <v>1630.9481738581287</v>
+      </c>
+      <c r="AH81" s="5">
+        <f t="shared" si="23"/>
+        <v>7.4571665786527547E-2</v>
+      </c>
+      <c r="AI81" s="5">
+        <f t="shared" si="24"/>
+        <v>0.20033384880648189</v>
+      </c>
+      <c r="AJ81" s="5">
+        <f t="shared" si="25"/>
+        <v>21870.882950730371</v>
+      </c>
+      <c r="AK81" s="5">
+        <f t="shared" si="26"/>
+        <v>8141.1513010643994</v>
+      </c>
+      <c r="AL81" s="4">
         <v>14.73</v>
       </c>
-      <c r="AG81" s="5">
+      <c r="AM81" s="5">
         <v>0.12407670454545455</v>
       </c>
-      <c r="AH81" s="5">
+      <c r="AN81" s="5">
         <v>0.25595972222222219</v>
       </c>
-      <c r="AI81" s="5">
+      <c r="AO81" s="5">
         <v>0.3367568267063713</v>
       </c>
-      <c r="AJ81" s="4">
+      <c r="AP81" s="5">
+        <f t="shared" si="27"/>
+        <v>2.6313267086139573</v>
+      </c>
+      <c r="AQ81" s="5">
+        <f t="shared" si="28"/>
+        <v>1784.5843617966641</v>
+      </c>
+      <c r="AR81" s="5">
+        <f t="shared" si="29"/>
+        <v>7.1536662608683008E-2</v>
+      </c>
+      <c r="AS81" s="5">
+        <f t="shared" si="30"/>
+        <v>0.22821260995602649</v>
+      </c>
+      <c r="AT81" s="5">
+        <f t="shared" si="31"/>
+        <v>24946.430218007597</v>
+      </c>
+      <c r="AU81" s="5">
+        <f t="shared" si="32"/>
+        <v>7819.8324016386714</v>
+      </c>
+      <c r="AV81" s="4">
         <v>18.28</v>
       </c>
-      <c r="AK81" s="5">
+      <c r="AW81" s="5">
         <v>0.139125</v>
       </c>
-      <c r="AL81" s="5">
+      <c r="AX81" s="5">
         <v>0.21855555555555556</v>
       </c>
-      <c r="AM81" s="5">
+      <c r="AY81" s="5">
         <v>0.30551780375101928</v>
+      </c>
+      <c r="AZ81" s="5">
+        <f t="shared" si="33"/>
+        <v>2.795790781656506</v>
+      </c>
+      <c r="BA81" s="5">
+        <f t="shared" si="34"/>
+        <v>1967.0571053142903</v>
+      </c>
+      <c r="BB81" s="5">
+        <f t="shared" si="35"/>
+        <v>6.3478690754566774E-2</v>
+      </c>
+      <c r="BC81" s="5">
+        <f t="shared" si="36"/>
+        <v>0.22875396711806026</v>
+      </c>
+      <c r="BD81" s="5">
+        <f t="shared" si="37"/>
+        <v>30987.676052105351</v>
+      </c>
+      <c r="BE81" s="5">
+        <f t="shared" si="38"/>
+        <v>8599.0076154573926</v>
       </c>
     </row>
   </sheetData>
